--- a/ExtraClase/Documencation-EMNA/EMNA-Documentacion.xlsx
+++ b/ExtraClase/Documencation-EMNA/EMNA-Documentacion.xlsx
@@ -5,45 +5,47 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Arias Ramirez\OneDrive\Escritorio\U\2024-2\IS2\ExtraClase\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Arias Ramirez\OneDrive\Escritorio\U\2024-2\IS2\ExtraClase\Documencation-EMNA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72C3646C-DE8F-4FEC-BBC1-149E25B8AAD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{381D62FC-E9D9-48D8-8DDB-051DB140963F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabla de Contenido" sheetId="1" r:id="rId1"/>
-    <sheet name="Img-Diagrama de actividades " sheetId="37" r:id="rId2"/>
-    <sheet name="Img-Modelo de entidad relacion " sheetId="36" r:id="rId3"/>
-    <sheet name="Img-Modelo de dominio " sheetId="35" r:id="rId4"/>
-    <sheet name="Img-Arquetipo de solucion " sheetId="31" r:id="rId5"/>
-    <sheet name="Diagrama de paquetes " sheetId="30" r:id="rId6"/>
-    <sheet name="Img-Diagrama de paquetes " sheetId="34" r:id="rId7"/>
-    <sheet name="Diagrama de componentes " sheetId="29" r:id="rId8"/>
-    <sheet name="Img-Diagrama de componentes " sheetId="33" r:id="rId9"/>
-    <sheet name="Provedores Componentes" sheetId="28" r:id="rId10"/>
-    <sheet name="Elecciones" sheetId="27" r:id="rId11"/>
-    <sheet name="HistoriasUsuario" sheetId="26" r:id="rId12"/>
-    <sheet name="TacticasEstrategias" sheetId="23" r:id="rId13"/>
-    <sheet name="AlternativaSolucionSelecc" sheetId="22" r:id="rId14"/>
-    <sheet name="RestriccionesNegocio" sheetId="19" r:id="rId15"/>
-    <sheet name="RestriccionesTecnicas" sheetId="21" r:id="rId16"/>
-    <sheet name="FuncionalidadesCriticas " sheetId="20" r:id="rId17"/>
-    <sheet name="Caracterizacion" sheetId="7" r:id="rId18"/>
-    <sheet name="ESC-CAL-0001-Capacidad-Auditado" sheetId="17" r:id="rId19"/>
-    <sheet name="ESC-CAL-0002-Capacidad-Auditado" sheetId="18" r:id="rId20"/>
-    <sheet name="ESC-CAL-0001-Eficiencia " sheetId="15" r:id="rId21"/>
-    <sheet name="ESC-CAL-0002-Eficiencia " sheetId="16" r:id="rId22"/>
-    <sheet name="ESC-CAL-0001-Portabilidad " sheetId="13" r:id="rId23"/>
-    <sheet name="ESC-CAL-0002-Portabilidad " sheetId="14" r:id="rId24"/>
-    <sheet name="ESC-CAL-0001-Disponibilidad" sheetId="11" r:id="rId25"/>
-    <sheet name="ESC-CAL-0002-Disponibilidad" sheetId="25" r:id="rId26"/>
-    <sheet name="ESC-CAL-0001-ResilienciaFallo" sheetId="12" r:id="rId27"/>
-    <sheet name="ESC-CAL-0002-Seguridad" sheetId="10" r:id="rId28"/>
-    <sheet name="ESC-CAL-0001-Seguridad" sheetId="9" r:id="rId29"/>
-    <sheet name="Mapa Empatia" sheetId="5" r:id="rId30"/>
-    <sheet name="Trade off " sheetId="3" r:id="rId31"/>
+    <sheet name="Diagrama de secuencias " sheetId="39" r:id="rId2"/>
+    <sheet name="Img-Diagrama de secuencias " sheetId="38" r:id="rId3"/>
+    <sheet name="Img-Diagrama de actividades " sheetId="37" r:id="rId4"/>
+    <sheet name="Img-Modelo de entidad relacion " sheetId="36" r:id="rId5"/>
+    <sheet name="Img-Modelo de dominio " sheetId="35" r:id="rId6"/>
+    <sheet name="Img-Arquetipo de solucion " sheetId="31" r:id="rId7"/>
+    <sheet name="Diagrama de paquetes " sheetId="30" r:id="rId8"/>
+    <sheet name="Img-Diagrama de paquetes " sheetId="34" r:id="rId9"/>
+    <sheet name="Diagrama de componentes " sheetId="29" r:id="rId10"/>
+    <sheet name="Img-Diagrama de componentes " sheetId="33" r:id="rId11"/>
+    <sheet name="Provedores Componentes" sheetId="28" r:id="rId12"/>
+    <sheet name="Elecciones" sheetId="27" r:id="rId13"/>
+    <sheet name="HistoriasUsuario" sheetId="26" r:id="rId14"/>
+    <sheet name="TacticasEstrategias" sheetId="23" r:id="rId15"/>
+    <sheet name="AlternativaSolucionSelecc" sheetId="22" r:id="rId16"/>
+    <sheet name="RestriccionesNegocio" sheetId="19" r:id="rId17"/>
+    <sheet name="RestriccionesTecnicas" sheetId="21" r:id="rId18"/>
+    <sheet name="FuncionalidadesCriticas " sheetId="20" r:id="rId19"/>
+    <sheet name="Caracterizacion" sheetId="7" r:id="rId20"/>
+    <sheet name="ESC-CAL-0001-Capacidad-Auditado" sheetId="17" r:id="rId21"/>
+    <sheet name="ESC-CAL-0002-Capacidad-Auditado" sheetId="18" r:id="rId22"/>
+    <sheet name="ESC-CAL-0001-Eficiencia " sheetId="15" r:id="rId23"/>
+    <sheet name="ESC-CAL-0002-Eficiencia " sheetId="16" r:id="rId24"/>
+    <sheet name="ESC-CAL-0001-Portabilidad " sheetId="13" r:id="rId25"/>
+    <sheet name="ESC-CAL-0002-Portabilidad " sheetId="14" r:id="rId26"/>
+    <sheet name="ESC-CAL-0001-Disponibilidad" sheetId="11" r:id="rId27"/>
+    <sheet name="ESC-CAL-0002-Disponibilidad" sheetId="25" r:id="rId28"/>
+    <sheet name="ESC-CAL-0001-ResilienciaFallo" sheetId="12" r:id="rId29"/>
+    <sheet name="ESC-CAL-0002-Seguridad" sheetId="10" r:id="rId30"/>
+    <sheet name="ESC-CAL-0001-Seguridad" sheetId="9" r:id="rId31"/>
+    <sheet name="Mapa Empatia" sheetId="5" r:id="rId32"/>
+    <sheet name="Trade off " sheetId="3" r:id="rId33"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -66,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1699" uniqueCount="942">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1801" uniqueCount="993">
   <si>
     <t>Trade off de QA</t>
   </si>
@@ -3507,6 +3509,453 @@
   <si>
     <t xml:space="preserve">Modelo </t>
   </si>
+  <si>
+    <t>Modelo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diagrama de secuencia </t>
+  </si>
+  <si>
+    <t>Número acción</t>
+  </si>
+  <si>
+    <t>Nombre acción</t>
+  </si>
+  <si>
+    <t>Parámetros Entrada</t>
+  </si>
+  <si>
+    <t>Retorno</t>
+  </si>
+  <si>
+    <t>Capa Origen</t>
+  </si>
+  <si>
+    <t>Capa Destino</t>
+  </si>
+  <si>
+    <t>Nombre</t>
+  </si>
+  <si>
+    <t xml:space="preserve">emna-estraclase </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Componente que representa el estereotipo general de diseño detallao para todos los componentes de la solucion. </t>
+  </si>
+  <si>
+    <t>Modelo que tiene como motivacion mostrar el flujo de interaccion/ colaboracion/ secuencia para levar a caboluna trnasaccion determinadade las capas que intervienen en cada momento del tiempo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">json </t>
+  </si>
+  <si>
+    <t>urls</t>
+  </si>
+  <si>
+    <t>views</t>
+  </si>
+  <si>
+    <t>serializer</t>
+  </si>
+  <si>
+    <t>models</t>
+  </si>
+  <si>
+    <t>frontend</t>
+  </si>
+  <si>
+    <t>execute</t>
+  </si>
+  <si>
+    <t>json</t>
+  </si>
+  <si>
+    <t>return</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Corresponde a la acción que se ejecuta desde el front end por parte del usuario y/o aplicación, y que es enviada para ser procesada por parte de </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>urls</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>Parámetro que contiene toda la información necesaria para procesar la transacción en formato JSON.</t>
+  </si>
+  <si>
+    <t>Response</t>
+  </si>
+  <si>
+    <t>Corresponde al resultado de la ejecución, que puede ser una confirmación de éxito o error.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Corresponde a la acción que se ejecuta desde </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>urls</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, donde el sistema determina qué vista manejar según la solicitud.</t>
+    </r>
+  </si>
+  <si>
+    <t>No se recibe un dato específico; se utiliza para identificar la vista correspondiente.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Corresponde a la acción en </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>views</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> que solicita al modelo (model) la información necesaria para ejecutar su lógica.</t>
+    </r>
+  </si>
+  <si>
+    <t>http, urls</t>
+  </si>
+  <si>
+    <t>Se envían parámetros HTTP y los URLs para realizar la consulta o acción requerida.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Corresponde a la respuesta generada por </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>views</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> hacia </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>models</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, retornando el modelo o la información solicitada.</t>
+    </r>
+  </si>
+  <si>
+    <t>Object</t>
+  </si>
+  <si>
+    <t>Un objeto que representa el modelo de datos, que puede incluir instancias de base de datos.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Corresponde a la acción de </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>views</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> que solicita al serializer realizar la traducción de los datos en formato JSON.</t>
+    </r>
+  </si>
+  <si>
+    <t>Parámetros necesarios para la serialización de datos.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Corresponde a la acción en </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>serializer</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> que solicita al modelo la información necesaria para su propio proceso de serialización.</t>
+    </r>
+  </si>
+  <si>
+    <t>Datos en formato JSON que se deben procesar.</t>
+  </si>
+  <si>
+    <t>Resultado de la serialización, representando los datos en un formato adecuado.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Corresponde a la respuesta generada por </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>models</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> hacia el serializer, donde se retorna el modelo solicitado para su serialización.</t>
+    </r>
+  </si>
+  <si>
+    <t>Objeto que representa la información de la base de datos a serializar.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Corresponde a la respuesta generada por </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>serializer</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> hacia </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>views</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, donde se realiza el proceso de serialización o deserialización de los datos.</t>
+    </r>
+  </si>
+  <si>
+    <t>Datos en formato JSON que han sido convertidos a partir del modelo.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">La representación JSON de los datos listos para ser enviados a </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>views</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Corresponde a la respuesta generada por </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>views</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> hacia </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>urls</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, donde se prepara la respuesta final a enviar al frontend.</t>
+    </r>
+  </si>
+  <si>
+    <t>Se preparan los datos en formato adecuado para ser devueltos al cliente.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">La URL de respuesta que puede incluir los datos generados por </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>views</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Corresponde a la respuesta generada por </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>urls</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> hacia el frontend, que puede ser en formato JSON o HTML.</t>
+    </r>
+  </si>
+  <si>
+    <t>Respuesta que puede contener datos en formato JSON o HTML, según la solicitud.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Object </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Objeto serializado para estar en relacion con la base de datos </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resultado de la solicutud, representando los datos en un formato adecuado. </t>
+  </si>
 </sst>
 </file>
 
@@ -3515,7 +3964,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3616,6 +4065,11 @@
       <color rgb="FF000000"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial Unicode MS"/>
     </font>
   </fonts>
   <fills count="28">
@@ -4116,7 +4570,7 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="22" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="182">
+  <cellXfs count="187">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -4462,6 +4916,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -4484,15 +4947,6 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="23" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4630,8 +5084,23 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -8372,6 +8841,72 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>1</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Imagen 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3AE31213-E323-9EA8-386F-9988CF26A73A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="361950"/>
+          <a:ext cx="9153525" cy="4486275"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
@@ -8431,7 +8966,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -8497,7 +9032,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -8563,7 +9098,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -8629,7 +9164,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -8695,7 +9230,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -8761,7 +9296,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -9309,11 +9844,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="42.42578125" style="11" customWidth="1"/>
     <col min="2" max="2" width="84" style="11" customWidth="1"/>
@@ -9321,7 +9854,7 @@
     <col min="4" max="16384" width="9.140625" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6">
       <c r="A1" s="19"/>
       <c r="B1" s="113" t="s">
         <v>369</v>
@@ -9329,7 +9862,7 @@
       <c r="C1" s="113"/>
       <c r="F1" s="10"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6">
       <c r="A2" s="37" t="s">
         <v>370</v>
       </c>
@@ -9339,7 +9872,7 @@
       <c r="C2" s="114"/>
       <c r="F2" s="10"/>
     </row>
-    <row r="3" spans="1:6" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="64.5" customHeight="1">
       <c r="A3" s="37" t="s">
         <v>371</v>
       </c>
@@ -9349,7 +9882,7 @@
       <c r="C3" s="114"/>
       <c r="F3" s="10"/>
     </row>
-    <row r="4" spans="1:6" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="66.75" customHeight="1">
       <c r="A4" s="37" t="s">
         <v>372</v>
       </c>
@@ -9359,10 +9892,10 @@
       <c r="C4" s="114"/>
       <c r="F4" s="10"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6">
       <c r="A6" s="7"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6">
       <c r="A7" s="111" t="s">
         <v>892</v>
       </c>
@@ -9370,7 +9903,7 @@
         <v>893</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6">
       <c r="A8" s="91" t="s">
         <v>427</v>
       </c>
@@ -9378,7 +9911,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6">
       <c r="A9" s="90" t="s">
         <v>351</v>
       </c>
@@ -9386,7 +9919,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6">
       <c r="A10" s="90" t="s">
         <v>352</v>
       </c>
@@ -9394,7 +9927,7 @@
         <v>903</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6">
       <c r="A11" s="90" t="s">
         <v>353</v>
       </c>
@@ -9402,7 +9935,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6">
       <c r="A12" s="92" t="s">
         <v>157</v>
       </c>
@@ -9411,7 +9944,7 @@
       </c>
       <c r="C12" s="112"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6">
       <c r="A13" s="90" t="s">
         <v>0</v>
       </c>
@@ -9419,7 +9952,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6">
       <c r="A14" s="90" t="s">
         <v>15</v>
       </c>
@@ -9427,16 +9960,15 @@
         <v>895</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6">
       <c r="A15" s="90" t="s">
         <v>19</v>
       </c>
       <c r="B15" s="110" t="s">
         <v>860</v>
       </c>
-      <c r="C15" s="181"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="92" t="s">
         <v>428</v>
       </c>
@@ -9444,7 +9976,7 @@
         <v>861</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2">
       <c r="A17" s="90" t="s">
         <v>429</v>
       </c>
@@ -9452,15 +9984,15 @@
         <v>896</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2">
       <c r="A18" s="90" t="s">
         <v>430</v>
       </c>
-      <c r="B18" s="21" t="s">
+      <c r="B18" s="110" t="s">
         <v>897</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2">
       <c r="A19" s="92" t="s">
         <v>592</v>
       </c>
@@ -9468,7 +10000,7 @@
         <v>898</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2">
       <c r="A20" s="90" t="s">
         <v>593</v>
       </c>
@@ -9476,7 +10008,7 @@
         <v>899</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2">
       <c r="A21" s="90" t="s">
         <v>657</v>
       </c>
@@ -9484,7 +10016,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2">
       <c r="B22" s="110" t="s">
         <v>901</v>
       </c>
@@ -9514,6 +10046,7 @@
     <hyperlink ref="B11" location="'Img-Modelo de dominio '!A1" display="Modelo de dominio " xr:uid="{2092BDA8-9C1C-41DB-86A7-C285D5A7246F}"/>
     <hyperlink ref="B13" location="'Img-Modelo de entidad relacion '!A1" display="Modelo de entidad relacion " xr:uid="{88A84F18-A83E-46D9-875F-AD7BF1ACC0C4}"/>
     <hyperlink ref="B20" location="'Img-Diagrama de actividades '!A1" display="Diagrama de actividades " xr:uid="{256C662F-55E5-40F9-8E58-002110C950B2}"/>
+    <hyperlink ref="B18" location="'Diagrama de secuencias '!A1" display="Diagrama de secuencias " xr:uid="{CF8057B7-5FB4-40F7-8779-C5DDBB682750}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -9521,19 +10054,577 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45B1D57B-A645-40E4-A8D4-77A621BBB19C}">
+  <dimension ref="A1:F36"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="24.7109375" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="24.5703125" style="101" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" style="101" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12" style="101" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.7109375" style="101" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.7109375" style="101"/>
+    <col min="6" max="6" width="31.85546875" style="101" customWidth="1"/>
+    <col min="7" max="16384" width="24.7109375" style="101"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="100" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1" s="115" t="s">
+        <v>941</v>
+      </c>
+      <c r="C1" s="115"/>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="102" t="s">
+        <v>862</v>
+      </c>
+      <c r="B2" s="125" t="s">
+        <v>873</v>
+      </c>
+      <c r="C2" s="125"/>
+      <c r="D2" s="125"/>
+      <c r="E2" s="125"/>
+      <c r="F2" s="125"/>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="102" t="s">
+        <v>863</v>
+      </c>
+      <c r="B3" s="125" t="s">
+        <v>884</v>
+      </c>
+      <c r="C3" s="125"/>
+      <c r="D3" s="125"/>
+      <c r="E3" s="125"/>
+      <c r="F3" s="125"/>
+    </row>
+    <row r="4" spans="1:6" ht="42.75" customHeight="1">
+      <c r="A4" s="102" t="s">
+        <v>864</v>
+      </c>
+      <c r="B4" s="125" t="s">
+        <v>913</v>
+      </c>
+      <c r="C4" s="125"/>
+      <c r="D4" s="125"/>
+      <c r="E4" s="125"/>
+      <c r="F4" s="125"/>
+    </row>
+    <row r="5" spans="1:6" ht="31.5" customHeight="1">
+      <c r="A5" s="102" t="s">
+        <v>865</v>
+      </c>
+      <c r="B5" s="125" t="s">
+        <v>914</v>
+      </c>
+      <c r="C5" s="125"/>
+      <c r="D5" s="125"/>
+      <c r="E5" s="125"/>
+      <c r="F5" s="125"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="102" t="s">
+        <v>460</v>
+      </c>
+      <c r="B6" s="102" t="s">
+        <v>361</v>
+      </c>
+      <c r="C6" s="102" t="s">
+        <v>866</v>
+      </c>
+      <c r="D6" s="102" t="s">
+        <v>867</v>
+      </c>
+      <c r="E6" s="126" t="s">
+        <v>868</v>
+      </c>
+      <c r="F6" s="126"/>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="127" t="s">
+        <v>873</v>
+      </c>
+      <c r="B7" s="127" t="s">
+        <v>878</v>
+      </c>
+      <c r="C7" s="103" t="s">
+        <v>879</v>
+      </c>
+      <c r="D7" s="127"/>
+      <c r="E7" s="127" t="s">
+        <v>913</v>
+      </c>
+      <c r="F7" s="127"/>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="127"/>
+      <c r="B8" s="127"/>
+      <c r="C8" s="103" t="s">
+        <v>880</v>
+      </c>
+      <c r="D8" s="127"/>
+      <c r="E8" s="127"/>
+      <c r="F8" s="127"/>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="127"/>
+      <c r="B9" s="127"/>
+      <c r="C9" s="103" t="s">
+        <v>882</v>
+      </c>
+      <c r="D9" s="127"/>
+      <c r="E9" s="127"/>
+      <c r="F9" s="127"/>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="127" t="s">
+        <v>879</v>
+      </c>
+      <c r="B10" s="127" t="s">
+        <v>877</v>
+      </c>
+      <c r="C10" s="127"/>
+      <c r="D10" s="103" t="s">
+        <v>883</v>
+      </c>
+      <c r="E10" s="127" t="s">
+        <v>910</v>
+      </c>
+      <c r="F10" s="127"/>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="127"/>
+      <c r="B11" s="127"/>
+      <c r="C11" s="127"/>
+      <c r="D11" s="103" t="s">
+        <v>880</v>
+      </c>
+      <c r="E11" s="127"/>
+      <c r="F11" s="127"/>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="127"/>
+      <c r="B12" s="127"/>
+      <c r="C12" s="127"/>
+      <c r="D12" s="103" t="s">
+        <v>882</v>
+      </c>
+      <c r="E12" s="127"/>
+      <c r="F12" s="127"/>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="127" t="s">
+        <v>880</v>
+      </c>
+      <c r="B13" s="127" t="s">
+        <v>877</v>
+      </c>
+      <c r="C13" s="136" t="s">
+        <v>879</v>
+      </c>
+      <c r="D13" s="103" t="s">
+        <v>883</v>
+      </c>
+      <c r="E13" s="139" t="s">
+        <v>911</v>
+      </c>
+      <c r="F13" s="140"/>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="127"/>
+      <c r="B14" s="127"/>
+      <c r="C14" s="137"/>
+      <c r="D14" s="104" t="s">
+        <v>874</v>
+      </c>
+      <c r="E14" s="141"/>
+      <c r="F14" s="142"/>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="127"/>
+      <c r="B15" s="127"/>
+      <c r="C15" s="137"/>
+      <c r="D15" s="104" t="s">
+        <v>875</v>
+      </c>
+      <c r="E15" s="141"/>
+      <c r="F15" s="142"/>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="127"/>
+      <c r="B16" s="127"/>
+      <c r="C16" s="138"/>
+      <c r="D16" s="104" t="s">
+        <v>876</v>
+      </c>
+      <c r="E16" s="143"/>
+      <c r="F16" s="144"/>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="127" t="s">
+        <v>881</v>
+      </c>
+      <c r="B17" s="127" t="s">
+        <v>877</v>
+      </c>
+      <c r="C17" s="136" t="s">
+        <v>879</v>
+      </c>
+      <c r="D17" s="103" t="s">
+        <v>883</v>
+      </c>
+      <c r="E17" s="128" t="s">
+        <v>912</v>
+      </c>
+      <c r="F17" s="129"/>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="127"/>
+      <c r="B18" s="127"/>
+      <c r="C18" s="137"/>
+      <c r="D18" s="104" t="s">
+        <v>874</v>
+      </c>
+      <c r="E18" s="134"/>
+      <c r="F18" s="135"/>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="127"/>
+      <c r="B19" s="127"/>
+      <c r="C19" s="137"/>
+      <c r="D19" s="104" t="s">
+        <v>875</v>
+      </c>
+      <c r="E19" s="134"/>
+      <c r="F19" s="135"/>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="127"/>
+      <c r="B20" s="127"/>
+      <c r="C20" s="138"/>
+      <c r="D20" s="104" t="s">
+        <v>876</v>
+      </c>
+      <c r="E20" s="130"/>
+      <c r="F20" s="131"/>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="122" t="s">
+        <v>874</v>
+      </c>
+      <c r="B21" s="122" t="s">
+        <v>878</v>
+      </c>
+      <c r="C21" s="103" t="s">
+        <v>879</v>
+      </c>
+      <c r="D21" s="122" t="s">
+        <v>883</v>
+      </c>
+      <c r="E21" s="128" t="s">
+        <v>908</v>
+      </c>
+      <c r="F21" s="129"/>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="124"/>
+      <c r="B22" s="124"/>
+      <c r="C22" s="103" t="s">
+        <v>880</v>
+      </c>
+      <c r="D22" s="124"/>
+      <c r="E22" s="134"/>
+      <c r="F22" s="135"/>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="123"/>
+      <c r="B23" s="123"/>
+      <c r="C23" s="103" t="s">
+        <v>882</v>
+      </c>
+      <c r="D23" s="123"/>
+      <c r="E23" s="130"/>
+      <c r="F23" s="131"/>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="122" t="s">
+        <v>875</v>
+      </c>
+      <c r="B24" s="122" t="s">
+        <v>878</v>
+      </c>
+      <c r="C24" s="103" t="s">
+        <v>879</v>
+      </c>
+      <c r="D24" s="122" t="s">
+        <v>883</v>
+      </c>
+      <c r="E24" s="128" t="s">
+        <v>907</v>
+      </c>
+      <c r="F24" s="129"/>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="124"/>
+      <c r="B25" s="124"/>
+      <c r="C25" s="103" t="s">
+        <v>880</v>
+      </c>
+      <c r="D25" s="124"/>
+      <c r="E25" s="134"/>
+      <c r="F25" s="135"/>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="123"/>
+      <c r="B26" s="123"/>
+      <c r="C26" s="103" t="s">
+        <v>882</v>
+      </c>
+      <c r="D26" s="123"/>
+      <c r="E26" s="130"/>
+      <c r="F26" s="131"/>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="122" t="s">
+        <v>876</v>
+      </c>
+      <c r="B27" s="122" t="s">
+        <v>878</v>
+      </c>
+      <c r="C27" s="103" t="s">
+        <v>879</v>
+      </c>
+      <c r="D27" s="122" t="s">
+        <v>883</v>
+      </c>
+      <c r="E27" s="128" t="s">
+        <v>909</v>
+      </c>
+      <c r="F27" s="129"/>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="124"/>
+      <c r="B28" s="124"/>
+      <c r="C28" s="103" t="s">
+        <v>880</v>
+      </c>
+      <c r="D28" s="124"/>
+      <c r="E28" s="134"/>
+      <c r="F28" s="135"/>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="123"/>
+      <c r="B29" s="123"/>
+      <c r="C29" s="103" t="s">
+        <v>882</v>
+      </c>
+      <c r="D29" s="123"/>
+      <c r="E29" s="130"/>
+      <c r="F29" s="131"/>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="122" t="s">
+        <v>916</v>
+      </c>
+      <c r="B30" s="122" t="s">
+        <v>877</v>
+      </c>
+      <c r="C30" s="104" t="s">
+        <v>917</v>
+      </c>
+      <c r="D30" s="122" t="s">
+        <v>891</v>
+      </c>
+      <c r="E30" s="128" t="s">
+        <v>910</v>
+      </c>
+      <c r="F30" s="129"/>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="123"/>
+      <c r="B31" s="123"/>
+      <c r="C31" s="104" t="s">
+        <v>915</v>
+      </c>
+      <c r="D31" s="123"/>
+      <c r="E31" s="130"/>
+      <c r="F31" s="131"/>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="104" t="s">
+        <v>917</v>
+      </c>
+      <c r="B32" s="104" t="s">
+        <v>877</v>
+      </c>
+      <c r="C32" s="104"/>
+      <c r="D32" s="104" t="s">
+        <v>891</v>
+      </c>
+      <c r="E32" s="132" t="s">
+        <v>910</v>
+      </c>
+      <c r="F32" s="133"/>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" s="104" t="s">
+        <v>915</v>
+      </c>
+      <c r="B33" s="104" t="s">
+        <v>877</v>
+      </c>
+      <c r="C33" s="104"/>
+      <c r="D33" s="104" t="s">
+        <v>891</v>
+      </c>
+      <c r="E33" s="132" t="s">
+        <v>910</v>
+      </c>
+      <c r="F33" s="133"/>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" s="122" t="s">
+        <v>891</v>
+      </c>
+      <c r="B34" s="122" t="s">
+        <v>878</v>
+      </c>
+      <c r="C34" s="104" t="s">
+        <v>916</v>
+      </c>
+      <c r="D34" s="122"/>
+      <c r="E34" s="128" t="s">
+        <v>918</v>
+      </c>
+      <c r="F34" s="129"/>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" s="124"/>
+      <c r="B35" s="124"/>
+      <c r="C35" s="104" t="s">
+        <v>917</v>
+      </c>
+      <c r="D35" s="124"/>
+      <c r="E35" s="134"/>
+      <c r="F35" s="135"/>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" s="123"/>
+      <c r="B36" s="123"/>
+      <c r="C36" s="104" t="s">
+        <v>915</v>
+      </c>
+      <c r="D36" s="123"/>
+      <c r="E36" s="130"/>
+      <c r="F36" s="131"/>
+    </row>
+  </sheetData>
+  <mergeCells count="44">
+    <mergeCell ref="D27:D29"/>
+    <mergeCell ref="E13:F16"/>
+    <mergeCell ref="E17:F20"/>
+    <mergeCell ref="E21:F23"/>
+    <mergeCell ref="E24:F26"/>
+    <mergeCell ref="E27:F29"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="C10:C12"/>
+    <mergeCell ref="E10:F12"/>
+    <mergeCell ref="A27:A29"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="B24:B26"/>
+    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="C13:C16"/>
+    <mergeCell ref="C17:C20"/>
+    <mergeCell ref="A17:A20"/>
+    <mergeCell ref="B13:B16"/>
+    <mergeCell ref="B17:B20"/>
+    <mergeCell ref="A21:A23"/>
+    <mergeCell ref="A24:A26"/>
+    <mergeCell ref="D21:D23"/>
+    <mergeCell ref="D24:D26"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="D34:D36"/>
+    <mergeCell ref="E30:F31"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="E34:F36"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="A34:A36"/>
+    <mergeCell ref="B34:B36"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="D7:D9"/>
+    <mergeCell ref="E7:F9"/>
+    <mergeCell ref="A13:A16"/>
+    <mergeCell ref="A10:A12"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="A1" location="'Tabla de Contenido'!A1" display="Tabla de Contenido" xr:uid="{32414F91-C2A5-47DD-93EA-9C2CBC6A25AC}"/>
+    <hyperlink ref="B1:C1" location="'Img-Diagrama de componentes '!A1" display="Modelo " xr:uid="{75741CD3-38C0-452D-BA7E-247533E622A5}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DEBE811-B575-4EE6-9E48-D57E283D39CD}">
+  <dimension ref="A1:D1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="105" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1" s="107" t="s">
+        <v>860</v>
+      </c>
+      <c r="D1" s="106"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" location="'Tabla de Contenido'!A1" display="Tabla de Contenido" xr:uid="{377F5469-EED4-4C94-9EC7-8862E9936975}"/>
+    <hyperlink ref="B1" location="'Diagrama de componentes '!A1" display="Diagrama de componentes " xr:uid="{689570F6-B884-4B83-A9AC-4B6EE4F4C1B1}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F1BAC1E-9F0D-4DB6-B608-DA0639297998}">
   <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="31.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="31.7109375" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="A1" s="10" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5">
       <c r="A2" s="83" t="s">
         <v>659</v>
       </c>
@@ -9550,7 +10641,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="60">
       <c r="A3" s="84" t="s">
         <v>663</v>
       </c>
@@ -9567,7 +10658,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="45">
       <c r="A4" s="84" t="s">
         <v>666</v>
       </c>
@@ -9584,7 +10675,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="75">
       <c r="A5" s="84" t="s">
         <v>852</v>
       </c>
@@ -9601,7 +10692,7 @@
         <v>857</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="45">
       <c r="A6" s="84" t="s">
         <v>668</v>
       </c>
@@ -9618,7 +10709,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="45">
       <c r="A7" s="84" t="s">
         <v>670</v>
       </c>
@@ -9635,7 +10726,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="45">
       <c r="A8" s="84" t="s">
         <v>672</v>
       </c>
@@ -9652,7 +10743,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="45">
       <c r="A9" s="84" t="s">
         <v>673</v>
       </c>
@@ -9669,7 +10760,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="60">
       <c r="A10" s="84" t="s">
         <v>675</v>
       </c>
@@ -9686,7 +10777,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" ht="60">
       <c r="A11" s="84" t="s">
         <v>677</v>
       </c>
@@ -9703,7 +10794,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" ht="45">
       <c r="A12" s="84" t="s">
         <v>679</v>
       </c>
@@ -9720,7 +10811,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" ht="45">
       <c r="A13" s="84" t="s">
         <v>681</v>
       </c>
@@ -9737,7 +10828,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" ht="30" customHeight="1">
       <c r="A14" s="84" t="s">
         <v>683</v>
       </c>
@@ -9754,7 +10845,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" ht="45">
       <c r="A15" s="84" t="s">
         <v>685</v>
       </c>
@@ -9771,7 +10862,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" ht="45">
       <c r="A16" s="84" t="s">
         <v>687</v>
       </c>
@@ -9788,7 +10879,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" ht="45">
       <c r="A17" s="84" t="s">
         <v>689</v>
       </c>
@@ -9805,7 +10896,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5">
       <c r="A18" s="84" t="s">
         <v>735</v>
       </c>
@@ -9820,7 +10911,7 @@
       </c>
       <c r="E18" s="2"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5">
       <c r="A21" s="83" t="s">
         <v>691</v>
       </c>
@@ -9831,7 +10922,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" ht="45">
       <c r="A22" s="86" t="s">
         <v>660</v>
       </c>
@@ -9842,7 +10933,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" ht="60">
       <c r="A23" s="84" t="s">
         <v>661</v>
       </c>
@@ -9853,7 +10944,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" ht="60">
       <c r="A24" s="84" t="s">
         <v>658</v>
       </c>
@@ -9873,13 +10964,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{960EF336-7349-4C12-8BD6-20A253071299}">
   <dimension ref="A1:O17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="18.28515625" style="7" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="38.7109375" style="7" bestFit="1" customWidth="1"/>
@@ -9894,17 +10985,17 @@
     <col min="11" max="16384" width="11.42578125" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15">
       <c r="A1" s="10" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15">
       <c r="A2" s="7" t="s">
         <v>594</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15">
       <c r="A3" s="75" t="s">
         <v>595</v>
       </c>
@@ -9936,7 +11027,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" ht="45">
       <c r="A4" s="78" t="s">
         <v>604</v>
       </c>
@@ -9970,7 +11061,7 @@
       </c>
       <c r="K4"/>
     </row>
-    <row r="5" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" ht="45">
       <c r="A5" s="78" t="s">
         <v>640</v>
       </c>
@@ -10004,7 +11095,7 @@
       </c>
       <c r="O5" s="76"/>
     </row>
-    <row r="6" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" ht="45">
       <c r="A6" s="78" t="s">
         <v>648</v>
       </c>
@@ -10038,7 +11129,7 @@
       </c>
       <c r="K6"/>
     </row>
-    <row r="7" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" ht="45">
       <c r="A7" s="78" t="s">
         <v>616</v>
       </c>
@@ -10071,7 +11162,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" ht="45">
       <c r="A8" s="78" t="s">
         <v>624</v>
       </c>
@@ -10104,7 +11195,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="60" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" ht="60">
       <c r="A9" s="78" t="s">
         <v>632</v>
       </c>
@@ -10137,7 +11228,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="60" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" ht="60">
       <c r="A10" s="78" t="s">
         <v>636</v>
       </c>
@@ -10170,7 +11261,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" ht="45">
       <c r="A11" s="78" t="s">
         <v>652</v>
       </c>
@@ -10203,7 +11294,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" ht="45">
       <c r="A12" s="78" t="s">
         <v>612</v>
       </c>
@@ -10236,7 +11327,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" ht="45">
       <c r="A13" s="78" t="s">
         <v>644</v>
       </c>
@@ -10269,7 +11360,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" ht="45">
       <c r="A14" s="78" t="s">
         <v>628</v>
       </c>
@@ -10302,7 +11393,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" ht="45">
       <c r="A15" s="78" t="s">
         <v>608</v>
       </c>
@@ -10335,7 +11426,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="60" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" ht="60">
       <c r="A16" s="78" t="s">
         <v>620</v>
       </c>
@@ -10368,7 +11459,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" ht="45">
       <c r="A17" s="78" t="s">
         <v>600</v>
       </c>
@@ -10414,13 +11505,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EADD079-0931-4173-B33E-BF925D737CCF}">
   <dimension ref="A1:E108"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="18.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="43.28515625" customWidth="1"/>
@@ -10428,12 +11519,12 @@
     <col min="4" max="4" width="9.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="A1" s="29" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5">
       <c r="A2" s="75" t="s">
         <v>545</v>
       </c>
@@ -10450,7 +11541,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="30" customHeight="1">
       <c r="A3" s="145">
         <v>1</v>
       </c>
@@ -10467,7 +11558,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="30">
       <c r="A4" s="145"/>
       <c r="B4" s="145"/>
       <c r="C4" s="73" t="s">
@@ -10476,7 +11567,7 @@
       <c r="D4" s="145"/>
       <c r="E4" s="145"/>
     </row>
-    <row r="5" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="30" customHeight="1">
       <c r="A5" s="145">
         <v>2</v>
       </c>
@@ -10493,7 +11584,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="30">
       <c r="A6" s="145"/>
       <c r="B6" s="145"/>
       <c r="C6" s="73" t="s">
@@ -10502,7 +11593,7 @@
       <c r="D6" s="145"/>
       <c r="E6" s="145"/>
     </row>
-    <row r="7" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="30" customHeight="1">
       <c r="A7" s="145">
         <v>3</v>
       </c>
@@ -10519,7 +11610,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="30">
       <c r="A8" s="145"/>
       <c r="B8" s="145"/>
       <c r="C8" s="73" t="s">
@@ -10528,7 +11619,7 @@
       <c r="D8" s="145"/>
       <c r="E8" s="145"/>
     </row>
-    <row r="9" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="60" customHeight="1">
       <c r="A9" s="145">
         <v>4</v>
       </c>
@@ -10545,7 +11636,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5">
       <c r="A10" s="145"/>
       <c r="B10" s="145"/>
       <c r="C10" s="73" t="s">
@@ -10554,7 +11645,7 @@
       <c r="D10" s="145"/>
       <c r="E10" s="145"/>
     </row>
-    <row r="11" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" ht="45" customHeight="1">
       <c r="A11" s="145">
         <v>5</v>
       </c>
@@ -10571,7 +11662,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5">
       <c r="A12" s="145"/>
       <c r="B12" s="145"/>
       <c r="C12" s="73" t="s">
@@ -10580,7 +11671,7 @@
       <c r="D12" s="145"/>
       <c r="E12" s="145"/>
     </row>
-    <row r="13" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" ht="30" customHeight="1">
       <c r="A13" s="145">
         <v>6</v>
       </c>
@@ -10597,7 +11688,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" ht="30">
       <c r="A14" s="145"/>
       <c r="B14" s="145"/>
       <c r="C14" s="73" t="s">
@@ -10606,7 +11697,7 @@
       <c r="D14" s="145"/>
       <c r="E14" s="145"/>
     </row>
-    <row r="15" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" ht="45" customHeight="1">
       <c r="A15" s="145">
         <v>7</v>
       </c>
@@ -10623,7 +11714,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" ht="30">
       <c r="A16" s="145"/>
       <c r="B16" s="145"/>
       <c r="C16" s="73" t="s">
@@ -10632,7 +11723,7 @@
       <c r="D16" s="145"/>
       <c r="E16" s="145"/>
     </row>
-    <row r="17" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" ht="45" customHeight="1">
       <c r="A17" s="145">
         <v>8</v>
       </c>
@@ -10649,7 +11740,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" ht="30">
       <c r="A18" s="145"/>
       <c r="B18" s="145"/>
       <c r="C18" s="73" t="s">
@@ -10658,7 +11749,7 @@
       <c r="D18" s="145"/>
       <c r="E18" s="145"/>
     </row>
-    <row r="19" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" ht="30" customHeight="1">
       <c r="A19" s="145">
         <v>9</v>
       </c>
@@ -10675,7 +11766,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" ht="30">
       <c r="A20" s="145"/>
       <c r="B20" s="145"/>
       <c r="C20" s="73" t="s">
@@ -10684,7 +11775,7 @@
       <c r="D20" s="145"/>
       <c r="E20" s="145"/>
     </row>
-    <row r="21" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" ht="30" customHeight="1">
       <c r="A21" s="145">
         <v>10</v>
       </c>
@@ -10701,7 +11792,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" ht="30">
       <c r="A22" s="145"/>
       <c r="B22" s="145"/>
       <c r="C22" s="73" t="s">
@@ -10710,7 +11801,7 @@
       <c r="D22" s="145"/>
       <c r="E22" s="145"/>
     </row>
-    <row r="23" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" ht="30" customHeight="1">
       <c r="A23" s="145">
         <v>11</v>
       </c>
@@ -10727,7 +11818,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" ht="30">
       <c r="A24" s="145"/>
       <c r="B24" s="145"/>
       <c r="C24" s="73" t="s">
@@ -10736,7 +11827,7 @@
       <c r="D24" s="145"/>
       <c r="E24" s="145"/>
     </row>
-    <row r="25" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" ht="30" customHeight="1">
       <c r="A25" s="145">
         <v>12</v>
       </c>
@@ -10753,7 +11844,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" ht="30">
       <c r="A26" s="145"/>
       <c r="B26" s="145"/>
       <c r="C26" s="73" t="s">
@@ -10762,7 +11853,7 @@
       <c r="D26" s="145"/>
       <c r="E26" s="145"/>
     </row>
-    <row r="27" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" ht="45" customHeight="1">
       <c r="A27" s="145">
         <v>13</v>
       </c>
@@ -10779,7 +11870,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" ht="30">
       <c r="A28" s="145"/>
       <c r="B28" s="145"/>
       <c r="C28" s="73" t="s">
@@ -10788,7 +11879,7 @@
       <c r="D28" s="145"/>
       <c r="E28" s="145"/>
     </row>
-    <row r="29" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" ht="45" customHeight="1">
       <c r="A29" s="145">
         <v>14</v>
       </c>
@@ -10805,7 +11896,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" ht="30">
       <c r="A30" s="145"/>
       <c r="B30" s="145"/>
       <c r="C30" s="73" t="s">
@@ -10814,7 +11905,7 @@
       <c r="D30" s="145"/>
       <c r="E30" s="145"/>
     </row>
-    <row r="31" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" ht="45" customHeight="1">
       <c r="A31" s="145">
         <v>15</v>
       </c>
@@ -10831,7 +11922,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" ht="30">
       <c r="A32" s="145"/>
       <c r="B32" s="145"/>
       <c r="C32" s="73" t="s">
@@ -10840,7 +11931,7 @@
       <c r="D32" s="145"/>
       <c r="E32" s="145"/>
     </row>
-    <row r="33" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" ht="45" customHeight="1">
       <c r="A33" s="145">
         <v>16</v>
       </c>
@@ -10857,7 +11948,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" ht="30">
       <c r="A34" s="145"/>
       <c r="B34" s="145"/>
       <c r="C34" s="73" t="s">
@@ -10866,7 +11957,7 @@
       <c r="D34" s="145"/>
       <c r="E34" s="145"/>
     </row>
-    <row r="35" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" ht="30" customHeight="1">
       <c r="A35" s="145">
         <v>17</v>
       </c>
@@ -10883,7 +11974,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" ht="30">
       <c r="A36" s="145"/>
       <c r="B36" s="145"/>
       <c r="C36" s="73" t="s">
@@ -10892,7 +11983,7 @@
       <c r="D36" s="145"/>
       <c r="E36" s="145"/>
     </row>
-    <row r="37" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" ht="30" customHeight="1">
       <c r="A37" s="145">
         <v>18</v>
       </c>
@@ -10909,7 +12000,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" ht="30">
       <c r="A38" s="145"/>
       <c r="B38" s="145"/>
       <c r="C38" s="73" t="s">
@@ -10918,7 +12009,7 @@
       <c r="D38" s="145"/>
       <c r="E38" s="145"/>
     </row>
-    <row r="39" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" ht="45" customHeight="1">
       <c r="A39" s="145">
         <v>19</v>
       </c>
@@ -10935,7 +12026,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" ht="45">
       <c r="A40" s="145"/>
       <c r="B40" s="145"/>
       <c r="C40" s="73" t="s">
@@ -10944,7 +12035,7 @@
       <c r="D40" s="145"/>
       <c r="E40" s="145"/>
     </row>
-    <row r="41" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" ht="45" customHeight="1">
       <c r="A41" s="145">
         <v>20</v>
       </c>
@@ -10961,7 +12052,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" ht="30">
       <c r="A42" s="145"/>
       <c r="B42" s="145"/>
       <c r="C42" s="73" t="s">
@@ -10970,7 +12061,7 @@
       <c r="D42" s="145"/>
       <c r="E42" s="145"/>
     </row>
-    <row r="43" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" ht="45" customHeight="1">
       <c r="A43" s="145">
         <v>21</v>
       </c>
@@ -10987,7 +12078,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" ht="30" customHeight="1">
       <c r="A44" s="145"/>
       <c r="B44" s="145"/>
       <c r="C44" s="73" t="s">
@@ -10996,7 +12087,7 @@
       <c r="D44" s="145"/>
       <c r="E44" s="145"/>
     </row>
-    <row r="45" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" ht="30" customHeight="1">
       <c r="A45" s="145">
         <v>22</v>
       </c>
@@ -11013,7 +12104,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" ht="30" customHeight="1">
       <c r="A46" s="145"/>
       <c r="B46" s="145"/>
       <c r="C46" s="73" t="s">
@@ -11022,7 +12113,7 @@
       <c r="D46" s="145"/>
       <c r="E46" s="145"/>
     </row>
-    <row r="47" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" ht="45" customHeight="1">
       <c r="A47" s="145">
         <v>23</v>
       </c>
@@ -11039,7 +12130,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" ht="30" customHeight="1">
       <c r="A48" s="145"/>
       <c r="B48" s="145"/>
       <c r="C48" s="73" t="s">
@@ -11048,7 +12139,7 @@
       <c r="D48" s="145"/>
       <c r="E48" s="145"/>
     </row>
-    <row r="49" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" ht="45" customHeight="1">
       <c r="A49" s="145">
         <v>24</v>
       </c>
@@ -11065,7 +12156,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="50" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" ht="30" customHeight="1">
       <c r="A50" s="145"/>
       <c r="B50" s="145"/>
       <c r="C50" s="73" t="s">
@@ -11074,7 +12165,7 @@
       <c r="D50" s="145"/>
       <c r="E50" s="145"/>
     </row>
-    <row r="51" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" ht="45" customHeight="1">
       <c r="A51" s="145">
         <v>25</v>
       </c>
@@ -11091,7 +12182,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="52" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" ht="30" customHeight="1">
       <c r="A52" s="145"/>
       <c r="B52" s="145"/>
       <c r="C52" s="73" t="s">
@@ -11100,7 +12191,7 @@
       <c r="D52" s="145"/>
       <c r="E52" s="145"/>
     </row>
-    <row r="53" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" ht="30" customHeight="1">
       <c r="A53" s="145">
         <v>26</v>
       </c>
@@ -11117,7 +12208,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="54" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" ht="30" customHeight="1">
       <c r="A54" s="145"/>
       <c r="B54" s="145"/>
       <c r="C54" s="73" t="s">
@@ -11126,7 +12217,7 @@
       <c r="D54" s="145"/>
       <c r="E54" s="145"/>
     </row>
-    <row r="55" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" ht="30" customHeight="1">
       <c r="A55" s="145">
         <v>27</v>
       </c>
@@ -11143,7 +12234,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="56" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" ht="30" customHeight="1">
       <c r="A56" s="145"/>
       <c r="B56" s="145"/>
       <c r="C56" s="73" t="s">
@@ -11152,7 +12243,7 @@
       <c r="D56" s="145"/>
       <c r="E56" s="145"/>
     </row>
-    <row r="57" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" ht="45" customHeight="1">
       <c r="A57" s="145">
         <v>28</v>
       </c>
@@ -11169,7 +12260,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="58" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" ht="30" customHeight="1">
       <c r="A58" s="145"/>
       <c r="B58" s="145"/>
       <c r="C58" s="73" t="s">
@@ -11178,7 +12269,7 @@
       <c r="D58" s="145"/>
       <c r="E58" s="145"/>
     </row>
-    <row r="59" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" ht="30" customHeight="1">
       <c r="A59" s="145">
         <v>29</v>
       </c>
@@ -11195,7 +12286,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="60" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" ht="30" customHeight="1">
       <c r="A60" s="145"/>
       <c r="B60" s="145"/>
       <c r="C60" s="73" t="s">
@@ -11204,7 +12295,7 @@
       <c r="D60" s="145"/>
       <c r="E60" s="145"/>
     </row>
-    <row r="61" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" ht="30">
       <c r="A61" s="145">
         <v>30</v>
       </c>
@@ -11221,7 +12312,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="62" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" ht="60" customHeight="1">
       <c r="A62" s="145"/>
       <c r="B62" s="145"/>
       <c r="C62" s="73" t="s">
@@ -11230,7 +12321,7 @@
       <c r="D62" s="145"/>
       <c r="E62" s="145"/>
     </row>
-    <row r="63" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" ht="30">
       <c r="A63" s="145">
         <v>31</v>
       </c>
@@ -11247,7 +12338,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="64" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" ht="45" customHeight="1">
       <c r="A64" s="145"/>
       <c r="B64" s="145"/>
       <c r="C64" s="73" t="s">
@@ -11256,7 +12347,7 @@
       <c r="D64" s="145"/>
       <c r="E64" s="145"/>
     </row>
-    <row r="65" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5" ht="45" customHeight="1">
       <c r="A65" s="145">
         <v>32</v>
       </c>
@@ -11273,7 +12364,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="66" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5" ht="30" customHeight="1">
       <c r="A66" s="145"/>
       <c r="B66" s="145"/>
       <c r="C66" s="73" t="s">
@@ -11282,7 +12373,7 @@
       <c r="D66" s="145"/>
       <c r="E66" s="145"/>
     </row>
-    <row r="67" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5" ht="30" customHeight="1">
       <c r="A67" s="145">
         <v>33</v>
       </c>
@@ -11299,7 +12390,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="68" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5" ht="45" customHeight="1">
       <c r="A68" s="145"/>
       <c r="B68" s="145"/>
       <c r="C68" s="73" t="s">
@@ -11308,7 +12399,7 @@
       <c r="D68" s="145"/>
       <c r="E68" s="145"/>
     </row>
-    <row r="69" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5" ht="30" customHeight="1">
       <c r="A69" s="145">
         <v>34</v>
       </c>
@@ -11325,7 +12416,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="70" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5" ht="45" customHeight="1">
       <c r="A70" s="145"/>
       <c r="B70" s="145"/>
       <c r="C70" s="73" t="s">
@@ -11334,7 +12425,7 @@
       <c r="D70" s="145"/>
       <c r="E70" s="145"/>
     </row>
-    <row r="71" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5" ht="30" customHeight="1">
       <c r="A71" s="145">
         <v>35</v>
       </c>
@@ -11351,7 +12442,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="72" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5" ht="30" customHeight="1">
       <c r="A72" s="145"/>
       <c r="B72" s="145"/>
       <c r="C72" s="73" t="s">
@@ -11360,24 +12451,24 @@
       <c r="D72" s="145"/>
       <c r="E72" s="145"/>
     </row>
-    <row r="74" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="76" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="78" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="80" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="82" ht="45" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="84" ht="45" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="86" ht="45" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="88" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="90" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="92" ht="45" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="94" ht="45" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="96" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="98" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="100" ht="45" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="102" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="104" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="106" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="108" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="74" spans="1:5" ht="30" customHeight="1"/>
+    <row r="76" spans="1:5" ht="30" customHeight="1"/>
+    <row r="78" spans="1:5" ht="30" customHeight="1"/>
+    <row r="80" spans="1:5" ht="45" customHeight="1"/>
+    <row r="82" ht="45" customHeight="1"/>
+    <row r="84" ht="45" customHeight="1"/>
+    <row r="86" ht="45" customHeight="1"/>
+    <row r="88" ht="30" customHeight="1"/>
+    <row r="90" ht="30" customHeight="1"/>
+    <row r="92" ht="45" customHeight="1"/>
+    <row r="94" ht="45" customHeight="1"/>
+    <row r="96" ht="30" customHeight="1"/>
+    <row r="98" ht="30" customHeight="1"/>
+    <row r="100" ht="45" customHeight="1"/>
+    <row r="102" ht="30" customHeight="1"/>
+    <row r="104" ht="30" customHeight="1"/>
+    <row r="106" ht="30" customHeight="1"/>
+    <row r="108" ht="30" customHeight="1"/>
   </sheetData>
   <mergeCells count="140">
     <mergeCell ref="A59:A60"/>
@@ -11529,13 +12620,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43E1AA8F-4DD4-469C-B8A3-95712D9C086F}">
   <dimension ref="A1:M71"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="24.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17" bestFit="1" customWidth="1"/>
@@ -11550,7 +12641,7 @@
     <col min="11" max="11" width="16.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13">
       <c r="A1" s="29" t="s">
         <v>62</v>
       </c>
@@ -11561,10 +12652,10 @@
         <v>544</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" ht="15.75" thickBot="1">
       <c r="A2" s="29"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13">
       <c r="A3" s="152" t="s">
         <v>432</v>
       </c>
@@ -11585,7 +12676,7 @@
       <c r="J3" s="154"/>
       <c r="K3" s="156"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13">
       <c r="A4" s="153"/>
       <c r="B4" s="155"/>
       <c r="C4" s="155"/>
@@ -11606,7 +12697,7 @@
       <c r="J4" s="157"/>
       <c r="K4" s="158"/>
     </row>
-    <row r="5" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" ht="15.75" thickBot="1">
       <c r="A5" s="153"/>
       <c r="B5" s="155"/>
       <c r="C5" s="155"/>
@@ -11629,7 +12720,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13">
       <c r="A6" s="80" t="s">
         <v>432</v>
       </c>
@@ -11664,7 +12755,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" ht="60">
       <c r="A7" s="73" t="s">
         <v>445</v>
       </c>
@@ -11701,7 +12792,7 @@
       <c r="L7" s="73"/>
       <c r="M7" s="73"/>
     </row>
-    <row r="8" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" ht="60">
       <c r="A8" s="73" t="s">
         <v>445</v>
       </c>
@@ -11738,7 +12829,7 @@
       <c r="L8" s="73"/>
       <c r="M8" s="73"/>
     </row>
-    <row r="9" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" ht="30">
       <c r="A9" s="73" t="s">
         <v>445</v>
       </c>
@@ -11775,7 +12866,7 @@
       <c r="L9" s="73"/>
       <c r="M9" s="73"/>
     </row>
-    <row r="10" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" ht="45">
       <c r="A10" s="73"/>
       <c r="B10" s="73"/>
       <c r="C10" s="73"/>
@@ -11806,7 +12897,7 @@
       <c r="L10" s="73"/>
       <c r="M10" s="73"/>
     </row>
-    <row r="11" spans="1:13" ht="75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" ht="75">
       <c r="A11" s="73" t="s">
         <v>445</v>
       </c>
@@ -11843,7 +12934,7 @@
       <c r="L11" s="73"/>
       <c r="M11" s="73"/>
     </row>
-    <row r="12" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" ht="30">
       <c r="A12" s="73"/>
       <c r="B12" s="73"/>
       <c r="C12" s="73"/>
@@ -11874,7 +12965,7 @@
       <c r="L12" s="73"/>
       <c r="M12" s="73"/>
     </row>
-    <row r="13" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" ht="45">
       <c r="A13" s="73" t="s">
         <v>445</v>
       </c>
@@ -11911,7 +13002,7 @@
       <c r="L13" s="73"/>
       <c r="M13" s="73"/>
     </row>
-    <row r="14" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" ht="45">
       <c r="A14" s="73"/>
       <c r="B14" s="73"/>
       <c r="C14" s="73"/>
@@ -11942,7 +13033,7 @@
       <c r="L14" s="73"/>
       <c r="M14" s="73"/>
     </row>
-    <row r="15" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" ht="30">
       <c r="A15" s="73"/>
       <c r="B15" s="73"/>
       <c r="C15" s="73"/>
@@ -11973,7 +13064,7 @@
       <c r="L15" s="73"/>
       <c r="M15" s="73"/>
     </row>
-    <row r="16" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" ht="45">
       <c r="A16" s="73" t="s">
         <v>445</v>
       </c>
@@ -12010,7 +13101,7 @@
       <c r="L16" s="73"/>
       <c r="M16" s="73"/>
     </row>
-    <row r="17" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" ht="30">
       <c r="A17" s="73"/>
       <c r="B17" s="73"/>
       <c r="C17" s="73"/>
@@ -12041,7 +13132,7 @@
       <c r="L17" s="73"/>
       <c r="M17" s="73"/>
     </row>
-    <row r="18" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" ht="30">
       <c r="A18" s="73"/>
       <c r="B18" s="73"/>
       <c r="C18" s="73"/>
@@ -12072,7 +13163,7 @@
       <c r="L18" s="73"/>
       <c r="M18" s="73"/>
     </row>
-    <row r="19" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" ht="60">
       <c r="A19" s="73" t="s">
         <v>445</v>
       </c>
@@ -12109,7 +13200,7 @@
       <c r="L19" s="73"/>
       <c r="M19" s="73"/>
     </row>
-    <row r="20" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" ht="30">
       <c r="A20" s="73"/>
       <c r="B20" s="73"/>
       <c r="C20" s="73"/>
@@ -12140,7 +13231,7 @@
       <c r="L20" s="73"/>
       <c r="M20" s="73"/>
     </row>
-    <row r="21" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" ht="45">
       <c r="A21" s="73" t="s">
         <v>445</v>
       </c>
@@ -12175,7 +13266,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" ht="30">
       <c r="A22" s="73"/>
       <c r="B22" s="73"/>
       <c r="C22" s="73"/>
@@ -12204,7 +13295,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13">
       <c r="A23" s="73"/>
       <c r="B23" s="73"/>
       <c r="C23" s="73"/>
@@ -12217,30 +13308,30 @@
       <c r="J23" s="73"/>
       <c r="K23" s="73"/>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13">
       <c r="A28" s="73"/>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13">
       <c r="A29" s="73"/>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13">
       <c r="A30" s="73"/>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13">
       <c r="A31" s="73"/>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13">
       <c r="A32" s="73"/>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:1">
       <c r="A33" s="73"/>
     </row>
-    <row r="49" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" ht="15.75" thickBot="1">
       <c r="A49" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11">
       <c r="A50" s="152" t="s">
         <v>432</v>
       </c>
@@ -12261,7 +13352,7 @@
       <c r="J50" s="154"/>
       <c r="K50" s="156"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11">
       <c r="A51" s="153"/>
       <c r="B51" s="155"/>
       <c r="C51" s="155"/>
@@ -12282,7 +13373,7 @@
       <c r="J51" s="157"/>
       <c r="K51" s="158"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11">
       <c r="A52" s="153"/>
       <c r="B52" s="155"/>
       <c r="C52" s="155"/>
@@ -12305,7 +13396,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="53" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" ht="45">
       <c r="A53" s="146" t="s">
         <v>445</v>
       </c>
@@ -12340,7 +13431,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="54" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" ht="45">
       <c r="A54" s="147"/>
       <c r="B54" s="149"/>
       <c r="C54" s="151"/>
@@ -12369,7 +13460,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11">
       <c r="A55" s="66" t="s">
         <v>457</v>
       </c>
@@ -12388,7 +13479,7 @@
       <c r="J55" s="64"/>
       <c r="K55" s="65"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11">
       <c r="A56" s="66"/>
       <c r="B56" s="64"/>
       <c r="C56" s="64"/>
@@ -12401,7 +13492,7 @@
       <c r="J56" s="64"/>
       <c r="K56" s="65"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11">
       <c r="A57" s="66"/>
       <c r="B57" s="64"/>
       <c r="C57" s="64"/>
@@ -12414,7 +13505,7 @@
       <c r="J57" s="64"/>
       <c r="K57" s="65"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11">
       <c r="A58" s="66"/>
       <c r="B58" s="64"/>
       <c r="C58" s="64"/>
@@ -12427,7 +13518,7 @@
       <c r="J58" s="64"/>
       <c r="K58" s="65"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11">
       <c r="A59" s="66"/>
       <c r="B59" s="64"/>
       <c r="C59" s="64"/>
@@ -12440,7 +13531,7 @@
       <c r="J59" s="64"/>
       <c r="K59" s="65"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11">
       <c r="A60" s="66"/>
       <c r="B60" s="64"/>
       <c r="C60" s="64"/>
@@ -12453,7 +13544,7 @@
       <c r="J60" s="64"/>
       <c r="K60" s="65"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11">
       <c r="A61" s="66"/>
       <c r="B61" s="64"/>
       <c r="C61" s="64"/>
@@ -12466,7 +13557,7 @@
       <c r="J61" s="64"/>
       <c r="K61" s="65"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11">
       <c r="A62" s="66"/>
       <c r="B62" s="64"/>
       <c r="C62" s="64"/>
@@ -12479,7 +13570,7 @@
       <c r="J62" s="64"/>
       <c r="K62" s="65"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11">
       <c r="A63" s="66"/>
       <c r="B63" s="64"/>
       <c r="C63" s="64"/>
@@ -12492,7 +13583,7 @@
       <c r="J63" s="64"/>
       <c r="K63" s="65"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11">
       <c r="A64" s="66"/>
       <c r="B64" s="64"/>
       <c r="C64" s="64"/>
@@ -12505,7 +13596,7 @@
       <c r="J64" s="64"/>
       <c r="K64" s="65"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11">
       <c r="A65" s="66"/>
       <c r="B65" s="64"/>
       <c r="C65" s="64"/>
@@ -12518,7 +13609,7 @@
       <c r="J65" s="64"/>
       <c r="K65" s="65"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11">
       <c r="A66" s="66"/>
       <c r="B66" s="64"/>
       <c r="C66" s="64"/>
@@ -12531,7 +13622,7 @@
       <c r="J66" s="64"/>
       <c r="K66" s="65"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11">
       <c r="A67" s="66"/>
       <c r="B67" s="64"/>
       <c r="C67" s="64"/>
@@ -12544,7 +13635,7 @@
       <c r="J67" s="64"/>
       <c r="K67" s="65"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11">
       <c r="A68" s="66"/>
       <c r="B68" s="64"/>
       <c r="C68" s="64"/>
@@ -12557,7 +13648,7 @@
       <c r="J68" s="64"/>
       <c r="K68" s="65"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11">
       <c r="A69" s="66"/>
       <c r="B69" s="64"/>
       <c r="C69" s="64"/>
@@ -12570,7 +13661,7 @@
       <c r="J69" s="64"/>
       <c r="K69" s="65"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11">
       <c r="A70" s="66"/>
       <c r="B70" s="64"/>
       <c r="C70" s="64"/>
@@ -12583,7 +13674,7 @@
       <c r="J70" s="64"/>
       <c r="K70" s="65"/>
     </row>
-    <row r="71" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" ht="15.75" thickBot="1">
       <c r="A71" s="68"/>
       <c r="B71" s="69"/>
       <c r="C71" s="69"/>
@@ -12630,20 +13721,20 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{248F898A-4F79-4D7B-BFD9-EBDB26504837}">
   <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="40.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="40.140625" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6">
       <c r="A1" s="29" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6">
       <c r="A2" s="87" t="s">
         <v>460</v>
       </c>
@@ -12663,7 +13754,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="75">
       <c r="A3" s="85" t="s">
         <v>402</v>
       </c>
@@ -12683,7 +13774,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="75">
       <c r="A4" s="85" t="s">
         <v>466</v>
       </c>
@@ -12703,7 +13794,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="90">
       <c r="A5" s="85" t="s">
         <v>666</v>
       </c>
@@ -12723,7 +13814,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="105">
       <c r="A6" s="85" t="s">
         <v>853</v>
       </c>
@@ -12743,7 +13834,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="75">
       <c r="A7" s="85" t="s">
         <v>668</v>
       </c>
@@ -12763,7 +13854,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="75">
       <c r="A8" s="85" t="s">
         <v>670</v>
       </c>
@@ -12783,7 +13874,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="60">
       <c r="A9" s="85" t="s">
         <v>672</v>
       </c>
@@ -12803,7 +13894,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="75">
       <c r="A10" s="85" t="s">
         <v>673</v>
       </c>
@@ -12823,7 +13914,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="60">
       <c r="A11" s="85" t="s">
         <v>675</v>
       </c>
@@ -12843,7 +13934,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="75">
       <c r="A12" s="85" t="s">
         <v>677</v>
       </c>
@@ -12863,7 +13954,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="75">
       <c r="A13" s="85" t="s">
         <v>679</v>
       </c>
@@ -12883,7 +13974,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="60">
       <c r="A14" s="85" t="s">
         <v>840</v>
       </c>
@@ -12903,7 +13994,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" ht="75">
       <c r="A15" s="85" t="s">
         <v>843</v>
       </c>
@@ -12923,7 +14014,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" ht="45">
       <c r="A16" s="85" t="s">
         <v>685</v>
       </c>
@@ -12943,7 +14034,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" ht="75">
       <c r="A17" s="85" t="s">
         <v>687</v>
       </c>
@@ -12963,7 +14054,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" ht="60">
       <c r="A18" s="85" t="s">
         <v>689</v>
       </c>
@@ -12992,24 +14083,24 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC48A8D0-6B45-47E6-ADBC-4DDB12A9AAAF}">
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="18.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="18.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="18.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="35" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" s="29" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3">
       <c r="A2" s="38" t="s">
         <v>361</v>
       </c>
@@ -13020,7 +14111,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="75">
       <c r="A3" s="39" t="s">
         <v>364</v>
       </c>
@@ -13031,7 +14122,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="105" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="105">
       <c r="A4" s="39" t="s">
         <v>364</v>
       </c>
@@ -13042,7 +14133,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="120" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="120">
       <c r="A5" s="39" t="s">
         <v>365</v>
       </c>
@@ -13053,7 +14144,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="105" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" ht="105">
       <c r="A6" s="39" t="s">
         <v>365</v>
       </c>
@@ -13064,19 +14155,19 @@
         <v>382</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3">
       <c r="B9" s="7"/>
       <c r="C9" s="7"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3">
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3">
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3">
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
     </row>
@@ -13089,23 +14180,23 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AEBE1B1-0415-4B82-B9C8-9670DD39FA39}">
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="57.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="57.42578125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="16384" width="57.42578125" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="A1" s="10" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2">
       <c r="A2" s="42" t="s">
         <v>366</v>
       </c>
@@ -13113,7 +14204,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" ht="45">
       <c r="A3" s="43" t="s">
         <v>387</v>
       </c>
@@ -13121,7 +14212,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" ht="45">
       <c r="A4" s="43" t="s">
         <v>388</v>
       </c>
@@ -13129,7 +14220,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" ht="45">
       <c r="A5" s="43" t="s">
         <v>389</v>
       </c>
@@ -13137,7 +14228,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" ht="45">
       <c r="A6" s="43" t="s">
         <v>390</v>
       </c>
@@ -13145,7 +14236,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" ht="45">
       <c r="A7" s="43" t="s">
         <v>391</v>
       </c>
@@ -13153,7 +14244,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" ht="45">
       <c r="A8" s="43" t="s">
         <v>392</v>
       </c>
@@ -13161,7 +14252,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" ht="45">
       <c r="A9" s="43" t="s">
         <v>393</v>
       </c>
@@ -13178,23 +14269,23 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7182AAF1-7280-4416-ADC6-463D73FD1C1D}">
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="24.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="24.28515625" defaultRowHeight="15"/>
   <cols>
     <col min="2" max="3" width="48.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4">
       <c r="A1" s="10" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4">
       <c r="A2" s="41" t="s">
         <v>354</v>
       </c>
@@ -13205,7 +14296,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="60">
       <c r="A3" s="40" t="s">
         <v>359</v>
       </c>
@@ -13217,7 +14308,7 @@
       </c>
       <c r="D3" s="7"/>
     </row>
-    <row r="4" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="90">
       <c r="A4" s="40" t="s">
         <v>360</v>
       </c>
@@ -13239,7 +14330,450 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5CDC90F-3EB2-47F8-A373-F3B5DFDB24B2}">
+  <dimension ref="A1:I17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="18.28515625" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" style="7"/>
+    <col min="3" max="3" width="31.5703125" style="7" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" style="7"/>
+    <col min="5" max="5" width="41.7109375" style="7" customWidth="1"/>
+    <col min="6" max="6" width="11.42578125" style="7"/>
+    <col min="7" max="7" width="25.7109375" style="7" customWidth="1"/>
+    <col min="8" max="16384" width="11.42578125" style="7"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" s="99" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1" s="182" t="s">
+        <v>942</v>
+      </c>
+      <c r="C1" s="182"/>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="183" t="s">
+        <v>862</v>
+      </c>
+      <c r="B2" s="184" t="s">
+        <v>951</v>
+      </c>
+      <c r="C2" s="184"/>
+      <c r="D2" s="184"/>
+      <c r="E2" s="184"/>
+      <c r="F2" s="184"/>
+      <c r="G2" s="184"/>
+      <c r="H2" s="184"/>
+      <c r="I2" s="184"/>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="183" t="s">
+        <v>863</v>
+      </c>
+      <c r="B3" s="184"/>
+      <c r="C3" s="184"/>
+      <c r="D3" s="184"/>
+      <c r="E3" s="184"/>
+      <c r="F3" s="184"/>
+      <c r="G3" s="184"/>
+      <c r="H3" s="184"/>
+      <c r="I3" s="184"/>
+    </row>
+    <row r="4" spans="1:9" ht="30">
+      <c r="A4" s="183" t="s">
+        <v>864</v>
+      </c>
+      <c r="B4" s="184" t="s">
+        <v>952</v>
+      </c>
+      <c r="C4" s="184"/>
+      <c r="D4" s="184"/>
+      <c r="E4" s="184"/>
+      <c r="F4" s="184"/>
+      <c r="G4" s="184"/>
+      <c r="H4" s="184"/>
+      <c r="I4" s="184"/>
+    </row>
+    <row r="5" spans="1:9" ht="30">
+      <c r="A5" s="183" t="s">
+        <v>865</v>
+      </c>
+      <c r="B5" s="184" t="s">
+        <v>953</v>
+      </c>
+      <c r="C5" s="184"/>
+      <c r="D5" s="184"/>
+      <c r="E5" s="184"/>
+      <c r="F5" s="184"/>
+      <c r="G5" s="184"/>
+      <c r="H5" s="184"/>
+      <c r="I5" s="184"/>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="185" t="s">
+        <v>944</v>
+      </c>
+      <c r="B6" s="185" t="s">
+        <v>945</v>
+      </c>
+      <c r="C6" s="185" t="s">
+        <v>40</v>
+      </c>
+      <c r="D6" s="185" t="s">
+        <v>946</v>
+      </c>
+      <c r="E6" s="185"/>
+      <c r="F6" s="185" t="s">
+        <v>947</v>
+      </c>
+      <c r="G6" s="185"/>
+      <c r="H6" s="185" t="s">
+        <v>948</v>
+      </c>
+      <c r="I6" s="185" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="185"/>
+      <c r="B7" s="185"/>
+      <c r="C7" s="185"/>
+      <c r="D7" s="186" t="s">
+        <v>950</v>
+      </c>
+      <c r="E7" s="186" t="s">
+        <v>40</v>
+      </c>
+      <c r="F7" s="186" t="s">
+        <v>950</v>
+      </c>
+      <c r="G7" s="183" t="s">
+        <v>40</v>
+      </c>
+      <c r="H7" s="185"/>
+      <c r="I7" s="185"/>
+    </row>
+    <row r="8" spans="1:9" ht="75">
+      <c r="A8" s="85">
+        <v>1</v>
+      </c>
+      <c r="B8" s="85" t="s">
+        <v>960</v>
+      </c>
+      <c r="C8" s="85" t="s">
+        <v>963</v>
+      </c>
+      <c r="D8" s="85" t="s">
+        <v>961</v>
+      </c>
+      <c r="E8" s="85" t="s">
+        <v>964</v>
+      </c>
+      <c r="F8" s="85" t="s">
+        <v>965</v>
+      </c>
+      <c r="G8" s="85" t="s">
+        <v>966</v>
+      </c>
+      <c r="H8" s="85" t="s">
+        <v>959</v>
+      </c>
+      <c r="I8" s="85" t="s">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="60">
+      <c r="A9" s="85">
+        <v>2</v>
+      </c>
+      <c r="B9" s="85" t="s">
+        <v>960</v>
+      </c>
+      <c r="C9" s="85" t="s">
+        <v>967</v>
+      </c>
+      <c r="D9" s="85" t="s">
+        <v>955</v>
+      </c>
+      <c r="E9" s="85" t="s">
+        <v>968</v>
+      </c>
+      <c r="F9" s="85" t="s">
+        <v>954</v>
+      </c>
+      <c r="G9" s="85" t="s">
+        <v>992</v>
+      </c>
+      <c r="H9" s="85" t="s">
+        <v>955</v>
+      </c>
+      <c r="I9" s="85" t="s">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="60">
+      <c r="A10" s="85">
+        <v>3</v>
+      </c>
+      <c r="B10" s="85" t="s">
+        <v>960</v>
+      </c>
+      <c r="C10" s="85" t="s">
+        <v>969</v>
+      </c>
+      <c r="D10" s="85" t="s">
+        <v>970</v>
+      </c>
+      <c r="E10" s="85" t="s">
+        <v>971</v>
+      </c>
+      <c r="F10" s="85" t="s">
+        <v>955</v>
+      </c>
+      <c r="G10" s="85" t="s">
+        <v>987</v>
+      </c>
+      <c r="H10" s="85" t="s">
+        <v>956</v>
+      </c>
+      <c r="I10" s="85" t="s">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="60">
+      <c r="A11" s="85">
+        <v>4</v>
+      </c>
+      <c r="B11" s="85" t="s">
+        <v>962</v>
+      </c>
+      <c r="C11" s="85" t="s">
+        <v>972</v>
+      </c>
+      <c r="D11" s="85" t="s">
+        <v>973</v>
+      </c>
+      <c r="E11" s="85" t="s">
+        <v>974</v>
+      </c>
+      <c r="F11" s="85" t="s">
+        <v>990</v>
+      </c>
+      <c r="G11" s="85" t="s">
+        <v>981</v>
+      </c>
+      <c r="H11" s="85" t="s">
+        <v>958</v>
+      </c>
+      <c r="I11" s="85" t="s">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="60">
+      <c r="A12" s="85">
+        <v>5</v>
+      </c>
+      <c r="B12" s="85" t="s">
+        <v>960</v>
+      </c>
+      <c r="C12" s="85" t="s">
+        <v>975</v>
+      </c>
+      <c r="D12" s="85" t="s">
+        <v>970</v>
+      </c>
+      <c r="E12" s="85" t="s">
+        <v>976</v>
+      </c>
+      <c r="F12" s="85" t="s">
+        <v>955</v>
+      </c>
+      <c r="G12" s="85" t="s">
+        <v>987</v>
+      </c>
+      <c r="H12" s="85" t="s">
+        <v>956</v>
+      </c>
+      <c r="I12" s="85" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="60">
+      <c r="A13" s="85">
+        <v>6</v>
+      </c>
+      <c r="B13" s="85" t="s">
+        <v>960</v>
+      </c>
+      <c r="C13" s="85" t="s">
+        <v>977</v>
+      </c>
+      <c r="D13" s="85" t="s">
+        <v>961</v>
+      </c>
+      <c r="E13" s="85" t="s">
+        <v>978</v>
+      </c>
+      <c r="F13" s="85" t="s">
+        <v>961</v>
+      </c>
+      <c r="G13" s="85" t="s">
+        <v>979</v>
+      </c>
+      <c r="H13" s="85" t="s">
+        <v>957</v>
+      </c>
+      <c r="I13" s="85" t="s">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="75">
+      <c r="A14" s="85">
+        <v>7</v>
+      </c>
+      <c r="B14" s="85" t="s">
+        <v>962</v>
+      </c>
+      <c r="C14" s="85" t="s">
+        <v>980</v>
+      </c>
+      <c r="D14" s="85" t="s">
+        <v>973</v>
+      </c>
+      <c r="E14" s="85" t="s">
+        <v>981</v>
+      </c>
+      <c r="F14" s="85" t="s">
+        <v>990</v>
+      </c>
+      <c r="G14" s="85" t="s">
+        <v>991</v>
+      </c>
+      <c r="H14" s="85" t="s">
+        <v>958</v>
+      </c>
+      <c r="I14" s="85" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="75">
+      <c r="A15" s="85">
+        <v>8</v>
+      </c>
+      <c r="B15" s="85" t="s">
+        <v>962</v>
+      </c>
+      <c r="C15" s="85" t="s">
+        <v>982</v>
+      </c>
+      <c r="D15" s="85" t="s">
+        <v>961</v>
+      </c>
+      <c r="E15" s="85" t="s">
+        <v>983</v>
+      </c>
+      <c r="F15" s="85" t="s">
+        <v>961</v>
+      </c>
+      <c r="G15" s="85" t="s">
+        <v>984</v>
+      </c>
+      <c r="H15" s="85" t="s">
+        <v>957</v>
+      </c>
+      <c r="I15" s="85" t="s">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="60">
+      <c r="A16" s="85">
+        <v>9</v>
+      </c>
+      <c r="B16" s="85" t="s">
+        <v>962</v>
+      </c>
+      <c r="C16" s="85" t="s">
+        <v>985</v>
+      </c>
+      <c r="D16" s="85" t="s">
+        <v>970</v>
+      </c>
+      <c r="E16" s="85" t="s">
+        <v>986</v>
+      </c>
+      <c r="F16" s="85" t="s">
+        <v>955</v>
+      </c>
+      <c r="G16" s="85" t="s">
+        <v>987</v>
+      </c>
+      <c r="H16" s="85" t="s">
+        <v>956</v>
+      </c>
+      <c r="I16" s="85" t="s">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="60">
+      <c r="A17" s="85">
+        <v>10</v>
+      </c>
+      <c r="B17" s="85" t="s">
+        <v>962</v>
+      </c>
+      <c r="C17" s="85" t="s">
+        <v>988</v>
+      </c>
+      <c r="D17" s="85" t="s">
+        <v>961</v>
+      </c>
+      <c r="E17" s="85" t="s">
+        <v>989</v>
+      </c>
+      <c r="F17" s="85" t="s">
+        <v>965</v>
+      </c>
+      <c r="G17" s="85" t="s">
+        <v>966</v>
+      </c>
+      <c r="H17" s="85" t="s">
+        <v>955</v>
+      </c>
+      <c r="I17" s="85" t="s">
+        <v>959</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B2:I2"/>
+    <mergeCell ref="B3:I3"/>
+    <mergeCell ref="B4:I4"/>
+    <mergeCell ref="B5:I5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:G6"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="A1" location="'Tabla de Contenido'!A1" display="Tabla de Contenido" xr:uid="{5CDBEF4A-A5B6-4A59-8E5E-F6AC866A8050}"/>
+    <hyperlink ref="B1:C1" location="'Img-Diagrama de secuencias '!A1" display="Modelo" xr:uid="{E3987711-7301-4D0F-B63B-7ACA98A6A8EC}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A4C73B9-0AF9-4DE7-8A91-18F0737D3184}">
   <dimension ref="A1:F154"/>
   <sheetViews>
@@ -13247,7 +14781,7 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="26" style="11" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="66" style="11" customWidth="1"/>
@@ -13261,12 +14795,12 @@
     <col min="10" max="16384" width="11.42578125" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6">
       <c r="A1" s="10" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6">
       <c r="A2" s="12" t="s">
         <v>20</v>
       </c>
@@ -13286,7 +14820,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="30">
       <c r="A3" s="14" t="s">
         <v>6</v>
       </c>
@@ -13300,7 +14834,7 @@
       <c r="E3" s="16"/>
       <c r="F3" s="16"/>
     </row>
-    <row r="4" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="45">
       <c r="A4" s="14" t="s">
         <v>6</v>
       </c>
@@ -13314,7 +14848,7 @@
       <c r="E4" s="16"/>
       <c r="F4" s="16"/>
     </row>
-    <row r="5" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="30">
       <c r="A5" s="14" t="s">
         <v>6</v>
       </c>
@@ -13326,7 +14860,7 @@
       <c r="E5" s="16"/>
       <c r="F5" s="16"/>
     </row>
-    <row r="6" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="30">
       <c r="A6" s="14" t="s">
         <v>6</v>
       </c>
@@ -13338,7 +14872,7 @@
       <c r="E6" s="16"/>
       <c r="F6" s="16"/>
     </row>
-    <row r="7" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="30">
       <c r="A7" s="14" t="s">
         <v>6</v>
       </c>
@@ -13350,7 +14884,7 @@
       <c r="E7" s="16"/>
       <c r="F7" s="16"/>
     </row>
-    <row r="8" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="45">
       <c r="A8" s="14" t="s">
         <v>6</v>
       </c>
@@ -13362,7 +14896,7 @@
       <c r="E8" s="16"/>
       <c r="F8" s="16"/>
     </row>
-    <row r="9" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="30">
       <c r="A9" s="14" t="s">
         <v>6</v>
       </c>
@@ -13374,7 +14908,7 @@
       <c r="E9" s="16"/>
       <c r="F9" s="16"/>
     </row>
-    <row r="10" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="30">
       <c r="A10" s="14" t="s">
         <v>6</v>
       </c>
@@ -13386,7 +14920,7 @@
       <c r="E10" s="16"/>
       <c r="F10" s="16"/>
     </row>
-    <row r="11" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="30">
       <c r="A11" s="14" t="s">
         <v>6</v>
       </c>
@@ -13398,7 +14932,7 @@
       <c r="E11" s="16"/>
       <c r="F11" s="16"/>
     </row>
-    <row r="12" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="30">
       <c r="A12" s="14" t="s">
         <v>6</v>
       </c>
@@ -13410,7 +14944,7 @@
       <c r="E12" s="16"/>
       <c r="F12" s="16"/>
     </row>
-    <row r="13" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="45">
       <c r="A13" s="14" t="s">
         <v>6</v>
       </c>
@@ -13422,7 +14956,7 @@
       <c r="E13" s="16"/>
       <c r="F13" s="16"/>
     </row>
-    <row r="14" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="30">
       <c r="A14" s="14" t="s">
         <v>6</v>
       </c>
@@ -13434,7 +14968,7 @@
       <c r="E14" s="16"/>
       <c r="F14" s="16"/>
     </row>
-    <row r="15" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" ht="30">
       <c r="A15" s="14" t="s">
         <v>6</v>
       </c>
@@ -13446,7 +14980,7 @@
       <c r="E15" s="16"/>
       <c r="F15" s="16"/>
     </row>
-    <row r="16" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" ht="30">
       <c r="A16" s="14" t="s">
         <v>6</v>
       </c>
@@ -13458,7 +14992,7 @@
       <c r="E16" s="16"/>
       <c r="F16" s="16"/>
     </row>
-    <row r="17" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" ht="30">
       <c r="A17" s="14" t="s">
         <v>6</v>
       </c>
@@ -13470,7 +15004,7 @@
       <c r="E17" s="16"/>
       <c r="F17" s="16"/>
     </row>
-    <row r="18" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" ht="30">
       <c r="A18" s="14" t="s">
         <v>6</v>
       </c>
@@ -13482,7 +15016,7 @@
       <c r="E18" s="16"/>
       <c r="F18" s="16"/>
     </row>
-    <row r="19" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" ht="30">
       <c r="A19" s="14" t="s">
         <v>6</v>
       </c>
@@ -13494,7 +15028,7 @@
       <c r="E19" s="16"/>
       <c r="F19" s="16"/>
     </row>
-    <row r="20" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" ht="30">
       <c r="A20" s="14" t="s">
         <v>6</v>
       </c>
@@ -13506,7 +15040,7 @@
       <c r="E20" s="16"/>
       <c r="F20" s="16"/>
     </row>
-    <row r="21" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" ht="30">
       <c r="A21" s="14" t="s">
         <v>6</v>
       </c>
@@ -13518,7 +15052,7 @@
       <c r="E21" s="16"/>
       <c r="F21" s="16"/>
     </row>
-    <row r="22" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" ht="30">
       <c r="A22" s="14" t="s">
         <v>6</v>
       </c>
@@ -13530,7 +15064,7 @@
       <c r="E22" s="16"/>
       <c r="F22" s="16"/>
     </row>
-    <row r="23" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" ht="30">
       <c r="A23" s="14" t="s">
         <v>6</v>
       </c>
@@ -13542,7 +15076,7 @@
       <c r="E23" s="16"/>
       <c r="F23" s="16"/>
     </row>
-    <row r="24" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" ht="30">
       <c r="A24" s="14" t="s">
         <v>6</v>
       </c>
@@ -13554,7 +15088,7 @@
       <c r="E24" s="16"/>
       <c r="F24" s="16"/>
     </row>
-    <row r="25" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" ht="30">
       <c r="A25" s="14" t="s">
         <v>6</v>
       </c>
@@ -13566,7 +15100,7 @@
       <c r="E25" s="16"/>
       <c r="F25" s="16"/>
     </row>
-    <row r="26" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" ht="30">
       <c r="A26" s="14" t="s">
         <v>6</v>
       </c>
@@ -13578,7 +15112,7 @@
       <c r="E26" s="16"/>
       <c r="F26" s="12"/>
     </row>
-    <row r="27" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" ht="30">
       <c r="A27" s="14" t="s">
         <v>6</v>
       </c>
@@ -13590,7 +15124,7 @@
       <c r="E27" s="16"/>
       <c r="F27" s="12"/>
     </row>
-    <row r="28" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" ht="30">
       <c r="A28" s="14" t="s">
         <v>6</v>
       </c>
@@ -13602,7 +15136,7 @@
       <c r="E28" s="16"/>
       <c r="F28" s="12"/>
     </row>
-    <row r="29" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" ht="30">
       <c r="A29" s="14" t="s">
         <v>6</v>
       </c>
@@ -13614,7 +15148,7 @@
       <c r="E29" s="16"/>
       <c r="F29" s="12"/>
     </row>
-    <row r="30" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" ht="30">
       <c r="A30" s="14" t="s">
         <v>6</v>
       </c>
@@ -13626,7 +15160,7 @@
       <c r="E30" s="16"/>
       <c r="F30" s="12"/>
     </row>
-    <row r="31" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" ht="30">
       <c r="A31" s="14" t="s">
         <v>6</v>
       </c>
@@ -13638,7 +15172,7 @@
       <c r="E31" s="16"/>
       <c r="F31" s="12"/>
     </row>
-    <row r="32" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" ht="45">
       <c r="A32" s="14" t="s">
         <v>6</v>
       </c>
@@ -13650,7 +15184,7 @@
       <c r="E32" s="16"/>
       <c r="F32" s="12"/>
     </row>
-    <row r="33" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" ht="30">
       <c r="A33" s="14" t="s">
         <v>6</v>
       </c>
@@ -13662,7 +15196,7 @@
       <c r="E33" s="17"/>
       <c r="F33" s="12"/>
     </row>
-    <row r="34" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" ht="30">
       <c r="A34" s="14" t="s">
         <v>6</v>
       </c>
@@ -13674,7 +15208,7 @@
       <c r="E34" s="17"/>
       <c r="F34" s="12"/>
     </row>
-    <row r="35" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" ht="30">
       <c r="A35" s="14" t="s">
         <v>6</v>
       </c>
@@ -13686,7 +15220,7 @@
       <c r="E35" s="17"/>
       <c r="F35" s="12"/>
     </row>
-    <row r="36" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" ht="30">
       <c r="A36" s="14" t="s">
         <v>6</v>
       </c>
@@ -13698,7 +15232,7 @@
       <c r="E36" s="17"/>
       <c r="F36" s="12"/>
     </row>
-    <row r="37" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" ht="30">
       <c r="A37" s="14" t="s">
         <v>6</v>
       </c>
@@ -13710,7 +15244,7 @@
       <c r="E37" s="17"/>
       <c r="F37" s="12"/>
     </row>
-    <row r="38" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" ht="45">
       <c r="A38" s="14" t="s">
         <v>6</v>
       </c>
@@ -13722,7 +15256,7 @@
       <c r="E38" s="17"/>
       <c r="F38" s="12"/>
     </row>
-    <row r="39" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" ht="30">
       <c r="A39" s="14" t="s">
         <v>6</v>
       </c>
@@ -13734,7 +15268,7 @@
       <c r="E39" s="17"/>
       <c r="F39" s="12"/>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6">
       <c r="A40" s="18" t="s">
         <v>2</v>
       </c>
@@ -13748,7 +15282,7 @@
       <c r="E40" s="16"/>
       <c r="F40" s="12"/>
     </row>
-    <row r="41" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" ht="45">
       <c r="A41" s="18" t="s">
         <v>2</v>
       </c>
@@ -13762,7 +15296,7 @@
       <c r="E41" s="16"/>
       <c r="F41" s="16"/>
     </row>
-    <row r="42" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" ht="30">
       <c r="A42" s="18" t="s">
         <v>534</v>
       </c>
@@ -13774,7 +15308,7 @@
       </c>
       <c r="F42" s="12"/>
     </row>
-    <row r="43" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" ht="45">
       <c r="A43" s="18" t="s">
         <v>2</v>
       </c>
@@ -13786,7 +15320,7 @@
       <c r="E43" s="16"/>
       <c r="F43" s="12"/>
     </row>
-    <row r="44" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" ht="45">
       <c r="A44" s="18" t="s">
         <v>2</v>
       </c>
@@ -13798,7 +15332,7 @@
       <c r="E44" s="16"/>
       <c r="F44" s="12"/>
     </row>
-    <row r="45" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" ht="30">
       <c r="A45" s="18" t="s">
         <v>2</v>
       </c>
@@ -13810,7 +15344,7 @@
       <c r="E45" s="16"/>
       <c r="F45" s="12"/>
     </row>
-    <row r="46" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" ht="45">
       <c r="A46" s="18" t="s">
         <v>2</v>
       </c>
@@ -13822,7 +15356,7 @@
       <c r="E46" s="16"/>
       <c r="F46" s="12"/>
     </row>
-    <row r="47" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" ht="30">
       <c r="A47" s="18" t="s">
         <v>2</v>
       </c>
@@ -13834,7 +15368,7 @@
       <c r="E47" s="16"/>
       <c r="F47" s="12"/>
     </row>
-    <row r="48" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" ht="30">
       <c r="A48" s="18" t="s">
         <v>2</v>
       </c>
@@ -13846,7 +15380,7 @@
       <c r="E48" s="16"/>
       <c r="F48" s="12"/>
     </row>
-    <row r="49" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" ht="30">
       <c r="A49" s="18" t="s">
         <v>2</v>
       </c>
@@ -13858,7 +15392,7 @@
       <c r="E49" s="16"/>
       <c r="F49" s="12"/>
     </row>
-    <row r="50" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" ht="30">
       <c r="A50" s="18" t="s">
         <v>2</v>
       </c>
@@ -13870,7 +15404,7 @@
       <c r="E50" s="16"/>
       <c r="F50" s="12"/>
     </row>
-    <row r="51" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" ht="30">
       <c r="A51" s="18" t="s">
         <v>2</v>
       </c>
@@ -13882,7 +15416,7 @@
       <c r="E51" s="16"/>
       <c r="F51" s="12"/>
     </row>
-    <row r="52" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" ht="30">
       <c r="A52" s="18" t="s">
         <v>2</v>
       </c>
@@ -13894,7 +15428,7 @@
       <c r="E52" s="16"/>
       <c r="F52" s="12"/>
     </row>
-    <row r="53" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" ht="30">
       <c r="A53" s="18" t="s">
         <v>2</v>
       </c>
@@ -13906,7 +15440,7 @@
       <c r="E53" s="16"/>
       <c r="F53" s="12"/>
     </row>
-    <row r="54" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" ht="30">
       <c r="A54" s="18" t="s">
         <v>2</v>
       </c>
@@ -13918,7 +15452,7 @@
       <c r="E54" s="16"/>
       <c r="F54" s="12"/>
     </row>
-    <row r="55" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" ht="30">
       <c r="A55" s="18" t="s">
         <v>2</v>
       </c>
@@ -13930,7 +15464,7 @@
       <c r="E55" s="16"/>
       <c r="F55" s="16"/>
     </row>
-    <row r="56" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" ht="30">
       <c r="A56" s="18" t="s">
         <v>2</v>
       </c>
@@ -13942,7 +15476,7 @@
       <c r="E56" s="16"/>
       <c r="F56" s="16"/>
     </row>
-    <row r="57" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" ht="30">
       <c r="A57" s="18" t="s">
         <v>2</v>
       </c>
@@ -13954,7 +15488,7 @@
       <c r="E57" s="16"/>
       <c r="F57" s="16"/>
     </row>
-    <row r="58" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" ht="45">
       <c r="A58" s="18" t="s">
         <v>2</v>
       </c>
@@ -13966,7 +15500,7 @@
       <c r="E58" s="16"/>
       <c r="F58" s="16"/>
     </row>
-    <row r="59" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" ht="45">
       <c r="A59" s="18" t="s">
         <v>2</v>
       </c>
@@ -13978,7 +15512,7 @@
       <c r="E59" s="16"/>
       <c r="F59" s="16"/>
     </row>
-    <row r="60" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" ht="45">
       <c r="A60" s="18" t="s">
         <v>2</v>
       </c>
@@ -13990,7 +15524,7 @@
       <c r="E60" s="16"/>
       <c r="F60" s="16"/>
     </row>
-    <row r="61" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" ht="30">
       <c r="A61" s="18" t="s">
         <v>2</v>
       </c>
@@ -14002,7 +15536,7 @@
       <c r="E61" s="16"/>
       <c r="F61" s="16"/>
     </row>
-    <row r="62" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" ht="75">
       <c r="A62" s="18" t="s">
         <v>2</v>
       </c>
@@ -14014,7 +15548,7 @@
       <c r="E62" s="16"/>
       <c r="F62" s="16"/>
     </row>
-    <row r="63" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" ht="45">
       <c r="A63" s="18" t="s">
         <v>2</v>
       </c>
@@ -14026,7 +15560,7 @@
       <c r="E63" s="16"/>
       <c r="F63" s="16"/>
     </row>
-    <row r="64" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" ht="45">
       <c r="A64" s="18" t="s">
         <v>2</v>
       </c>
@@ -14038,7 +15572,7 @@
       <c r="E64" s="16"/>
       <c r="F64" s="16"/>
     </row>
-    <row r="65" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" ht="30">
       <c r="A65" s="18" t="s">
         <v>2</v>
       </c>
@@ -14050,7 +15584,7 @@
       <c r="E65" s="16"/>
       <c r="F65" s="16"/>
     </row>
-    <row r="66" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" ht="45">
       <c r="A66" s="18" t="s">
         <v>2</v>
       </c>
@@ -14062,7 +15596,7 @@
       <c r="E66" s="16"/>
       <c r="F66" s="16"/>
     </row>
-    <row r="67" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" ht="30">
       <c r="A67" s="18" t="s">
         <v>2</v>
       </c>
@@ -14074,7 +15608,7 @@
       <c r="E67" s="16"/>
       <c r="F67" s="16"/>
     </row>
-    <row r="68" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" ht="45">
       <c r="A68" s="18" t="s">
         <v>2</v>
       </c>
@@ -14086,7 +15620,7 @@
       <c r="E68" s="16"/>
       <c r="F68" s="16"/>
     </row>
-    <row r="69" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" ht="30">
       <c r="A69" s="18" t="s">
         <v>2</v>
       </c>
@@ -14098,7 +15632,7 @@
       <c r="E69" s="16"/>
       <c r="F69" s="16"/>
     </row>
-    <row r="70" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" ht="45">
       <c r="A70" s="19" t="s">
         <v>8</v>
       </c>
@@ -14112,7 +15646,7 @@
       <c r="E70" s="16"/>
       <c r="F70" s="16"/>
     </row>
-    <row r="71" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" ht="45">
       <c r="A71" s="19" t="s">
         <v>8</v>
       </c>
@@ -14126,7 +15660,7 @@
       <c r="E71" s="16"/>
       <c r="F71" s="16"/>
     </row>
-    <row r="72" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" ht="45">
       <c r="A72" s="19" t="s">
         <v>8</v>
       </c>
@@ -14138,7 +15672,7 @@
       <c r="E72" s="16"/>
       <c r="F72" s="16"/>
     </row>
-    <row r="73" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" ht="45">
       <c r="A73" s="19" t="s">
         <v>8</v>
       </c>
@@ -14150,7 +15684,7 @@
       <c r="E73" s="16"/>
       <c r="F73" s="16"/>
     </row>
-    <row r="74" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" ht="45">
       <c r="A74" s="19" t="s">
         <v>8</v>
       </c>
@@ -14162,7 +15696,7 @@
       <c r="E74" s="16"/>
       <c r="F74" s="16"/>
     </row>
-    <row r="75" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" ht="45">
       <c r="A75" s="19" t="s">
         <v>8</v>
       </c>
@@ -14174,7 +15708,7 @@
       <c r="E75" s="16"/>
       <c r="F75" s="16"/>
     </row>
-    <row r="76" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" ht="30">
       <c r="A76" s="19" t="s">
         <v>8</v>
       </c>
@@ -14186,7 +15720,7 @@
       <c r="E76" s="16"/>
       <c r="F76" s="16"/>
     </row>
-    <row r="77" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" ht="30">
       <c r="A77" s="19" t="s">
         <v>8</v>
       </c>
@@ -14198,7 +15732,7 @@
       <c r="E77" s="16"/>
       <c r="F77" s="16"/>
     </row>
-    <row r="78" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" ht="30">
       <c r="A78" s="19" t="s">
         <v>8</v>
       </c>
@@ -14210,7 +15744,7 @@
       <c r="E78" s="16"/>
       <c r="F78" s="16"/>
     </row>
-    <row r="79" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" ht="30">
       <c r="A79" s="19" t="s">
         <v>8</v>
       </c>
@@ -14222,7 +15756,7 @@
       <c r="E79" s="16"/>
       <c r="F79" s="16"/>
     </row>
-    <row r="80" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" ht="30">
       <c r="A80" s="19" t="s">
         <v>8</v>
       </c>
@@ -14234,7 +15768,7 @@
       <c r="E80" s="16"/>
       <c r="F80" s="16"/>
     </row>
-    <row r="81" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" ht="30">
       <c r="A81" s="19" t="s">
         <v>8</v>
       </c>
@@ -14246,7 +15780,7 @@
       <c r="E81" s="16"/>
       <c r="F81" s="16"/>
     </row>
-    <row r="82" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" ht="45">
       <c r="A82" s="19" t="s">
         <v>8</v>
       </c>
@@ -14258,7 +15792,7 @@
       <c r="E82" s="16"/>
       <c r="F82" s="16"/>
     </row>
-    <row r="83" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" ht="45">
       <c r="A83" s="19" t="s">
         <v>8</v>
       </c>
@@ -14270,7 +15804,7 @@
       <c r="E83" s="16"/>
       <c r="F83" s="16"/>
     </row>
-    <row r="84" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" ht="45">
       <c r="A84" s="19" t="s">
         <v>8</v>
       </c>
@@ -14282,7 +15816,7 @@
       <c r="E84" s="16"/>
       <c r="F84" s="16"/>
     </row>
-    <row r="85" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" ht="45">
       <c r="A85" s="19" t="s">
         <v>8</v>
       </c>
@@ -14294,7 +15828,7 @@
       <c r="E85" s="16"/>
       <c r="F85" s="16"/>
     </row>
-    <row r="86" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" ht="45">
       <c r="A86" s="19" t="s">
         <v>8</v>
       </c>
@@ -14306,7 +15840,7 @@
       <c r="E86" s="16"/>
       <c r="F86" s="16"/>
     </row>
-    <row r="87" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" ht="45">
       <c r="A87" s="19" t="s">
         <v>8</v>
       </c>
@@ -14318,7 +15852,7 @@
       <c r="E87" s="16"/>
       <c r="F87" s="16"/>
     </row>
-    <row r="88" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" ht="45">
       <c r="A88" s="19" t="s">
         <v>8</v>
       </c>
@@ -14330,7 +15864,7 @@
       <c r="E88" s="16"/>
       <c r="F88" s="16"/>
     </row>
-    <row r="89" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" ht="45">
       <c r="A89" s="19" t="s">
         <v>8</v>
       </c>
@@ -14342,7 +15876,7 @@
       <c r="E89" s="16"/>
       <c r="F89" s="16"/>
     </row>
-    <row r="90" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6" ht="45">
       <c r="A90" s="19" t="s">
         <v>8</v>
       </c>
@@ -14354,7 +15888,7 @@
       <c r="E90" s="16"/>
       <c r="F90" s="16"/>
     </row>
-    <row r="91" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6" ht="45">
       <c r="A91" s="19" t="s">
         <v>8</v>
       </c>
@@ -14366,7 +15900,7 @@
       <c r="E91" s="16"/>
       <c r="F91" s="16"/>
     </row>
-    <row r="92" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6" ht="45">
       <c r="A92" s="19" t="s">
         <v>8</v>
       </c>
@@ -14378,7 +15912,7 @@
       <c r="E92" s="16"/>
       <c r="F92" s="16"/>
     </row>
-    <row r="93" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:6" ht="45">
       <c r="A93" s="19" t="s">
         <v>8</v>
       </c>
@@ -14390,7 +15924,7 @@
       <c r="E93" s="16"/>
       <c r="F93" s="16"/>
     </row>
-    <row r="94" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6" ht="30">
       <c r="A94" s="20" t="s">
         <v>423</v>
       </c>
@@ -14404,7 +15938,7 @@
       <c r="E94" s="16"/>
       <c r="F94" s="16"/>
     </row>
-    <row r="95" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:6" ht="30">
       <c r="A95" s="20" t="s">
         <v>423</v>
       </c>
@@ -14418,7 +15952,7 @@
       <c r="E95" s="16"/>
       <c r="F95" s="16"/>
     </row>
-    <row r="96" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:6" ht="45">
       <c r="A96" s="20" t="s">
         <v>423</v>
       </c>
@@ -14430,7 +15964,7 @@
       <c r="E96" s="16"/>
       <c r="F96" s="16"/>
     </row>
-    <row r="97" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:6" ht="45">
       <c r="A97" s="20" t="s">
         <v>423</v>
       </c>
@@ -14442,7 +15976,7 @@
       <c r="E97" s="16"/>
       <c r="F97" s="16"/>
     </row>
-    <row r="98" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:6" ht="30">
       <c r="A98" s="20" t="s">
         <v>423</v>
       </c>
@@ -14454,7 +15988,7 @@
       <c r="E98" s="16"/>
       <c r="F98" s="16"/>
     </row>
-    <row r="99" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:6" ht="45">
       <c r="A99" s="20" t="s">
         <v>423</v>
       </c>
@@ -14466,7 +16000,7 @@
       <c r="E99" s="16"/>
       <c r="F99" s="16"/>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:6">
       <c r="A100" s="20" t="s">
         <v>423</v>
       </c>
@@ -14478,7 +16012,7 @@
       <c r="E100" s="16"/>
       <c r="F100" s="16"/>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:6">
       <c r="A101" s="20" t="s">
         <v>423</v>
       </c>
@@ -14490,7 +16024,7 @@
       <c r="E101" s="16"/>
       <c r="F101" s="16"/>
     </row>
-    <row r="102" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:6" ht="30">
       <c r="A102" s="20" t="s">
         <v>423</v>
       </c>
@@ -14502,7 +16036,7 @@
       <c r="E102" s="16"/>
       <c r="F102" s="16"/>
     </row>
-    <row r="103" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:6" ht="30">
       <c r="A103" s="20" t="s">
         <v>423</v>
       </c>
@@ -14514,7 +16048,7 @@
       <c r="E103" s="16"/>
       <c r="F103" s="16"/>
     </row>
-    <row r="104" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:6" ht="30">
       <c r="A104" s="20" t="s">
         <v>423</v>
       </c>
@@ -14526,7 +16060,7 @@
       <c r="E104" s="16"/>
       <c r="F104" s="16"/>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:6">
       <c r="A105" s="20" t="s">
         <v>423</v>
       </c>
@@ -14538,7 +16072,7 @@
       <c r="E105" s="16"/>
       <c r="F105" s="16"/>
     </row>
-    <row r="106" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:6" ht="30">
       <c r="A106" s="20" t="s">
         <v>423</v>
       </c>
@@ -14550,7 +16084,7 @@
       <c r="E106" s="16"/>
       <c r="F106" s="16"/>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:6">
       <c r="A107" s="20" t="s">
         <v>423</v>
       </c>
@@ -14562,7 +16096,7 @@
       <c r="E107" s="16"/>
       <c r="F107" s="16"/>
     </row>
-    <row r="108" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:6" ht="45">
       <c r="A108" s="20" t="s">
         <v>423</v>
       </c>
@@ -14574,7 +16108,7 @@
       <c r="E108" s="16"/>
       <c r="F108" s="16"/>
     </row>
-    <row r="109" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:6" ht="30">
       <c r="A109" s="20" t="s">
         <v>423</v>
       </c>
@@ -14586,7 +16120,7 @@
       <c r="E109" s="16"/>
       <c r="F109" s="16"/>
     </row>
-    <row r="110" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:6" ht="30">
       <c r="A110" s="20" t="s">
         <v>423</v>
       </c>
@@ -14598,7 +16132,7 @@
       <c r="E110" s="16"/>
       <c r="F110" s="16"/>
     </row>
-    <row r="111" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:6" ht="30">
       <c r="A111" s="20" t="s">
         <v>423</v>
       </c>
@@ -14610,7 +16144,7 @@
       <c r="E111" s="16"/>
       <c r="F111" s="16"/>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:6">
       <c r="A112" s="20" t="s">
         <v>423</v>
       </c>
@@ -14622,7 +16156,7 @@
       <c r="E112" s="16"/>
       <c r="F112" s="16"/>
     </row>
-    <row r="113" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:6" ht="45">
       <c r="A113" s="20" t="s">
         <v>423</v>
       </c>
@@ -14634,7 +16168,7 @@
       <c r="E113" s="16"/>
       <c r="F113" s="16"/>
     </row>
-    <row r="114" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:6" ht="30">
       <c r="A114" s="20" t="s">
         <v>423</v>
       </c>
@@ -14646,7 +16180,7 @@
       <c r="E114" s="16"/>
       <c r="F114" s="16"/>
     </row>
-    <row r="115" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:6" ht="45">
       <c r="A115" s="20" t="s">
         <v>423</v>
       </c>
@@ -14658,7 +16192,7 @@
       <c r="E115" s="16"/>
       <c r="F115" s="16"/>
     </row>
-    <row r="116" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:6" ht="30">
       <c r="A116" s="20" t="s">
         <v>423</v>
       </c>
@@ -14670,7 +16204,7 @@
       <c r="E116" s="16"/>
       <c r="F116" s="15"/>
     </row>
-    <row r="117" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:6" ht="30">
       <c r="A117" s="20" t="s">
         <v>423</v>
       </c>
@@ -14682,7 +16216,7 @@
       <c r="E117" s="16"/>
       <c r="F117" s="16"/>
     </row>
-    <row r="118" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:6" ht="30">
       <c r="A118" s="20" t="s">
         <v>423</v>
       </c>
@@ -14694,7 +16228,7 @@
       <c r="E118" s="16"/>
       <c r="F118" s="15"/>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:6">
       <c r="A119" s="20" t="s">
         <v>423</v>
       </c>
@@ -14706,7 +16240,7 @@
       <c r="E119" s="16"/>
       <c r="F119" s="16"/>
     </row>
-    <row r="120" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:6" ht="30">
       <c r="A120" s="20" t="s">
         <v>423</v>
       </c>
@@ -14718,7 +16252,7 @@
       <c r="E120" s="16"/>
       <c r="F120" s="16"/>
     </row>
-    <row r="121" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:6" ht="30">
       <c r="A121" s="20" t="s">
         <v>423</v>
       </c>
@@ -14730,7 +16264,7 @@
       <c r="E121" s="16"/>
       <c r="F121" s="16"/>
     </row>
-    <row r="122" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:6" ht="30">
       <c r="A122" s="20" t="s">
         <v>423</v>
       </c>
@@ -14742,7 +16276,7 @@
       <c r="E122" s="16"/>
       <c r="F122" s="16"/>
     </row>
-    <row r="123" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:6" ht="30">
       <c r="A123" s="20" t="s">
         <v>423</v>
       </c>
@@ -14754,7 +16288,7 @@
       <c r="E123" s="16"/>
       <c r="F123" s="15"/>
     </row>
-    <row r="124" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:6" ht="30">
       <c r="A124" s="20" t="s">
         <v>423</v>
       </c>
@@ -14766,7 +16300,7 @@
       <c r="E124" s="16"/>
       <c r="F124" s="15"/>
     </row>
-    <row r="125" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:6" ht="45">
       <c r="A125" s="21" t="s">
         <v>12</v>
       </c>
@@ -14780,7 +16314,7 @@
       <c r="E125" s="16"/>
       <c r="F125" s="15"/>
     </row>
-    <row r="126" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:6" ht="30">
       <c r="A126" s="21" t="s">
         <v>12</v>
       </c>
@@ -14794,7 +16328,7 @@
       <c r="E126" s="16"/>
       <c r="F126" s="16"/>
     </row>
-    <row r="127" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:6" ht="30">
       <c r="A127" s="21" t="s">
         <v>12</v>
       </c>
@@ -14806,7 +16340,7 @@
       <c r="E127" s="16"/>
       <c r="F127" s="16"/>
     </row>
-    <row r="128" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:6" ht="45">
       <c r="A128" s="21" t="s">
         <v>12</v>
       </c>
@@ -14818,7 +16352,7 @@
       <c r="E128" s="16"/>
       <c r="F128" s="16"/>
     </row>
-    <row r="129" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:6" ht="30">
       <c r="A129" s="21" t="s">
         <v>12</v>
       </c>
@@ -14830,7 +16364,7 @@
       <c r="E129" s="16"/>
       <c r="F129" s="16"/>
     </row>
-    <row r="130" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:6" ht="30">
       <c r="A130" s="21" t="s">
         <v>12</v>
       </c>
@@ -14842,7 +16376,7 @@
       <c r="E130" s="16"/>
       <c r="F130" s="16"/>
     </row>
-    <row r="131" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:6" ht="30">
       <c r="A131" s="21" t="s">
         <v>12</v>
       </c>
@@ -14854,7 +16388,7 @@
       <c r="E131" s="16"/>
       <c r="F131" s="16"/>
     </row>
-    <row r="132" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:6" ht="30">
       <c r="A132" s="21" t="s">
         <v>12</v>
       </c>
@@ -14866,7 +16400,7 @@
       <c r="E132" s="16"/>
       <c r="F132" s="16"/>
     </row>
-    <row r="133" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:6" ht="30">
       <c r="A133" s="21" t="s">
         <v>12</v>
       </c>
@@ -14878,7 +16412,7 @@
       <c r="E133" s="15"/>
       <c r="F133" s="16"/>
     </row>
-    <row r="134" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:6" ht="30">
       <c r="A134" s="21" t="s">
         <v>12</v>
       </c>
@@ -14890,7 +16424,7 @@
       <c r="E134" s="16"/>
       <c r="F134" s="16"/>
     </row>
-    <row r="135" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:6" ht="45">
       <c r="A135" s="21" t="s">
         <v>12</v>
       </c>
@@ -14902,7 +16436,7 @@
       <c r="E135" s="15"/>
       <c r="F135" s="16"/>
     </row>
-    <row r="136" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:6" ht="30">
       <c r="A136" s="21" t="s">
         <v>12</v>
       </c>
@@ -14914,7 +16448,7 @@
       <c r="E136" s="16"/>
       <c r="F136" s="16"/>
     </row>
-    <row r="137" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:6" ht="30">
       <c r="A137" s="21" t="s">
         <v>12</v>
       </c>
@@ -14926,7 +16460,7 @@
       <c r="E137" s="16"/>
       <c r="F137" s="16"/>
     </row>
-    <row r="138" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:6" ht="30">
       <c r="A138" s="21" t="s">
         <v>12</v>
       </c>
@@ -14938,7 +16472,7 @@
       <c r="E138" s="16"/>
       <c r="F138" s="16"/>
     </row>
-    <row r="139" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:6" ht="30">
       <c r="A139" s="21" t="s">
         <v>12</v>
       </c>
@@ -14950,7 +16484,7 @@
       <c r="E139" s="16"/>
       <c r="F139" s="16"/>
     </row>
-    <row r="140" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:6" ht="45">
       <c r="A140" s="21" t="s">
         <v>12</v>
       </c>
@@ -14962,7 +16496,7 @@
       <c r="E140" s="16"/>
       <c r="F140" s="16"/>
     </row>
-    <row r="141" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:6" ht="30">
       <c r="A141" s="21" t="s">
         <v>12</v>
       </c>
@@ -14974,7 +16508,7 @@
       <c r="E141" s="16"/>
       <c r="F141" s="16"/>
     </row>
-    <row r="142" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:6" ht="30">
       <c r="A142" s="21" t="s">
         <v>12</v>
       </c>
@@ -14986,7 +16520,7 @@
       <c r="E142" s="16"/>
       <c r="F142" s="16"/>
     </row>
-    <row r="143" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:6" ht="30">
       <c r="A143" s="21" t="s">
         <v>12</v>
       </c>
@@ -14998,7 +16532,7 @@
       <c r="E143" s="16"/>
       <c r="F143" s="16"/>
     </row>
-    <row r="144" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:6" ht="30">
       <c r="A144" s="21" t="s">
         <v>12</v>
       </c>
@@ -15010,7 +16544,7 @@
       <c r="E144" s="16"/>
       <c r="F144" s="16"/>
     </row>
-    <row r="145" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:6" ht="30">
       <c r="A145" s="21" t="s">
         <v>12</v>
       </c>
@@ -15022,7 +16556,7 @@
       <c r="E145" s="16"/>
       <c r="F145" s="16"/>
     </row>
-    <row r="146" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:6" ht="30">
       <c r="A146" s="21" t="s">
         <v>12</v>
       </c>
@@ -15034,7 +16568,7 @@
       <c r="E146" s="16"/>
       <c r="F146" s="16"/>
     </row>
-    <row r="147" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:6" ht="30">
       <c r="A147" s="21" t="s">
         <v>12</v>
       </c>
@@ -15046,7 +16580,7 @@
       <c r="E147" s="16"/>
       <c r="F147" s="16"/>
     </row>
-    <row r="148" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:6" ht="45">
       <c r="A148" s="21" t="s">
         <v>12</v>
       </c>
@@ -15058,7 +16592,7 @@
       <c r="E148" s="16"/>
       <c r="F148" s="16"/>
     </row>
-    <row r="149" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:6" ht="45">
       <c r="A149" s="21" t="s">
         <v>12</v>
       </c>
@@ -15070,7 +16604,7 @@
       <c r="E149" s="16"/>
       <c r="F149" s="16"/>
     </row>
-    <row r="150" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:6" ht="45">
       <c r="A150" s="21" t="s">
         <v>12</v>
       </c>
@@ -15082,7 +16616,7 @@
       <c r="E150" s="16"/>
       <c r="F150" s="16"/>
     </row>
-    <row r="151" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:6" ht="45">
       <c r="A151" s="21" t="s">
         <v>12</v>
       </c>
@@ -15094,7 +16628,7 @@
       <c r="E151" s="16"/>
       <c r="F151" s="16"/>
     </row>
-    <row r="152" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:6" ht="30">
       <c r="A152" s="21" t="s">
         <v>12</v>
       </c>
@@ -15106,7 +16640,7 @@
       <c r="E152" s="16"/>
       <c r="F152" s="16"/>
     </row>
-    <row r="153" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:6" ht="45">
       <c r="A153" s="21" t="s">
         <v>12</v>
       </c>
@@ -15118,7 +16652,7 @@
       <c r="E153" s="16"/>
       <c r="F153" s="16"/>
     </row>
-    <row r="154" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:6" ht="30">
       <c r="A154" s="21" t="s">
         <v>12</v>
       </c>
@@ -15150,7 +16684,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9A4312C-FDD2-4340-821F-754A5F40D4E6}">
   <dimension ref="A1:I9"/>
   <sheetViews>
@@ -15158,12 +16692,12 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="27.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="27.28515625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="16384" width="27.28515625" style="30"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9">
       <c r="A1" s="29" t="s">
         <v>61</v>
       </c>
@@ -15171,7 +16705,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9">
       <c r="A2" s="31" t="s">
         <v>31</v>
       </c>
@@ -15186,7 +16720,7 @@
       <c r="H2" s="160"/>
       <c r="I2" s="160"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9">
       <c r="A3" s="31" t="s">
         <v>32</v>
       </c>
@@ -15201,7 +16735,7 @@
       <c r="H3" s="161"/>
       <c r="I3" s="161"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9">
       <c r="A4" s="31" t="s">
         <v>33</v>
       </c>
@@ -15216,7 +16750,7 @@
       <c r="H4" s="160"/>
       <c r="I4" s="160"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9">
       <c r="A5" s="31" t="s">
         <v>34</v>
       </c>
@@ -15231,7 +16765,7 @@
       <c r="H5" s="160"/>
       <c r="I5" s="160"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9">
       <c r="A6" s="159" t="s">
         <v>192</v>
       </c>
@@ -15244,7 +16778,7 @@
       <c r="H6" s="159"/>
       <c r="I6" s="159"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9">
       <c r="A7" s="12" t="s">
         <v>39</v>
       </c>
@@ -15273,7 +16807,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="75">
       <c r="A8" s="16">
         <v>1</v>
       </c>
@@ -15302,7 +16836,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="75">
       <c r="A9" s="16">
         <v>2</v>
       </c>
@@ -15351,29 +16885,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4531A684-8F2B-485B-AE14-BED0482795D2}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="108" t="s">
-        <v>62</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A1" location="'Tabla de Contenido'!A1" display="Tabla de Contenido" xr:uid="{CF853A0D-216A-4917-920A-84E5D63538CB}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B71487E-C9E1-4276-81FB-A1C49393F747}">
   <dimension ref="A1:Q10"/>
   <sheetViews>
@@ -15381,12 +16893,12 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="27.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="27.5703125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="16384" width="27.5703125" style="30"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17">
       <c r="A1" s="29" t="s">
         <v>61</v>
       </c>
@@ -15394,7 +16906,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17">
       <c r="A2" s="31" t="s">
         <v>31</v>
       </c>
@@ -15409,7 +16921,7 @@
       <c r="H2" s="165"/>
       <c r="I2" s="166"/>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17">
       <c r="A3" s="31" t="s">
         <v>32</v>
       </c>
@@ -15424,7 +16936,7 @@
       <c r="H3" s="168"/>
       <c r="I3" s="169"/>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17">
       <c r="A4" s="31" t="s">
         <v>33</v>
       </c>
@@ -15439,7 +16951,7 @@
       <c r="H4" s="165"/>
       <c r="I4" s="166"/>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17">
       <c r="A5" s="31" t="s">
         <v>34</v>
       </c>
@@ -15455,7 +16967,7 @@
       <c r="I5" s="166"/>
       <c r="Q5" s="32"/>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17">
       <c r="A6" s="162" t="s">
         <v>192</v>
       </c>
@@ -15468,7 +16980,7 @@
       <c r="H6" s="163"/>
       <c r="I6" s="163"/>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17">
       <c r="A7" s="33" t="s">
         <v>39</v>
       </c>
@@ -15497,7 +17009,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="60" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" ht="60">
       <c r="A8" s="23">
         <v>1</v>
       </c>
@@ -15526,7 +17038,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:17" ht="90" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" ht="90">
       <c r="A9" s="23">
         <v>2</v>
       </c>
@@ -15555,7 +17067,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="1:17" ht="60" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" ht="60">
       <c r="A10" s="25">
         <v>3</v>
       </c>
@@ -15604,7 +17116,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{482B083A-8F1B-4380-B3DA-4DA002A053C1}">
   <dimension ref="A1:I12"/>
   <sheetViews>
@@ -15612,14 +17124,14 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="29.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="29.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="29.140625" style="30"/>
     <col min="2" max="2" width="40" style="30" customWidth="1"/>
     <col min="3" max="16384" width="29.140625" style="30"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9">
       <c r="A1" s="29" t="s">
         <v>61</v>
       </c>
@@ -15627,7 +17139,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9">
       <c r="A2" s="31" t="s">
         <v>31</v>
       </c>
@@ -15642,7 +17154,7 @@
       <c r="H2" s="165"/>
       <c r="I2" s="166"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9">
       <c r="A3" s="31" t="s">
         <v>32</v>
       </c>
@@ -15657,7 +17169,7 @@
       <c r="H3" s="168"/>
       <c r="I3" s="169"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9">
       <c r="A4" s="31" t="s">
         <v>33</v>
       </c>
@@ -15672,7 +17184,7 @@
       <c r="H4" s="160"/>
       <c r="I4" s="160"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9">
       <c r="A5" s="31" t="s">
         <v>34</v>
       </c>
@@ -15687,7 +17199,7 @@
       <c r="H5" s="160"/>
       <c r="I5" s="160"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9">
       <c r="A6" s="159" t="s">
         <v>192</v>
       </c>
@@ -15700,7 +17212,7 @@
       <c r="H6" s="159"/>
       <c r="I6" s="159"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9">
       <c r="A7" s="12" t="s">
         <v>39</v>
       </c>
@@ -15729,7 +17241,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="45">
       <c r="A8" s="23">
         <v>1</v>
       </c>
@@ -15758,7 +17270,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="75">
       <c r="A9" s="23">
         <v>2</v>
       </c>
@@ -15787,7 +17299,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="75">
       <c r="A10" s="25">
         <v>3</v>
       </c>
@@ -15816,7 +17328,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9">
       <c r="C12" s="32"/>
     </row>
   </sheetData>
@@ -15839,7 +17351,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA19D2B3-3E99-4B9E-BAE1-41A4FFCD985E}">
   <dimension ref="A1:I12"/>
   <sheetViews>
@@ -15847,12 +17359,12 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="19.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="19.85546875" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="16384" width="19.85546875" style="30"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9">
       <c r="A1" s="29" t="s">
         <v>61</v>
       </c>
@@ -15860,7 +17372,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9">
       <c r="A2" s="31" t="s">
         <v>31</v>
       </c>
@@ -15875,7 +17387,7 @@
       <c r="H2" s="165"/>
       <c r="I2" s="166"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9">
       <c r="A3" s="31" t="s">
         <v>32</v>
       </c>
@@ -15890,7 +17402,7 @@
       <c r="H3" s="168"/>
       <c r="I3" s="169"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9">
       <c r="A4" s="31" t="s">
         <v>33</v>
       </c>
@@ -15905,7 +17417,7 @@
       <c r="H4" s="160"/>
       <c r="I4" s="160"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9">
       <c r="A5" s="31" t="s">
         <v>34</v>
       </c>
@@ -15920,7 +17432,7 @@
       <c r="H5" s="160"/>
       <c r="I5" s="160"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9">
       <c r="A6" s="159" t="s">
         <v>192</v>
       </c>
@@ -15933,7 +17445,7 @@
       <c r="H6" s="159"/>
       <c r="I6" s="159"/>
     </row>
-    <row r="7" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="30">
       <c r="A7" s="12" t="s">
         <v>39</v>
       </c>
@@ -15962,7 +17474,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="105">
       <c r="A8" s="23">
         <v>1</v>
       </c>
@@ -15991,7 +17503,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="135">
       <c r="A9" s="23">
         <v>2</v>
       </c>
@@ -16020,7 +17532,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="150" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="150">
       <c r="A10" s="25">
         <v>3</v>
       </c>
@@ -16049,7 +17561,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9">
       <c r="F12" s="32"/>
     </row>
   </sheetData>
@@ -16072,7 +17584,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77AFA58C-0D37-472A-9044-2D31A2B22101}">
   <dimension ref="A1:I10"/>
   <sheetViews>
@@ -16080,12 +17592,12 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="28.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="28.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="16384" width="28.140625" style="30"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9">
       <c r="A1" s="29" t="s">
         <v>61</v>
       </c>
@@ -16093,7 +17605,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9">
       <c r="A2" s="31" t="s">
         <v>31</v>
       </c>
@@ -16108,7 +17620,7 @@
       <c r="H2" s="165"/>
       <c r="I2" s="166"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9">
       <c r="A3" s="31" t="s">
         <v>32</v>
       </c>
@@ -16123,7 +17635,7 @@
       <c r="H3" s="168"/>
       <c r="I3" s="169"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9">
       <c r="A4" s="31" t="s">
         <v>33</v>
       </c>
@@ -16138,7 +17650,7 @@
       <c r="H4" s="160"/>
       <c r="I4" s="160"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9">
       <c r="A5" s="31" t="s">
         <v>34</v>
       </c>
@@ -16153,7 +17665,7 @@
       <c r="H5" s="160"/>
       <c r="I5" s="160"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9">
       <c r="A6" s="159" t="s">
         <v>192</v>
       </c>
@@ -16166,7 +17678,7 @@
       <c r="H6" s="159"/>
       <c r="I6" s="159"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9">
       <c r="A7" s="12" t="s">
         <v>39</v>
       </c>
@@ -16195,7 +17707,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="60">
       <c r="A8" s="16">
         <v>1</v>
       </c>
@@ -16224,7 +17736,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="75">
       <c r="A9" s="23">
         <v>2</v>
       </c>
@@ -16253,7 +17765,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="60">
       <c r="A10" s="25">
         <v>3</v>
       </c>
@@ -16302,7 +17814,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BF74A5E-2AA8-4C93-B20D-32544E95EFB7}">
   <dimension ref="A1:I10"/>
   <sheetViews>
@@ -16310,12 +17822,12 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="18.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="18.85546875" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="16384" width="18.85546875" style="30"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9">
       <c r="A1" s="29" t="s">
         <v>61</v>
       </c>
@@ -16323,7 +17835,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9">
       <c r="A2" s="31" t="s">
         <v>31</v>
       </c>
@@ -16338,7 +17850,7 @@
       <c r="H2" s="165"/>
       <c r="I2" s="166"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9">
       <c r="A3" s="31" t="s">
         <v>32</v>
       </c>
@@ -16353,7 +17865,7 @@
       <c r="H3" s="168"/>
       <c r="I3" s="169"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9">
       <c r="A4" s="31" t="s">
         <v>33</v>
       </c>
@@ -16368,7 +17880,7 @@
       <c r="H4" s="160"/>
       <c r="I4" s="160"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9">
       <c r="A5" s="31" t="s">
         <v>34</v>
       </c>
@@ -16383,7 +17895,7 @@
       <c r="H5" s="160"/>
       <c r="I5" s="160"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9">
       <c r="A6" s="159" t="s">
         <v>192</v>
       </c>
@@ -16396,7 +17908,7 @@
       <c r="H6" s="159"/>
       <c r="I6" s="159"/>
     </row>
-    <row r="7" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="30">
       <c r="A7" s="12" t="s">
         <v>39</v>
       </c>
@@ -16425,7 +17937,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="120">
       <c r="A8" s="23">
         <v>1</v>
       </c>
@@ -16454,7 +17966,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="105">
       <c r="A9" s="23">
         <v>2</v>
       </c>
@@ -16483,7 +17995,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="105">
       <c r="A10" s="25">
         <v>3</v>
       </c>
@@ -16532,7 +18044,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AABED7F-A641-414C-93D1-501EE24037CE}">
   <dimension ref="A1:I10"/>
   <sheetViews>
@@ -16540,12 +18052,12 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="27.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="27.28515625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="16384" width="27.28515625" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9">
       <c r="A1" s="10" t="s">
         <v>61</v>
       </c>
@@ -16553,7 +18065,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9">
       <c r="A2" s="22" t="s">
         <v>31</v>
       </c>
@@ -16568,7 +18080,7 @@
       <c r="H2" s="171"/>
       <c r="I2" s="172"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9">
       <c r="A3" s="22" t="s">
         <v>32</v>
       </c>
@@ -16583,7 +18095,7 @@
       <c r="H3" s="174"/>
       <c r="I3" s="174"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9">
       <c r="A4" s="22" t="s">
         <v>33</v>
       </c>
@@ -16598,7 +18110,7 @@
       <c r="H4" s="173"/>
       <c r="I4" s="173"/>
     </row>
-    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="15" customHeight="1">
       <c r="A5" s="22" t="s">
         <v>34</v>
       </c>
@@ -16613,7 +18125,7 @@
       <c r="H5" s="171"/>
       <c r="I5" s="172"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9">
       <c r="A6" s="159" t="s">
         <v>192</v>
       </c>
@@ -16626,7 +18138,7 @@
       <c r="H6" s="159"/>
       <c r="I6" s="159"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9">
       <c r="A7" s="12" t="s">
         <v>39</v>
       </c>
@@ -16655,7 +18167,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="60">
       <c r="A8" s="23">
         <v>1</v>
       </c>
@@ -16684,7 +18196,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="75">
       <c r="A9" s="23">
         <v>2</v>
       </c>
@@ -16713,7 +18225,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="75">
       <c r="A10" s="25">
         <v>3</v>
       </c>
@@ -16762,7 +18274,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A4FBD70-9D3A-4C8E-B5C8-430B3A403F0B}">
   <dimension ref="A1:I10"/>
   <sheetViews>
@@ -16770,9 +18282,9 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="21.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="21.28515625" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9">
       <c r="A1" s="10" t="s">
         <v>61</v>
       </c>
@@ -16780,7 +18292,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9">
       <c r="A2" s="22" t="s">
         <v>31</v>
       </c>
@@ -16795,7 +18307,7 @@
       <c r="H2" s="171"/>
       <c r="I2" s="172"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9">
       <c r="A3" s="22" t="s">
         <v>32</v>
       </c>
@@ -16808,7 +18320,7 @@
       <c r="H3" s="174"/>
       <c r="I3" s="174"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9">
       <c r="A4" s="22" t="s">
         <v>33</v>
       </c>
@@ -16821,7 +18333,7 @@
       <c r="H4" s="173"/>
       <c r="I4" s="173"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9">
       <c r="A5" s="22" t="s">
         <v>34</v>
       </c>
@@ -16834,7 +18346,7 @@
       <c r="H5" s="171"/>
       <c r="I5" s="172"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9">
       <c r="A6" s="159" t="s">
         <v>192</v>
       </c>
@@ -16847,7 +18359,7 @@
       <c r="H6" s="159"/>
       <c r="I6" s="159"/>
     </row>
-    <row r="7" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="30">
       <c r="A7" s="12" t="s">
         <v>39</v>
       </c>
@@ -16876,7 +18388,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9">
       <c r="A8" s="23">
         <v>1</v>
       </c>
@@ -16893,7 +18405,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9">
       <c r="A9" s="23">
         <v>2</v>
       </c>
@@ -16910,7 +18422,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9">
       <c r="A10" s="25">
         <v>3</v>
       </c>
@@ -16946,23 +18458,23 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F952A68-CFD3-4455-8952-3067C8308151}">
   <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="25.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="25.85546875" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="16384" width="25.85546875" style="30"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9">
       <c r="A1" s="29" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9">
       <c r="A2" s="31" t="s">
         <v>31</v>
       </c>
@@ -16977,7 +18489,7 @@
       <c r="H2" s="165"/>
       <c r="I2" s="166"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9">
       <c r="A3" s="31" t="s">
         <v>32</v>
       </c>
@@ -16992,7 +18504,7 @@
       <c r="H3" s="168"/>
       <c r="I3" s="169"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9">
       <c r="A4" s="31" t="s">
         <v>33</v>
       </c>
@@ -17007,7 +18519,7 @@
       <c r="H4" s="160"/>
       <c r="I4" s="160"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9">
       <c r="A5" s="31" t="s">
         <v>34</v>
       </c>
@@ -17022,7 +18534,7 @@
       <c r="H5" s="160"/>
       <c r="I5" s="160"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9">
       <c r="A6" s="159" t="s">
         <v>192</v>
       </c>
@@ -17035,7 +18547,7 @@
       <c r="H6" s="159"/>
       <c r="I6" s="159"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9">
       <c r="A7" s="12" t="s">
         <v>39</v>
       </c>
@@ -17064,7 +18576,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="75">
       <c r="A8" s="23">
         <v>1</v>
       </c>
@@ -17093,7 +18605,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="75">
       <c r="A9" s="23">
         <v>2</v>
       </c>
@@ -17122,7 +18634,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="90">
       <c r="A10" s="25">
         <v>3</v>
       </c>
@@ -17170,7 +18682,43 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1812A82-1F2A-48D8-949B-89F059A596BA}">
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="18.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="108" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1" s="181" t="s">
+        <v>943</v>
+      </c>
+      <c r="C1" s="181"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:C1"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="B1:C1" location="'Diagrama de secuencias '!A1" display="Diagrama de secuencia " xr:uid="{2048FA0F-B6EB-421F-B43D-2C4F25413FA4}"/>
+    <hyperlink ref="A1" location="'Tabla de Contenido'!A1" display="Tabla de Contenido" xr:uid="{67217EA7-18D4-4B8A-844D-06AFD3164E62}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E61622F7-0E97-45E4-AD8D-67A23570D199}">
   <dimension ref="A1:I12"/>
   <sheetViews>
@@ -17178,7 +18726,7 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="28.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="28.28515625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="19.5703125" style="11" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="28.140625" style="11" bestFit="1" customWidth="1"/>
@@ -17192,7 +18740,7 @@
     <col min="10" max="16384" width="28.28515625" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9">
       <c r="A1" s="10" t="s">
         <v>61</v>
       </c>
@@ -17200,7 +18748,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9">
       <c r="A2" s="22" t="s">
         <v>31</v>
       </c>
@@ -17215,7 +18763,7 @@
       <c r="H2" s="175"/>
       <c r="I2" s="175"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9">
       <c r="A3" s="22" t="s">
         <v>37</v>
       </c>
@@ -17230,7 +18778,7 @@
       <c r="H3" s="171"/>
       <c r="I3" s="172"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9">
       <c r="A4" s="22" t="s">
         <v>33</v>
       </c>
@@ -17245,7 +18793,7 @@
       <c r="H4" s="171"/>
       <c r="I4" s="172"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9">
       <c r="A5" s="22" t="s">
         <v>195</v>
       </c>
@@ -17260,7 +18808,7 @@
       <c r="H5" s="173"/>
       <c r="I5" s="173"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9">
       <c r="A6" s="159" t="s">
         <v>192</v>
       </c>
@@ -17273,7 +18821,7 @@
       <c r="H6" s="159"/>
       <c r="I6" s="159"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9">
       <c r="A7" s="12" t="s">
         <v>39</v>
       </c>
@@ -17302,7 +18850,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="75">
       <c r="A8" s="23">
         <v>1</v>
       </c>
@@ -17331,7 +18879,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="75">
       <c r="A9" s="23">
         <v>2</v>
       </c>
@@ -17360,7 +18908,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="75">
       <c r="A10" s="23">
         <v>3</v>
       </c>
@@ -17389,7 +18937,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="60">
       <c r="A11" s="23">
         <v>4</v>
       </c>
@@ -17418,7 +18966,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="90">
       <c r="A12" s="25">
         <v>5</v>
       </c>
@@ -17467,7 +19015,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E889B929-B5B5-483A-BEEF-8B8890C6DDF7}">
   <dimension ref="A1:I12"/>
   <sheetViews>
@@ -17475,12 +19023,12 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="28.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="28.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="16384" width="28.140625" style="30"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9">
       <c r="A1" s="29" t="s">
         <v>61</v>
       </c>
@@ -17488,7 +19036,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9">
       <c r="A2" s="28" t="s">
         <v>35</v>
       </c>
@@ -17503,7 +19051,7 @@
       <c r="H2" s="176"/>
       <c r="I2" s="176"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9">
       <c r="A3" s="28" t="s">
         <v>37</v>
       </c>
@@ -17518,7 +19066,7 @@
       <c r="H3" s="177"/>
       <c r="I3" s="178"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9">
       <c r="A4" s="28" t="s">
         <v>33</v>
       </c>
@@ -17533,7 +19081,7 @@
       <c r="H4" s="177"/>
       <c r="I4" s="178"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9">
       <c r="A5" s="28" t="s">
         <v>38</v>
       </c>
@@ -17548,7 +19096,7 @@
       <c r="H5" s="180"/>
       <c r="I5" s="180"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9">
       <c r="A6" s="159" t="s">
         <v>192</v>
       </c>
@@ -17561,7 +19109,7 @@
       <c r="H6" s="159"/>
       <c r="I6" s="159"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9">
       <c r="A7" s="12" t="s">
         <v>39</v>
       </c>
@@ -17590,7 +19138,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="60">
       <c r="A8" s="23">
         <v>1</v>
       </c>
@@ -17619,7 +19167,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="60">
       <c r="A9" s="23">
         <v>2</v>
       </c>
@@ -17648,7 +19196,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="75">
       <c r="A10" s="23">
         <v>3</v>
       </c>
@@ -17677,7 +19225,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="60">
       <c r="A11" s="23">
         <v>4</v>
       </c>
@@ -17706,7 +19254,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="60">
       <c r="A12" s="25">
         <v>5</v>
       </c>
@@ -17755,49 +19303,23 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DE4004E-E7CB-4559-8D4D-3296E1742FD8}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="18.28515625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="108" t="s">
-        <v>62</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A1" location="'Tabla de Contenido'!A1" display="Tabla de Contenido" xr:uid="{DFFC0184-1E6D-4525-8E8B-07C1A0F51D53}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C722FD5-E71D-43F6-AADB-231D79660503}">
   <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="28.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -17813,7 +19335,7 @@
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -17836,7 +19358,7 @@
       </c>
       <c r="G3" s="71"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7">
       <c r="A4" s="2" t="s">
         <v>14</v>
       </c>
@@ -17858,7 +19380,7 @@
         <v>8.0586080586080591E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7">
       <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
@@ -17880,7 +19402,7 @@
         <v>8.4249084249084255E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7">
       <c r="A6" s="2" t="s">
         <v>2</v>
       </c>
@@ -17903,7 +19425,7 @@
       </c>
       <c r="G6" s="71"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7">
       <c r="A7" s="2" t="s">
         <v>3</v>
       </c>
@@ -17925,7 +19447,7 @@
         <v>7.3260073260073263E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7">
       <c r="A8" s="2" t="s">
         <v>12</v>
       </c>
@@ -17948,7 +19470,7 @@
       </c>
       <c r="G8" s="72"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7">
       <c r="A9" s="2" t="s">
         <v>13</v>
       </c>
@@ -17970,7 +19492,7 @@
         <v>6.2271062271062272E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7">
       <c r="A10" s="2" t="s">
         <v>8</v>
       </c>
@@ -17993,7 +19515,7 @@
       </c>
       <c r="G10" s="71"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7">
       <c r="A11" s="2" t="s">
         <v>11</v>
       </c>
@@ -18015,7 +19537,7 @@
         <v>7.6923076923076927E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7">
       <c r="A12" s="2" t="s">
         <v>9</v>
       </c>
@@ -18037,7 +19559,7 @@
         <v>6.95970695970696E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7">
       <c r="A13" s="2" t="s">
         <v>4</v>
       </c>
@@ -18059,7 +19581,7 @@
         <v>5.8608058608058608E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7">
       <c r="A14" s="2" t="s">
         <v>7</v>
       </c>
@@ -18081,7 +19603,7 @@
         <v>2.564102564102564E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7">
       <c r="A15" s="2" t="s">
         <v>10</v>
       </c>
@@ -18103,7 +19625,7 @@
         <v>2.564102564102564E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7">
       <c r="A16" s="4" t="s">
         <v>63</v>
       </c>
@@ -18128,10 +19650,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:4">
       <c r="C21" s="6"/>
     </row>
-    <row r="23" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:4">
       <c r="D23" s="6"/>
     </row>
   </sheetData>
@@ -18144,23 +19666,23 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70F51200-D3AC-41F5-92E2-045AA3A7E3D9}">
   <dimension ref="A1:N15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="28.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -18204,7 +19726,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -18222,7 +19744,7 @@
       <c r="M3" s="2"/>
       <c r="N3" s="3"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14">
       <c r="A4" s="2" t="s">
         <v>14</v>
       </c>
@@ -18240,7 +19762,7 @@
       <c r="M4" s="3"/>
       <c r="N4" s="2"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14">
       <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
@@ -18258,7 +19780,7 @@
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14">
       <c r="A6" s="2" t="s">
         <v>2</v>
       </c>
@@ -18276,7 +19798,7 @@
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14">
       <c r="A7" s="2" t="s">
         <v>3</v>
       </c>
@@ -18294,7 +19816,7 @@
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14">
       <c r="A8" s="2" t="s">
         <v>12</v>
       </c>
@@ -18312,7 +19834,7 @@
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14">
       <c r="A9" s="2" t="s">
         <v>13</v>
       </c>
@@ -18330,7 +19852,7 @@
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14">
       <c r="A10" s="2" t="s">
         <v>8</v>
       </c>
@@ -18348,7 +19870,7 @@
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14">
       <c r="A11" s="2" t="s">
         <v>11</v>
       </c>
@@ -18366,7 +19888,7 @@
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14">
       <c r="A12" s="2" t="s">
         <v>9</v>
       </c>
@@ -18384,7 +19906,7 @@
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14">
       <c r="A13" s="2" t="s">
         <v>4</v>
       </c>
@@ -18402,7 +19924,7 @@
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14">
       <c r="A14" s="2" t="s">
         <v>7</v>
       </c>
@@ -18420,7 +19942,7 @@
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14">
       <c r="A15" s="5" t="s">
         <v>10</v>
       </c>
@@ -18448,17 +19970,66 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4531A684-8F2B-485B-AE14-BED0482795D2}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="108" t="s">
+        <v>62</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" location="'Tabla de Contenido'!A1" display="Tabla de Contenido" xr:uid="{CF853A0D-216A-4917-920A-84E5D63538CB}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DE4004E-E7CB-4559-8D4D-3296E1742FD8}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="18.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="108" t="s">
+        <v>62</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" location="'Tabla de Contenido'!A1" display="Tabla de Contenido" xr:uid="{DFFC0184-1E6D-4525-8E8B-07C1A0F51D53}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{096A891A-A5CF-4A6A-9E52-4150A852B6A5}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="18.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1">
       <c r="A1" s="108" t="s">
         <v>62</v>
       </c>
@@ -18473,18 +20044,18 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6030ABB5-C85A-428F-B526-B45C8A2CE371}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="20.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1">
       <c r="A1" s="99" t="s">
         <v>62</v>
       </c>
@@ -18499,13 +20070,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{517C7F59-370C-4644-9448-B170013D8C24}">
   <dimension ref="A1:F35"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="34.140625" style="7" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.5703125" style="7" bestFit="1" customWidth="1"/>
@@ -18517,7 +20088,7 @@
     <col min="9" max="16384" width="11.42578125" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6">
       <c r="A1" s="99" t="s">
         <v>62</v>
       </c>
@@ -18526,7 +20097,7 @@
       </c>
       <c r="C1" s="115"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6">
       <c r="A2" s="95" t="s">
         <v>862</v>
       </c>
@@ -18538,7 +20109,7 @@
       <c r="E2" s="120"/>
       <c r="F2" s="121"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6">
       <c r="A3" s="95" t="s">
         <v>863</v>
       </c>
@@ -18550,7 +20121,7 @@
       <c r="E3" s="120"/>
       <c r="F3" s="121"/>
     </row>
-    <row r="4" spans="1:6" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="32.25" customHeight="1">
       <c r="A4" s="95" t="s">
         <v>864</v>
       </c>
@@ -18562,7 +20133,7 @@
       <c r="E4" s="120"/>
       <c r="F4" s="121"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6">
       <c r="A5" s="95" t="s">
         <v>865</v>
       </c>
@@ -18574,7 +20145,7 @@
       <c r="E5" s="120"/>
       <c r="F5" s="121"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6">
       <c r="A6" s="95" t="s">
         <v>869</v>
       </c>
@@ -18594,7 +20165,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6">
       <c r="A7" s="77"/>
       <c r="B7" s="96" t="s">
         <v>884</v>
@@ -18606,7 +20177,7 @@
         <v>919</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6">
       <c r="A8" s="116" t="str">
         <f>$B$7</f>
         <v xml:space="preserve">emna-extraclase </v>
@@ -18626,7 +20197,7 @@
         <v>920</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6">
       <c r="A9" s="118"/>
       <c r="B9" s="96"/>
       <c r="C9" s="96"/>
@@ -18637,7 +20208,7 @@
       <c r="E9" s="96"/>
       <c r="F9" s="118"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6">
       <c r="A10" s="117"/>
       <c r="B10" s="96"/>
       <c r="C10" s="96"/>
@@ -18648,7 +20219,7 @@
       <c r="E10" s="96"/>
       <c r="F10" s="117"/>
     </row>
-    <row r="11" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="30">
       <c r="A11" s="94" t="str">
         <f>$B$7</f>
         <v xml:space="preserve">emna-extraclase </v>
@@ -18669,7 +20240,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="30">
       <c r="A12" s="77" t="str">
         <f>$A$11&amp;"/"&amp;$B$11</f>
         <v>emna-extraclase /emnaMensajesMS</v>
@@ -18687,7 +20258,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6">
       <c r="A13" s="77" t="str">
         <f t="shared" ref="A13:A17" si="0">$A$11&amp;"/"&amp;$B$11</f>
         <v>emna-extraclase /emnaMensajesMS</v>
@@ -18708,7 +20279,7 @@
         <v>923</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6">
       <c r="A14" s="116" t="str">
         <f t="shared" si="0"/>
         <v>emna-extraclase /emnaMensajesMS</v>
@@ -18732,7 +20303,7 @@
         <v>924</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6">
       <c r="A15" s="117"/>
       <c r="B15" s="96"/>
       <c r="C15" s="96"/>
@@ -18743,7 +20314,7 @@
       <c r="E15" s="96"/>
       <c r="F15" s="117"/>
     </row>
-    <row r="16" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" ht="30">
       <c r="A16" s="77" t="str">
         <f t="shared" si="0"/>
         <v>emna-extraclase /emnaMensajesMS</v>
@@ -18767,7 +20338,7 @@
         <v>925</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6">
       <c r="A17" s="116" t="str">
         <f t="shared" si="0"/>
         <v>emna-extraclase /emnaMensajesMS</v>
@@ -18788,7 +20359,7 @@
         <v>926</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6">
       <c r="A18" s="117"/>
       <c r="B18" s="96"/>
       <c r="C18" s="96"/>
@@ -18799,7 +20370,7 @@
       </c>
       <c r="F18" s="117"/>
     </row>
-    <row r="19" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" ht="30">
       <c r="A19" s="94" t="str">
         <f>$B$7</f>
         <v xml:space="preserve">emna-extraclase </v>
@@ -18817,7 +20388,7 @@
         <v>927</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6">
       <c r="A20" s="77" t="str">
         <f>$A$19&amp;"/"&amp;$B$19</f>
         <v>emna-extraclase /emnaUsuariosMS</v>
@@ -18838,7 +20409,7 @@
         <v>928</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6">
       <c r="A21" s="77" t="str">
         <f>$A$19&amp;"/"&amp;$B$19</f>
         <v>emna-extraclase /emnaUsuariosMS</v>
@@ -18859,7 +20430,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6">
       <c r="A22" s="116" t="str">
         <f>$A$19&amp;"/"&amp;$B$19</f>
         <v>emna-extraclase /emnaUsuariosMS</v>
@@ -18883,7 +20454,7 @@
         <v>930</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6">
       <c r="A23" s="117"/>
       <c r="B23" s="96"/>
       <c r="C23" s="96"/>
@@ -18894,7 +20465,7 @@
       <c r="E23" s="96"/>
       <c r="F23" s="117"/>
     </row>
-    <row r="24" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" ht="30">
       <c r="A24" s="77" t="str">
         <f>$A$19&amp;"/"&amp;$B$19</f>
         <v>emna-extraclase /emnaUsuariosMS</v>
@@ -18918,7 +20489,7 @@
         <v>931</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6">
       <c r="A25" s="116" t="str">
         <f>$A$19&amp;"/"&amp;$B$19</f>
         <v>emna-extraclase /emnaUsuariosMS</v>
@@ -18939,7 +20510,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6">
       <c r="A26" s="117"/>
       <c r="B26" s="96"/>
       <c r="C26" s="96"/>
@@ -18950,7 +20521,7 @@
       </c>
       <c r="F26" s="117"/>
     </row>
-    <row r="27" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" ht="30">
       <c r="A27" s="94" t="str">
         <f>$B$7</f>
         <v xml:space="preserve">emna-extraclase </v>
@@ -18971,7 +20542,7 @@
         <v>933</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6">
       <c r="A28" s="77" t="str">
         <f>$A$27&amp;"/"&amp;$B$27</f>
         <v>emna-extraclase /emnaSeguridadMS</v>
@@ -18989,7 +20560,7 @@
         <v>934</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6">
       <c r="A29" s="77" t="str">
         <f t="shared" ref="A29:A33" si="1">$A$27&amp;"/"&amp;$B$27</f>
         <v>emna-extraclase /emnaSeguridadMS</v>
@@ -19010,7 +20581,7 @@
         <v>935</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6">
       <c r="A30" s="116" t="str">
         <f t="shared" si="1"/>
         <v>emna-extraclase /emnaSeguridadMS</v>
@@ -19034,7 +20605,7 @@
         <v>936</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6">
       <c r="A31" s="117"/>
       <c r="B31" s="96"/>
       <c r="C31" s="96"/>
@@ -19045,7 +20616,7 @@
       <c r="E31" s="96"/>
       <c r="F31" s="117"/>
     </row>
-    <row r="32" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" ht="30">
       <c r="A32" s="77" t="str">
         <f t="shared" si="1"/>
         <v>emna-extraclase /emnaSeguridadMS</v>
@@ -19069,7 +20640,7 @@
         <v>937</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6">
       <c r="A33" s="116" t="str">
         <f t="shared" si="1"/>
         <v>emna-extraclase /emnaSeguridadMS</v>
@@ -19090,7 +20661,7 @@
         <v>938</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6">
       <c r="A34" s="117"/>
       <c r="B34" s="77"/>
       <c r="C34" s="77"/>
@@ -19101,7 +20672,7 @@
       </c>
       <c r="F34" s="117"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6">
       <c r="A35" s="94" t="str">
         <f>$B$7</f>
         <v xml:space="preserve">emna-extraclase </v>
@@ -19150,19 +20721,19 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4BF8E80-0457-45AA-9D7E-CA5FDCA5C350}">
   <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="18.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="25.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="A1" s="105" t="s">
         <v>62</v>
       </c>
@@ -19178,564 +20749,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45B1D57B-A645-40E4-A8D4-77A621BBB19C}">
-  <dimension ref="A1:F36"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:C1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="24.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="24.5703125" style="101" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.7109375" style="101" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12" style="101" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.7109375" style="101" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.7109375" style="101"/>
-    <col min="6" max="6" width="31.85546875" style="101" customWidth="1"/>
-    <col min="7" max="16384" width="24.7109375" style="101"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="100" t="s">
-        <v>62</v>
-      </c>
-      <c r="B1" s="115" t="s">
-        <v>941</v>
-      </c>
-      <c r="C1" s="115"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="102" t="s">
-        <v>862</v>
-      </c>
-      <c r="B2" s="133" t="s">
-        <v>873</v>
-      </c>
-      <c r="C2" s="133"/>
-      <c r="D2" s="133"/>
-      <c r="E2" s="133"/>
-      <c r="F2" s="133"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="102" t="s">
-        <v>863</v>
-      </c>
-      <c r="B3" s="133" t="s">
-        <v>884</v>
-      </c>
-      <c r="C3" s="133"/>
-      <c r="D3" s="133"/>
-      <c r="E3" s="133"/>
-      <c r="F3" s="133"/>
-    </row>
-    <row r="4" spans="1:6" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="102" t="s">
-        <v>864</v>
-      </c>
-      <c r="B4" s="133" t="s">
-        <v>913</v>
-      </c>
-      <c r="C4" s="133"/>
-      <c r="D4" s="133"/>
-      <c r="E4" s="133"/>
-      <c r="F4" s="133"/>
-    </row>
-    <row r="5" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="102" t="s">
-        <v>865</v>
-      </c>
-      <c r="B5" s="133" t="s">
-        <v>914</v>
-      </c>
-      <c r="C5" s="133"/>
-      <c r="D5" s="133"/>
-      <c r="E5" s="133"/>
-      <c r="F5" s="133"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="102" t="s">
-        <v>460</v>
-      </c>
-      <c r="B6" s="102" t="s">
-        <v>361</v>
-      </c>
-      <c r="C6" s="102" t="s">
-        <v>866</v>
-      </c>
-      <c r="D6" s="102" t="s">
-        <v>867</v>
-      </c>
-      <c r="E6" s="134" t="s">
-        <v>868</v>
-      </c>
-      <c r="F6" s="134"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="135" t="s">
-        <v>873</v>
-      </c>
-      <c r="B7" s="135" t="s">
-        <v>878</v>
-      </c>
-      <c r="C7" s="103" t="s">
-        <v>879</v>
-      </c>
-      <c r="D7" s="135"/>
-      <c r="E7" s="135" t="s">
-        <v>913</v>
-      </c>
-      <c r="F7" s="135"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="135"/>
-      <c r="B8" s="135"/>
-      <c r="C8" s="103" t="s">
-        <v>880</v>
-      </c>
-      <c r="D8" s="135"/>
-      <c r="E8" s="135"/>
-      <c r="F8" s="135"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="135"/>
-      <c r="B9" s="135"/>
-      <c r="C9" s="103" t="s">
-        <v>882</v>
-      </c>
-      <c r="D9" s="135"/>
-      <c r="E9" s="135"/>
-      <c r="F9" s="135"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="135" t="s">
-        <v>879</v>
-      </c>
-      <c r="B10" s="135" t="s">
-        <v>877</v>
-      </c>
-      <c r="C10" s="135"/>
-      <c r="D10" s="103" t="s">
-        <v>883</v>
-      </c>
-      <c r="E10" s="135" t="s">
-        <v>910</v>
-      </c>
-      <c r="F10" s="135"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="135"/>
-      <c r="B11" s="135"/>
-      <c r="C11" s="135"/>
-      <c r="D11" s="103" t="s">
-        <v>880</v>
-      </c>
-      <c r="E11" s="135"/>
-      <c r="F11" s="135"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="135"/>
-      <c r="B12" s="135"/>
-      <c r="C12" s="135"/>
-      <c r="D12" s="103" t="s">
-        <v>882</v>
-      </c>
-      <c r="E12" s="135"/>
-      <c r="F12" s="135"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="135" t="s">
-        <v>880</v>
-      </c>
-      <c r="B13" s="135" t="s">
-        <v>877</v>
-      </c>
-      <c r="C13" s="136" t="s">
-        <v>879</v>
-      </c>
-      <c r="D13" s="103" t="s">
-        <v>883</v>
-      </c>
-      <c r="E13" s="139" t="s">
-        <v>911</v>
-      </c>
-      <c r="F13" s="140"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="135"/>
-      <c r="B14" s="135"/>
-      <c r="C14" s="137"/>
-      <c r="D14" s="104" t="s">
-        <v>874</v>
-      </c>
-      <c r="E14" s="141"/>
-      <c r="F14" s="142"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="135"/>
-      <c r="B15" s="135"/>
-      <c r="C15" s="137"/>
-      <c r="D15" s="104" t="s">
-        <v>875</v>
-      </c>
-      <c r="E15" s="141"/>
-      <c r="F15" s="142"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="135"/>
-      <c r="B16" s="135"/>
-      <c r="C16" s="138"/>
-      <c r="D16" s="104" t="s">
-        <v>876</v>
-      </c>
-      <c r="E16" s="143"/>
-      <c r="F16" s="144"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="135" t="s">
-        <v>881</v>
-      </c>
-      <c r="B17" s="135" t="s">
-        <v>877</v>
-      </c>
-      <c r="C17" s="136" t="s">
-        <v>879</v>
-      </c>
-      <c r="D17" s="103" t="s">
-        <v>883</v>
-      </c>
-      <c r="E17" s="125" t="s">
-        <v>912</v>
-      </c>
-      <c r="F17" s="126"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="135"/>
-      <c r="B18" s="135"/>
-      <c r="C18" s="137"/>
-      <c r="D18" s="104" t="s">
-        <v>874</v>
-      </c>
-      <c r="E18" s="131"/>
-      <c r="F18" s="132"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="135"/>
-      <c r="B19" s="135"/>
-      <c r="C19" s="137"/>
-      <c r="D19" s="104" t="s">
-        <v>875</v>
-      </c>
-      <c r="E19" s="131"/>
-      <c r="F19" s="132"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="135"/>
-      <c r="B20" s="135"/>
-      <c r="C20" s="138"/>
-      <c r="D20" s="104" t="s">
-        <v>876</v>
-      </c>
-      <c r="E20" s="127"/>
-      <c r="F20" s="128"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="122" t="s">
-        <v>874</v>
-      </c>
-      <c r="B21" s="122" t="s">
-        <v>878</v>
-      </c>
-      <c r="C21" s="103" t="s">
-        <v>879</v>
-      </c>
-      <c r="D21" s="122" t="s">
-        <v>883</v>
-      </c>
-      <c r="E21" s="125" t="s">
-        <v>908</v>
-      </c>
-      <c r="F21" s="126"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="124"/>
-      <c r="B22" s="124"/>
-      <c r="C22" s="103" t="s">
-        <v>880</v>
-      </c>
-      <c r="D22" s="124"/>
-      <c r="E22" s="131"/>
-      <c r="F22" s="132"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="123"/>
-      <c r="B23" s="123"/>
-      <c r="C23" s="103" t="s">
-        <v>882</v>
-      </c>
-      <c r="D23" s="123"/>
-      <c r="E23" s="127"/>
-      <c r="F23" s="128"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="122" t="s">
-        <v>875</v>
-      </c>
-      <c r="B24" s="122" t="s">
-        <v>878</v>
-      </c>
-      <c r="C24" s="103" t="s">
-        <v>879</v>
-      </c>
-      <c r="D24" s="122" t="s">
-        <v>883</v>
-      </c>
-      <c r="E24" s="125" t="s">
-        <v>907</v>
-      </c>
-      <c r="F24" s="126"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="124"/>
-      <c r="B25" s="124"/>
-      <c r="C25" s="103" t="s">
-        <v>880</v>
-      </c>
-      <c r="D25" s="124"/>
-      <c r="E25" s="131"/>
-      <c r="F25" s="132"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="123"/>
-      <c r="B26" s="123"/>
-      <c r="C26" s="103" t="s">
-        <v>882</v>
-      </c>
-      <c r="D26" s="123"/>
-      <c r="E26" s="127"/>
-      <c r="F26" s="128"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="122" t="s">
-        <v>876</v>
-      </c>
-      <c r="B27" s="122" t="s">
-        <v>878</v>
-      </c>
-      <c r="C27" s="103" t="s">
-        <v>879</v>
-      </c>
-      <c r="D27" s="122" t="s">
-        <v>883</v>
-      </c>
-      <c r="E27" s="125" t="s">
-        <v>909</v>
-      </c>
-      <c r="F27" s="126"/>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="124"/>
-      <c r="B28" s="124"/>
-      <c r="C28" s="103" t="s">
-        <v>880</v>
-      </c>
-      <c r="D28" s="124"/>
-      <c r="E28" s="131"/>
-      <c r="F28" s="132"/>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="123"/>
-      <c r="B29" s="123"/>
-      <c r="C29" s="103" t="s">
-        <v>882</v>
-      </c>
-      <c r="D29" s="123"/>
-      <c r="E29" s="127"/>
-      <c r="F29" s="128"/>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="122" t="s">
-        <v>916</v>
-      </c>
-      <c r="B30" s="122" t="s">
-        <v>877</v>
-      </c>
-      <c r="C30" s="104" t="s">
-        <v>917</v>
-      </c>
-      <c r="D30" s="122" t="s">
-        <v>891</v>
-      </c>
-      <c r="E30" s="125" t="s">
-        <v>910</v>
-      </c>
-      <c r="F30" s="126"/>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="123"/>
-      <c r="B31" s="123"/>
-      <c r="C31" s="104" t="s">
-        <v>915</v>
-      </c>
-      <c r="D31" s="123"/>
-      <c r="E31" s="127"/>
-      <c r="F31" s="128"/>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="104" t="s">
-        <v>917</v>
-      </c>
-      <c r="B32" s="104" t="s">
-        <v>877</v>
-      </c>
-      <c r="C32" s="104"/>
-      <c r="D32" s="104" t="s">
-        <v>891</v>
-      </c>
-      <c r="E32" s="129" t="s">
-        <v>910</v>
-      </c>
-      <c r="F32" s="130"/>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="104" t="s">
-        <v>915</v>
-      </c>
-      <c r="B33" s="104" t="s">
-        <v>877</v>
-      </c>
-      <c r="C33" s="104"/>
-      <c r="D33" s="104" t="s">
-        <v>891</v>
-      </c>
-      <c r="E33" s="129" t="s">
-        <v>910</v>
-      </c>
-      <c r="F33" s="130"/>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="122" t="s">
-        <v>891</v>
-      </c>
-      <c r="B34" s="122" t="s">
-        <v>878</v>
-      </c>
-      <c r="C34" s="104" t="s">
-        <v>916</v>
-      </c>
-      <c r="D34" s="122"/>
-      <c r="E34" s="125" t="s">
-        <v>918</v>
-      </c>
-      <c r="F34" s="126"/>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="124"/>
-      <c r="B35" s="124"/>
-      <c r="C35" s="104" t="s">
-        <v>917</v>
-      </c>
-      <c r="D35" s="124"/>
-      <c r="E35" s="131"/>
-      <c r="F35" s="132"/>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="123"/>
-      <c r="B36" s="123"/>
-      <c r="C36" s="104" t="s">
-        <v>915</v>
-      </c>
-      <c r="D36" s="123"/>
-      <c r="E36" s="127"/>
-      <c r="F36" s="128"/>
-    </row>
-  </sheetData>
-  <mergeCells count="44">
-    <mergeCell ref="D27:D29"/>
-    <mergeCell ref="E13:F16"/>
-    <mergeCell ref="E17:F20"/>
-    <mergeCell ref="E21:F23"/>
-    <mergeCell ref="E24:F26"/>
-    <mergeCell ref="E27:F29"/>
-    <mergeCell ref="B10:B12"/>
-    <mergeCell ref="C10:C12"/>
-    <mergeCell ref="E10:F12"/>
-    <mergeCell ref="A27:A29"/>
-    <mergeCell ref="B27:B29"/>
-    <mergeCell ref="B24:B26"/>
-    <mergeCell ref="B21:B23"/>
-    <mergeCell ref="C13:C16"/>
-    <mergeCell ref="C17:C20"/>
-    <mergeCell ref="A17:A20"/>
-    <mergeCell ref="B13:B16"/>
-    <mergeCell ref="B17:B20"/>
-    <mergeCell ref="A21:A23"/>
-    <mergeCell ref="A24:A26"/>
-    <mergeCell ref="D21:D23"/>
-    <mergeCell ref="D24:D26"/>
-    <mergeCell ref="D30:D31"/>
-    <mergeCell ref="D34:D36"/>
-    <mergeCell ref="E30:F31"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="E34:F36"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="A34:A36"/>
-    <mergeCell ref="B34:B36"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="B5:F5"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="D7:D9"/>
-    <mergeCell ref="E7:F9"/>
-    <mergeCell ref="A13:A16"/>
-    <mergeCell ref="A10:A12"/>
-  </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="A1" location="'Tabla de Contenido'!A1" display="Tabla de Contenido" xr:uid="{32414F91-C2A5-47DD-93EA-9C2CBC6A25AC}"/>
-    <hyperlink ref="B1:C1" location="'Img-Diagrama de componentes '!A1" display="Modelo " xr:uid="{75741CD3-38C0-452D-BA7E-247533E622A5}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DEBE811-B575-4EE6-9E48-D57E283D39CD}">
-  <dimension ref="A1:D1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.28515625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="105" t="s">
-        <v>62</v>
-      </c>
-      <c r="B1" s="107" t="s">
-        <v>860</v>
-      </c>
-      <c r="D1" s="106"/>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A1" location="'Tabla de Contenido'!A1" display="Tabla de Contenido" xr:uid="{377F5469-EED4-4C94-9EC7-8862E9936975}"/>
-    <hyperlink ref="B1" location="'Diagrama de componentes '!A1" display="Diagrama de componentes " xr:uid="{689570F6-B884-4B83-A9AC-4B6EE4F4C1B1}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
 </file>
--- a/ExtraClase/Documencation-EMNA/EMNA-Documentacion.xlsx
+++ b/ExtraClase/Documencation-EMNA/EMNA-Documentacion.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Arias Ramirez\OneDrive\Escritorio\U\2024-2\IS2\ExtraClase\Documencation-EMNA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{381D62FC-E9D9-48D8-8DDB-051DB140963F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67EC12EA-F2EE-48AF-80CA-162B481C45A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1801" uniqueCount="993">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1802" uniqueCount="994">
   <si>
     <t>Trade off de QA</t>
   </si>
@@ -3955,6 +3955,9 @@
   </si>
   <si>
     <t xml:space="preserve">Resultado de la solicutud, representando los datos en un formato adecuado. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Repositorio </t>
   </si>
 </sst>
 </file>
@@ -4570,7 +4573,7 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="22" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="187">
+  <cellXfs count="188">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -4880,14 +4883,29 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -4897,6 +4915,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="25" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -4910,52 +4931,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="23" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4976,26 +4955,50 @@
     <xf numFmtId="0" fontId="13" fillId="23" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="19" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -5017,6 +5020,24 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="19" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -5084,23 +5105,8 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -9842,9 +9848,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F22"/>
+  <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
@@ -9856,168 +9864,173 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="19"/>
-      <c r="B1" s="113" t="s">
+      <c r="B1" s="115" t="s">
         <v>369</v>
       </c>
-      <c r="C1" s="113"/>
+      <c r="C1" s="115"/>
       <c r="F1" s="10"/>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="37" t="s">
         <v>370</v>
       </c>
-      <c r="B2" s="114" t="s">
+      <c r="B2" s="116" t="s">
         <v>367</v>
       </c>
-      <c r="C2" s="114"/>
+      <c r="C2" s="116"/>
       <c r="F2" s="10"/>
     </row>
     <row r="3" spans="1:6" ht="64.5" customHeight="1">
       <c r="A3" s="37" t="s">
         <v>371</v>
       </c>
-      <c r="B3" s="114" t="s">
+      <c r="B3" s="116" t="s">
         <v>368</v>
       </c>
-      <c r="C3" s="114"/>
+      <c r="C3" s="116"/>
       <c r="F3" s="10"/>
     </row>
     <row r="4" spans="1:6" ht="66.75" customHeight="1">
       <c r="A4" s="37" t="s">
         <v>372</v>
       </c>
-      <c r="B4" s="114" t="s">
+      <c r="B4" s="116" t="s">
         <v>378</v>
       </c>
-      <c r="C4" s="114"/>
+      <c r="C4" s="116"/>
       <c r="F4" s="10"/>
     </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="7"/>
+    <row r="5" spans="1:6">
+      <c r="A5" s="187" t="s">
+        <v>993</v>
+      </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="111" t="s">
+      <c r="A7" s="7"/>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="111" t="s">
         <v>892</v>
       </c>
-      <c r="B7" s="93" t="s">
+      <c r="B8" s="93" t="s">
         <v>893</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="91" t="s">
+    <row r="9" spans="1:6">
+      <c r="A9" s="91" t="s">
         <v>427</v>
       </c>
-      <c r="B8" s="109" t="s">
+      <c r="B9" s="109" t="s">
         <v>894</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="90" t="s">
-        <v>351</v>
-      </c>
-      <c r="B9" s="21" t="s">
-        <v>902</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="90" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B10" s="21" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="90" t="s">
+        <v>352</v>
+      </c>
+      <c r="B11" s="21" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="90" t="s">
         <v>353</v>
       </c>
-      <c r="B11" s="110" t="s">
+      <c r="B12" s="110" t="s">
         <v>904</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="92" t="s">
+    <row r="13" spans="1:6">
+      <c r="A13" s="92" t="s">
         <v>157</v>
       </c>
-      <c r="B12" s="21" t="s">
+      <c r="B13" s="21" t="s">
         <v>905</v>
       </c>
-      <c r="C12" s="112"/>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="90" t="s">
-        <v>0</v>
-      </c>
-      <c r="B13" s="110" t="s">
-        <v>906</v>
-      </c>
+      <c r="C13" s="112"/>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="90" t="s">
-        <v>15</v>
-      </c>
-      <c r="B14" s="109" t="s">
-        <v>895</v>
+        <v>0</v>
+      </c>
+      <c r="B14" s="110" t="s">
+        <v>906</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="90" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="109" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="90" t="s">
         <v>19</v>
       </c>
-      <c r="B15" s="110" t="s">
+      <c r="B16" s="110" t="s">
         <v>860</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="92" t="s">
+    <row r="17" spans="1:2">
+      <c r="A17" s="92" t="s">
         <v>428</v>
       </c>
-      <c r="B16" s="110" t="s">
+      <c r="B17" s="110" t="s">
         <v>861</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="90" t="s">
-        <v>429</v>
-      </c>
-      <c r="B17" s="109" t="s">
-        <v>896</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="90" t="s">
+        <v>429</v>
+      </c>
+      <c r="B18" s="109" t="s">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="90" t="s">
         <v>430</v>
       </c>
-      <c r="B18" s="110" t="s">
+      <c r="B19" s="110" t="s">
         <v>897</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="92" t="s">
+    <row r="20" spans="1:2">
+      <c r="A20" s="92" t="s">
         <v>592</v>
       </c>
-      <c r="B19" s="110" t="s">
+      <c r="B20" s="110" t="s">
         <v>898</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" s="90" t="s">
-        <v>593</v>
-      </c>
-      <c r="B20" s="110" t="s">
-        <v>899</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="90" t="s">
+        <v>593</v>
+      </c>
+      <c r="B21" s="110" t="s">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="90" t="s">
         <v>657</v>
       </c>
-      <c r="B21" s="109" t="s">
+      <c r="B22" s="109" t="s">
         <v>900</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
-      <c r="B22" s="110" t="s">
+    <row r="23" spans="1:2">
+      <c r="B23" s="110" t="s">
         <v>901</v>
       </c>
     </row>
@@ -10029,27 +10042,28 @@
     <mergeCell ref="B4:C4"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A13" location="'Trade off '!A1" display="Trade off de QA" xr:uid="{DFE46B2E-658A-485B-9FB6-398B7CA63E1C}"/>
-    <hyperlink ref="A14" location="'Mapa Empatia'!A1" display="Mapa de Empatia " xr:uid="{E0A6560C-961F-4860-8ADD-F07043445D12}"/>
-    <hyperlink ref="A15" location="Caracterizacion!A1" display="Caractetizacion " xr:uid="{ED93357A-4E55-4391-83A1-412B54BBAC90}"/>
-    <hyperlink ref="A9" location="RestriccionesNegocio!A1" display="Restricciones de negocio " xr:uid="{0C18D978-5861-41CF-BD36-498C54063DDD}"/>
-    <hyperlink ref="A10" location="'FuncionalidadesCriticas '!A1" display="Funcionalidades criticas " xr:uid="{6B62D9FA-8469-430A-80EB-5235B982B64B}"/>
-    <hyperlink ref="A11" location="RestriccionesTecnicas!A1" display="Restricciones Tecnicas " xr:uid="{E9BB16F9-6A9E-4871-AA6E-22D047375EE8}"/>
-    <hyperlink ref="A17" location="AlternativaSolucionSelecc!A1" display="Alternativa de Solucion  Seleccionada" xr:uid="{AA444825-5E3A-4194-9D21-A73A8AAD0A74}"/>
-    <hyperlink ref="A18" location="TacticasEstrategias!A1" display="Tacticas Estrategias" xr:uid="{39CB7AEA-71C0-4D59-86DB-D19AE6DA3AA3}"/>
-    <hyperlink ref="A20" location="Elecciones!A1" display="Elecciones  " xr:uid="{3B377A59-6A47-4FFC-924C-34F4E5A642B4}"/>
-    <hyperlink ref="A21" location="'Provedores Componentes'!A1" display="Provedores Componentes" xr:uid="{3B24E8FF-73DC-4B5B-A04A-E708E817B7EF}"/>
-    <hyperlink ref="B15" location="'Diagrama de componentes '!A1" display="Diagrama de componentes " xr:uid="{4D28DDDE-FA0F-4FB7-BBCA-53ADDEA1FA71}"/>
-    <hyperlink ref="B16" location="'Diagrama de paquetes '!A1" display="Diagrama de paquetes " xr:uid="{82047B9E-CBE2-41F3-A60A-CD1457D7E16F}"/>
-    <hyperlink ref="B22" location="'Img-Arquetipo de solucion '!A1" display="Arquetipo de solucion " xr:uid="{EFBDB4D2-1410-431E-AEE0-A6DDCE4693DB}"/>
-    <hyperlink ref="B19" location="'Img-Arquetipo de solucion '!A1" display="Diagrama de comunicaciones " xr:uid="{B1B81DC1-A086-42B5-8CE3-82825931D90E}"/>
-    <hyperlink ref="B11" location="'Img-Modelo de dominio '!A1" display="Modelo de dominio " xr:uid="{2092BDA8-9C1C-41DB-86A7-C285D5A7246F}"/>
-    <hyperlink ref="B13" location="'Img-Modelo de entidad relacion '!A1" display="Modelo de entidad relacion " xr:uid="{88A84F18-A83E-46D9-875F-AD7BF1ACC0C4}"/>
-    <hyperlink ref="B20" location="'Img-Diagrama de actividades '!A1" display="Diagrama de actividades " xr:uid="{256C662F-55E5-40F9-8E58-002110C950B2}"/>
-    <hyperlink ref="B18" location="'Diagrama de secuencias '!A1" display="Diagrama de secuencias " xr:uid="{CF8057B7-5FB4-40F7-8779-C5DDBB682750}"/>
+    <hyperlink ref="A14" location="'Trade off '!A1" display="Trade off de QA" xr:uid="{DFE46B2E-658A-485B-9FB6-398B7CA63E1C}"/>
+    <hyperlink ref="A15" location="'Mapa Empatia'!A1" display="Mapa de Empatia " xr:uid="{E0A6560C-961F-4860-8ADD-F07043445D12}"/>
+    <hyperlink ref="A16" location="Caracterizacion!A1" display="Caractetizacion " xr:uid="{ED93357A-4E55-4391-83A1-412B54BBAC90}"/>
+    <hyperlink ref="A10" location="RestriccionesNegocio!A1" display="Restricciones de negocio " xr:uid="{0C18D978-5861-41CF-BD36-498C54063DDD}"/>
+    <hyperlink ref="A11" location="'FuncionalidadesCriticas '!A1" display="Funcionalidades criticas " xr:uid="{6B62D9FA-8469-430A-80EB-5235B982B64B}"/>
+    <hyperlink ref="A12" location="RestriccionesTecnicas!A1" display="Restricciones Tecnicas " xr:uid="{E9BB16F9-6A9E-4871-AA6E-22D047375EE8}"/>
+    <hyperlink ref="A18" location="AlternativaSolucionSelecc!A1" display="Alternativa de Solucion  Seleccionada" xr:uid="{AA444825-5E3A-4194-9D21-A73A8AAD0A74}"/>
+    <hyperlink ref="A19" location="TacticasEstrategias!A1" display="Tacticas Estrategias" xr:uid="{39CB7AEA-71C0-4D59-86DB-D19AE6DA3AA3}"/>
+    <hyperlink ref="A21" location="Elecciones!A1" display="Elecciones  " xr:uid="{3B377A59-6A47-4FFC-924C-34F4E5A642B4}"/>
+    <hyperlink ref="A22" location="'Provedores Componentes'!A1" display="Provedores Componentes" xr:uid="{3B24E8FF-73DC-4B5B-A04A-E708E817B7EF}"/>
+    <hyperlink ref="B16" location="'Diagrama de componentes '!A1" display="Diagrama de componentes " xr:uid="{4D28DDDE-FA0F-4FB7-BBCA-53ADDEA1FA71}"/>
+    <hyperlink ref="B17" location="'Diagrama de paquetes '!A1" display="Diagrama de paquetes " xr:uid="{82047B9E-CBE2-41F3-A60A-CD1457D7E16F}"/>
+    <hyperlink ref="B23" location="'Img-Arquetipo de solucion '!A1" display="Arquetipo de solucion " xr:uid="{EFBDB4D2-1410-431E-AEE0-A6DDCE4693DB}"/>
+    <hyperlink ref="B20" location="'Img-Arquetipo de solucion '!A1" display="Diagrama de comunicaciones " xr:uid="{B1B81DC1-A086-42B5-8CE3-82825931D90E}"/>
+    <hyperlink ref="B12" location="'Img-Modelo de dominio '!A1" display="Modelo de dominio " xr:uid="{2092BDA8-9C1C-41DB-86A7-C285D5A7246F}"/>
+    <hyperlink ref="B14" location="'Img-Modelo de entidad relacion '!A1" display="Modelo de entidad relacion " xr:uid="{88A84F18-A83E-46D9-875F-AD7BF1ACC0C4}"/>
+    <hyperlink ref="B21" location="'Img-Diagrama de actividades '!A1" display="Diagrama de actividades " xr:uid="{256C662F-55E5-40F9-8E58-002110C950B2}"/>
+    <hyperlink ref="B19" location="'Diagrama de secuencias '!A1" display="Diagrama de secuencias " xr:uid="{CF8057B7-5FB4-40F7-8779-C5DDBB682750}"/>
+    <hyperlink ref="A5" r:id="rId1" xr:uid="{33230388-71F1-4C76-ADCC-E3DCAEF9BC67}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -10074,58 +10088,58 @@
       <c r="A1" s="100" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="115" t="s">
+      <c r="B1" s="124" t="s">
         <v>941</v>
       </c>
-      <c r="C1" s="115"/>
+      <c r="C1" s="124"/>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="102" t="s">
         <v>862</v>
       </c>
-      <c r="B2" s="125" t="s">
+      <c r="B2" s="149" t="s">
         <v>873</v>
       </c>
-      <c r="C2" s="125"/>
-      <c r="D2" s="125"/>
-      <c r="E2" s="125"/>
-      <c r="F2" s="125"/>
+      <c r="C2" s="149"/>
+      <c r="D2" s="149"/>
+      <c r="E2" s="149"/>
+      <c r="F2" s="149"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="102" t="s">
         <v>863</v>
       </c>
-      <c r="B3" s="125" t="s">
+      <c r="B3" s="149" t="s">
         <v>884</v>
       </c>
-      <c r="C3" s="125"/>
-      <c r="D3" s="125"/>
-      <c r="E3" s="125"/>
-      <c r="F3" s="125"/>
+      <c r="C3" s="149"/>
+      <c r="D3" s="149"/>
+      <c r="E3" s="149"/>
+      <c r="F3" s="149"/>
     </row>
     <row r="4" spans="1:6" ht="42.75" customHeight="1">
       <c r="A4" s="102" t="s">
         <v>864</v>
       </c>
-      <c r="B4" s="125" t="s">
+      <c r="B4" s="149" t="s">
         <v>913</v>
       </c>
-      <c r="C4" s="125"/>
-      <c r="D4" s="125"/>
-      <c r="E4" s="125"/>
-      <c r="F4" s="125"/>
+      <c r="C4" s="149"/>
+      <c r="D4" s="149"/>
+      <c r="E4" s="149"/>
+      <c r="F4" s="149"/>
     </row>
     <row r="5" spans="1:6" ht="31.5" customHeight="1">
       <c r="A5" s="102" t="s">
         <v>865</v>
       </c>
-      <c r="B5" s="125" t="s">
+      <c r="B5" s="149" t="s">
         <v>914</v>
       </c>
-      <c r="C5" s="125"/>
-      <c r="D5" s="125"/>
-      <c r="E5" s="125"/>
-      <c r="F5" s="125"/>
+      <c r="C5" s="149"/>
+      <c r="D5" s="149"/>
+      <c r="E5" s="149"/>
+      <c r="F5" s="149"/>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="102" t="s">
@@ -10140,320 +10154,320 @@
       <c r="D6" s="102" t="s">
         <v>867</v>
       </c>
-      <c r="E6" s="126" t="s">
+      <c r="E6" s="150" t="s">
         <v>868</v>
       </c>
-      <c r="F6" s="126"/>
+      <c r="F6" s="150"/>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="127" t="s">
+      <c r="A7" s="143" t="s">
         <v>873</v>
       </c>
-      <c r="B7" s="127" t="s">
+      <c r="B7" s="143" t="s">
         <v>878</v>
       </c>
       <c r="C7" s="103" t="s">
         <v>879</v>
       </c>
-      <c r="D7" s="127"/>
-      <c r="E7" s="127" t="s">
+      <c r="D7" s="143"/>
+      <c r="E7" s="143" t="s">
         <v>913</v>
       </c>
-      <c r="F7" s="127"/>
+      <c r="F7" s="143"/>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="127"/>
-      <c r="B8" s="127"/>
+      <c r="A8" s="143"/>
+      <c r="B8" s="143"/>
       <c r="C8" s="103" t="s">
         <v>880</v>
       </c>
-      <c r="D8" s="127"/>
-      <c r="E8" s="127"/>
-      <c r="F8" s="127"/>
+      <c r="D8" s="143"/>
+      <c r="E8" s="143"/>
+      <c r="F8" s="143"/>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="127"/>
-      <c r="B9" s="127"/>
+      <c r="A9" s="143"/>
+      <c r="B9" s="143"/>
       <c r="C9" s="103" t="s">
         <v>882</v>
       </c>
-      <c r="D9" s="127"/>
-      <c r="E9" s="127"/>
-      <c r="F9" s="127"/>
+      <c r="D9" s="143"/>
+      <c r="E9" s="143"/>
+      <c r="F9" s="143"/>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="127" t="s">
+      <c r="A10" s="143" t="s">
         <v>879</v>
       </c>
-      <c r="B10" s="127" t="s">
+      <c r="B10" s="143" t="s">
         <v>877</v>
       </c>
-      <c r="C10" s="127"/>
+      <c r="C10" s="143"/>
       <c r="D10" s="103" t="s">
         <v>883</v>
       </c>
-      <c r="E10" s="127" t="s">
+      <c r="E10" s="143" t="s">
         <v>910</v>
       </c>
-      <c r="F10" s="127"/>
+      <c r="F10" s="143"/>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="127"/>
-      <c r="B11" s="127"/>
-      <c r="C11" s="127"/>
+      <c r="A11" s="143"/>
+      <c r="B11" s="143"/>
+      <c r="C11" s="143"/>
       <c r="D11" s="103" t="s">
         <v>880</v>
       </c>
-      <c r="E11" s="127"/>
-      <c r="F11" s="127"/>
+      <c r="E11" s="143"/>
+      <c r="F11" s="143"/>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="127"/>
-      <c r="B12" s="127"/>
-      <c r="C12" s="127"/>
+      <c r="A12" s="143"/>
+      <c r="B12" s="143"/>
+      <c r="C12" s="143"/>
       <c r="D12" s="103" t="s">
         <v>882</v>
       </c>
-      <c r="E12" s="127"/>
-      <c r="F12" s="127"/>
+      <c r="E12" s="143"/>
+      <c r="F12" s="143"/>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="127" t="s">
+      <c r="A13" s="143" t="s">
         <v>880</v>
       </c>
-      <c r="B13" s="127" t="s">
+      <c r="B13" s="143" t="s">
         <v>877</v>
       </c>
-      <c r="C13" s="136" t="s">
+      <c r="C13" s="144" t="s">
         <v>879</v>
       </c>
       <c r="D13" s="103" t="s">
         <v>883</v>
       </c>
-      <c r="E13" s="139" t="s">
+      <c r="E13" s="131" t="s">
         <v>911</v>
       </c>
-      <c r="F13" s="140"/>
+      <c r="F13" s="132"/>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="127"/>
-      <c r="B14" s="127"/>
-      <c r="C14" s="137"/>
+      <c r="A14" s="143"/>
+      <c r="B14" s="143"/>
+      <c r="C14" s="145"/>
       <c r="D14" s="104" t="s">
         <v>874</v>
       </c>
-      <c r="E14" s="141"/>
-      <c r="F14" s="142"/>
+      <c r="E14" s="133"/>
+      <c r="F14" s="134"/>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="127"/>
-      <c r="B15" s="127"/>
-      <c r="C15" s="137"/>
+      <c r="A15" s="143"/>
+      <c r="B15" s="143"/>
+      <c r="C15" s="145"/>
       <c r="D15" s="104" t="s">
         <v>875</v>
       </c>
-      <c r="E15" s="141"/>
-      <c r="F15" s="142"/>
+      <c r="E15" s="133"/>
+      <c r="F15" s="134"/>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="127"/>
-      <c r="B16" s="127"/>
-      <c r="C16" s="138"/>
+      <c r="A16" s="143"/>
+      <c r="B16" s="143"/>
+      <c r="C16" s="146"/>
       <c r="D16" s="104" t="s">
         <v>876</v>
       </c>
-      <c r="E16" s="143"/>
-      <c r="F16" s="144"/>
+      <c r="E16" s="135"/>
+      <c r="F16" s="136"/>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="127" t="s">
+      <c r="A17" s="143" t="s">
         <v>881</v>
       </c>
-      <c r="B17" s="127" t="s">
+      <c r="B17" s="143" t="s">
         <v>877</v>
       </c>
-      <c r="C17" s="136" t="s">
+      <c r="C17" s="144" t="s">
         <v>879</v>
       </c>
       <c r="D17" s="103" t="s">
         <v>883</v>
       </c>
-      <c r="E17" s="128" t="s">
+      <c r="E17" s="137" t="s">
         <v>912</v>
       </c>
-      <c r="F17" s="129"/>
+      <c r="F17" s="138"/>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="127"/>
-      <c r="B18" s="127"/>
-      <c r="C18" s="137"/>
+      <c r="A18" s="143"/>
+      <c r="B18" s="143"/>
+      <c r="C18" s="145"/>
       <c r="D18" s="104" t="s">
         <v>874</v>
       </c>
-      <c r="E18" s="134"/>
-      <c r="F18" s="135"/>
+      <c r="E18" s="139"/>
+      <c r="F18" s="140"/>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="127"/>
-      <c r="B19" s="127"/>
-      <c r="C19" s="137"/>
+      <c r="A19" s="143"/>
+      <c r="B19" s="143"/>
+      <c r="C19" s="145"/>
       <c r="D19" s="104" t="s">
         <v>875</v>
       </c>
-      <c r="E19" s="134"/>
-      <c r="F19" s="135"/>
+      <c r="E19" s="139"/>
+      <c r="F19" s="140"/>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="127"/>
-      <c r="B20" s="127"/>
-      <c r="C20" s="138"/>
+      <c r="A20" s="143"/>
+      <c r="B20" s="143"/>
+      <c r="C20" s="146"/>
       <c r="D20" s="104" t="s">
         <v>876</v>
       </c>
-      <c r="E20" s="130"/>
-      <c r="F20" s="131"/>
+      <c r="E20" s="141"/>
+      <c r="F20" s="142"/>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="122" t="s">
+      <c r="A21" s="128" t="s">
         <v>874</v>
       </c>
-      <c r="B21" s="122" t="s">
+      <c r="B21" s="128" t="s">
         <v>878</v>
       </c>
       <c r="C21" s="103" t="s">
         <v>879</v>
       </c>
-      <c r="D21" s="122" t="s">
+      <c r="D21" s="128" t="s">
         <v>883</v>
       </c>
-      <c r="E21" s="128" t="s">
+      <c r="E21" s="137" t="s">
         <v>908</v>
       </c>
-      <c r="F21" s="129"/>
+      <c r="F21" s="138"/>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="124"/>
-      <c r="B22" s="124"/>
+      <c r="A22" s="129"/>
+      <c r="B22" s="129"/>
       <c r="C22" s="103" t="s">
         <v>880</v>
       </c>
-      <c r="D22" s="124"/>
-      <c r="E22" s="134"/>
-      <c r="F22" s="135"/>
+      <c r="D22" s="129"/>
+      <c r="E22" s="139"/>
+      <c r="F22" s="140"/>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="123"/>
-      <c r="B23" s="123"/>
+      <c r="A23" s="130"/>
+      <c r="B23" s="130"/>
       <c r="C23" s="103" t="s">
         <v>882</v>
       </c>
-      <c r="D23" s="123"/>
-      <c r="E23" s="130"/>
-      <c r="F23" s="131"/>
+      <c r="D23" s="130"/>
+      <c r="E23" s="141"/>
+      <c r="F23" s="142"/>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" s="122" t="s">
+      <c r="A24" s="128" t="s">
         <v>875</v>
       </c>
-      <c r="B24" s="122" t="s">
+      <c r="B24" s="128" t="s">
         <v>878</v>
       </c>
       <c r="C24" s="103" t="s">
         <v>879</v>
       </c>
-      <c r="D24" s="122" t="s">
+      <c r="D24" s="128" t="s">
         <v>883</v>
       </c>
-      <c r="E24" s="128" t="s">
+      <c r="E24" s="137" t="s">
         <v>907</v>
       </c>
-      <c r="F24" s="129"/>
+      <c r="F24" s="138"/>
     </row>
     <row r="25" spans="1:6">
-      <c r="A25" s="124"/>
-      <c r="B25" s="124"/>
+      <c r="A25" s="129"/>
+      <c r="B25" s="129"/>
       <c r="C25" s="103" t="s">
         <v>880</v>
       </c>
-      <c r="D25" s="124"/>
-      <c r="E25" s="134"/>
-      <c r="F25" s="135"/>
+      <c r="D25" s="129"/>
+      <c r="E25" s="139"/>
+      <c r="F25" s="140"/>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" s="123"/>
-      <c r="B26" s="123"/>
+      <c r="A26" s="130"/>
+      <c r="B26" s="130"/>
       <c r="C26" s="103" t="s">
         <v>882</v>
       </c>
-      <c r="D26" s="123"/>
-      <c r="E26" s="130"/>
-      <c r="F26" s="131"/>
+      <c r="D26" s="130"/>
+      <c r="E26" s="141"/>
+      <c r="F26" s="142"/>
     </row>
     <row r="27" spans="1:6">
-      <c r="A27" s="122" t="s">
+      <c r="A27" s="128" t="s">
         <v>876</v>
       </c>
-      <c r="B27" s="122" t="s">
+      <c r="B27" s="128" t="s">
         <v>878</v>
       </c>
       <c r="C27" s="103" t="s">
         <v>879</v>
       </c>
-      <c r="D27" s="122" t="s">
+      <c r="D27" s="128" t="s">
         <v>883</v>
       </c>
-      <c r="E27" s="128" t="s">
+      <c r="E27" s="137" t="s">
         <v>909</v>
       </c>
-      <c r="F27" s="129"/>
+      <c r="F27" s="138"/>
     </row>
     <row r="28" spans="1:6">
-      <c r="A28" s="124"/>
-      <c r="B28" s="124"/>
+      <c r="A28" s="129"/>
+      <c r="B28" s="129"/>
       <c r="C28" s="103" t="s">
         <v>880</v>
       </c>
-      <c r="D28" s="124"/>
-      <c r="E28" s="134"/>
-      <c r="F28" s="135"/>
+      <c r="D28" s="129"/>
+      <c r="E28" s="139"/>
+      <c r="F28" s="140"/>
     </row>
     <row r="29" spans="1:6">
-      <c r="A29" s="123"/>
-      <c r="B29" s="123"/>
+      <c r="A29" s="130"/>
+      <c r="B29" s="130"/>
       <c r="C29" s="103" t="s">
         <v>882</v>
       </c>
-      <c r="D29" s="123"/>
-      <c r="E29" s="130"/>
-      <c r="F29" s="131"/>
+      <c r="D29" s="130"/>
+      <c r="E29" s="141"/>
+      <c r="F29" s="142"/>
     </row>
     <row r="30" spans="1:6">
-      <c r="A30" s="122" t="s">
+      <c r="A30" s="128" t="s">
         <v>916</v>
       </c>
-      <c r="B30" s="122" t="s">
+      <c r="B30" s="128" t="s">
         <v>877</v>
       </c>
       <c r="C30" s="104" t="s">
         <v>917</v>
       </c>
-      <c r="D30" s="122" t="s">
+      <c r="D30" s="128" t="s">
         <v>891</v>
       </c>
-      <c r="E30" s="128" t="s">
+      <c r="E30" s="137" t="s">
         <v>910</v>
       </c>
-      <c r="F30" s="129"/>
+      <c r="F30" s="138"/>
     </row>
     <row r="31" spans="1:6">
-      <c r="A31" s="123"/>
-      <c r="B31" s="123"/>
+      <c r="A31" s="130"/>
+      <c r="B31" s="130"/>
       <c r="C31" s="104" t="s">
         <v>915</v>
       </c>
-      <c r="D31" s="123"/>
-      <c r="E31" s="130"/>
-      <c r="F31" s="131"/>
+      <c r="D31" s="130"/>
+      <c r="E31" s="141"/>
+      <c r="F31" s="142"/>
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="104" t="s">
@@ -10466,10 +10480,10 @@
       <c r="D32" s="104" t="s">
         <v>891</v>
       </c>
-      <c r="E32" s="132" t="s">
+      <c r="E32" s="147" t="s">
         <v>910</v>
       </c>
-      <c r="F32" s="133"/>
+      <c r="F32" s="148"/>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="104" t="s">
@@ -10482,55 +10496,71 @@
       <c r="D33" s="104" t="s">
         <v>891</v>
       </c>
-      <c r="E33" s="132" t="s">
+      <c r="E33" s="147" t="s">
         <v>910</v>
       </c>
-      <c r="F33" s="133"/>
+      <c r="F33" s="148"/>
     </row>
     <row r="34" spans="1:6">
-      <c r="A34" s="122" t="s">
+      <c r="A34" s="128" t="s">
         <v>891</v>
       </c>
-      <c r="B34" s="122" t="s">
+      <c r="B34" s="128" t="s">
         <v>878</v>
       </c>
       <c r="C34" s="104" t="s">
         <v>916</v>
       </c>
-      <c r="D34" s="122"/>
-      <c r="E34" s="128" t="s">
+      <c r="D34" s="128"/>
+      <c r="E34" s="137" t="s">
         <v>918</v>
       </c>
-      <c r="F34" s="129"/>
+      <c r="F34" s="138"/>
     </row>
     <row r="35" spans="1:6">
-      <c r="A35" s="124"/>
-      <c r="B35" s="124"/>
+      <c r="A35" s="129"/>
+      <c r="B35" s="129"/>
       <c r="C35" s="104" t="s">
         <v>917</v>
       </c>
-      <c r="D35" s="124"/>
-      <c r="E35" s="134"/>
-      <c r="F35" s="135"/>
+      <c r="D35" s="129"/>
+      <c r="E35" s="139"/>
+      <c r="F35" s="140"/>
     </row>
     <row r="36" spans="1:6">
-      <c r="A36" s="123"/>
-      <c r="B36" s="123"/>
+      <c r="A36" s="130"/>
+      <c r="B36" s="130"/>
       <c r="C36" s="104" t="s">
         <v>915</v>
       </c>
-      <c r="D36" s="123"/>
-      <c r="E36" s="130"/>
-      <c r="F36" s="131"/>
+      <c r="D36" s="130"/>
+      <c r="E36" s="141"/>
+      <c r="F36" s="142"/>
     </row>
   </sheetData>
   <mergeCells count="44">
-    <mergeCell ref="D27:D29"/>
-    <mergeCell ref="E13:F16"/>
-    <mergeCell ref="E17:F20"/>
-    <mergeCell ref="E21:F23"/>
-    <mergeCell ref="E24:F26"/>
-    <mergeCell ref="E27:F29"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="A34:A36"/>
+    <mergeCell ref="B34:B36"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="D7:D9"/>
+    <mergeCell ref="E7:F9"/>
+    <mergeCell ref="A13:A16"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="D34:D36"/>
+    <mergeCell ref="E30:F31"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="E34:F36"/>
     <mergeCell ref="B10:B12"/>
     <mergeCell ref="C10:C12"/>
     <mergeCell ref="E10:F12"/>
@@ -10547,28 +10577,12 @@
     <mergeCell ref="A24:A26"/>
     <mergeCell ref="D21:D23"/>
     <mergeCell ref="D24:D26"/>
-    <mergeCell ref="D30:D31"/>
-    <mergeCell ref="D34:D36"/>
-    <mergeCell ref="E30:F31"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="E34:F36"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="A34:A36"/>
-    <mergeCell ref="B34:B36"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="B5:F5"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="D7:D9"/>
-    <mergeCell ref="E7:F9"/>
-    <mergeCell ref="A13:A16"/>
-    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="D27:D29"/>
+    <mergeCell ref="E13:F16"/>
+    <mergeCell ref="E17:F20"/>
+    <mergeCell ref="E21:F23"/>
+    <mergeCell ref="E24:F26"/>
+    <mergeCell ref="E27:F29"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'Tabla de Contenido'!A1" display="Tabla de Contenido" xr:uid="{32414F91-C2A5-47DD-93EA-9C2CBC6A25AC}"/>
@@ -11542,914 +11556,914 @@
       </c>
     </row>
     <row r="3" spans="1:5" ht="30" customHeight="1">
-      <c r="A3" s="145">
+      <c r="A3" s="151">
         <v>1</v>
       </c>
-      <c r="B3" s="145" t="s">
+      <c r="B3" s="151" t="s">
         <v>471</v>
       </c>
       <c r="C3" s="73" t="s">
         <v>472</v>
       </c>
-      <c r="D3" s="145" t="s">
+      <c r="D3" s="151" t="s">
         <v>474</v>
       </c>
-      <c r="E3" s="145" t="s">
+      <c r="E3" s="151" t="s">
         <v>475</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="30">
-      <c r="A4" s="145"/>
-      <c r="B4" s="145"/>
+      <c r="A4" s="151"/>
+      <c r="B4" s="151"/>
       <c r="C4" s="73" t="s">
         <v>473</v>
       </c>
-      <c r="D4" s="145"/>
-      <c r="E4" s="145"/>
+      <c r="D4" s="151"/>
+      <c r="E4" s="151"/>
     </row>
     <row r="5" spans="1:5" ht="30" customHeight="1">
-      <c r="A5" s="145">
+      <c r="A5" s="151">
         <v>2</v>
       </c>
-      <c r="B5" s="145" t="s">
+      <c r="B5" s="151" t="s">
         <v>476</v>
       </c>
       <c r="C5" s="73" t="s">
         <v>477</v>
       </c>
-      <c r="D5" s="145" t="s">
+      <c r="D5" s="151" t="s">
         <v>474</v>
       </c>
-      <c r="E5" s="145" t="s">
+      <c r="E5" s="151" t="s">
         <v>475</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="30">
-      <c r="A6" s="145"/>
-      <c r="B6" s="145"/>
+      <c r="A6" s="151"/>
+      <c r="B6" s="151"/>
       <c r="C6" s="73" t="s">
         <v>478</v>
       </c>
-      <c r="D6" s="145"/>
-      <c r="E6" s="145"/>
+      <c r="D6" s="151"/>
+      <c r="E6" s="151"/>
     </row>
     <row r="7" spans="1:5" ht="30" customHeight="1">
-      <c r="A7" s="145">
+      <c r="A7" s="151">
         <v>3</v>
       </c>
-      <c r="B7" s="145" t="s">
+      <c r="B7" s="151" t="s">
         <v>532</v>
       </c>
       <c r="C7" s="73" t="s">
         <v>479</v>
       </c>
-      <c r="D7" s="145" t="s">
+      <c r="D7" s="151" t="s">
         <v>474</v>
       </c>
-      <c r="E7" s="145" t="s">
+      <c r="E7" s="151" t="s">
         <v>475</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="30">
-      <c r="A8" s="145"/>
-      <c r="B8" s="145"/>
+      <c r="A8" s="151"/>
+      <c r="B8" s="151"/>
       <c r="C8" s="73" t="s">
         <v>480</v>
       </c>
-      <c r="D8" s="145"/>
-      <c r="E8" s="145"/>
+      <c r="D8" s="151"/>
+      <c r="E8" s="151"/>
     </row>
     <row r="9" spans="1:5" ht="60" customHeight="1">
-      <c r="A9" s="145">
+      <c r="A9" s="151">
         <v>4</v>
       </c>
-      <c r="B9" s="145" t="s">
+      <c r="B9" s="151" t="s">
         <v>481</v>
       </c>
       <c r="C9" s="73" t="s">
         <v>482</v>
       </c>
-      <c r="D9" s="145" t="s">
+      <c r="D9" s="151" t="s">
         <v>484</v>
       </c>
-      <c r="E9" s="145" t="s">
+      <c r="E9" s="151" t="s">
         <v>475</v>
       </c>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="145"/>
-      <c r="B10" s="145"/>
+      <c r="A10" s="151"/>
+      <c r="B10" s="151"/>
       <c r="C10" s="73" t="s">
         <v>483</v>
       </c>
-      <c r="D10" s="145"/>
-      <c r="E10" s="145"/>
+      <c r="D10" s="151"/>
+      <c r="E10" s="151"/>
     </row>
     <row r="11" spans="1:5" ht="45" customHeight="1">
-      <c r="A11" s="145">
+      <c r="A11" s="151">
         <v>5</v>
       </c>
-      <c r="B11" s="145" t="s">
+      <c r="B11" s="151" t="s">
         <v>538</v>
       </c>
       <c r="C11" s="73" t="s">
         <v>485</v>
       </c>
-      <c r="D11" s="145" t="s">
+      <c r="D11" s="151" t="s">
         <v>474</v>
       </c>
-      <c r="E11" s="145" t="s">
+      <c r="E11" s="151" t="s">
         <v>475</v>
       </c>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="145"/>
-      <c r="B12" s="145"/>
+      <c r="A12" s="151"/>
+      <c r="B12" s="151"/>
       <c r="C12" s="73" t="s">
         <v>486</v>
       </c>
-      <c r="D12" s="145"/>
-      <c r="E12" s="145"/>
+      <c r="D12" s="151"/>
+      <c r="E12" s="151"/>
     </row>
     <row r="13" spans="1:5" ht="30" customHeight="1">
-      <c r="A13" s="145">
+      <c r="A13" s="151">
         <v>6</v>
       </c>
-      <c r="B13" s="145" t="s">
+      <c r="B13" s="151" t="s">
         <v>487</v>
       </c>
       <c r="C13" s="73" t="s">
         <v>488</v>
       </c>
-      <c r="D13" s="145" t="s">
+      <c r="D13" s="151" t="s">
         <v>474</v>
       </c>
-      <c r="E13" s="145" t="s">
+      <c r="E13" s="151" t="s">
         <v>475</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="30">
-      <c r="A14" s="145"/>
-      <c r="B14" s="145"/>
+      <c r="A14" s="151"/>
+      <c r="B14" s="151"/>
       <c r="C14" s="73" t="s">
         <v>489</v>
       </c>
-      <c r="D14" s="145"/>
-      <c r="E14" s="145"/>
+      <c r="D14" s="151"/>
+      <c r="E14" s="151"/>
     </row>
     <row r="15" spans="1:5" ht="45" customHeight="1">
-      <c r="A15" s="145">
+      <c r="A15" s="151">
         <v>7</v>
       </c>
-      <c r="B15" s="145" t="s">
+      <c r="B15" s="151" t="s">
         <v>490</v>
       </c>
       <c r="C15" s="73" t="s">
         <v>491</v>
       </c>
-      <c r="D15" s="145" t="s">
+      <c r="D15" s="151" t="s">
         <v>474</v>
       </c>
-      <c r="E15" s="145" t="s">
+      <c r="E15" s="151" t="s">
         <v>475</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="30">
-      <c r="A16" s="145"/>
-      <c r="B16" s="145"/>
+      <c r="A16" s="151"/>
+      <c r="B16" s="151"/>
       <c r="C16" s="73" t="s">
         <v>492</v>
       </c>
-      <c r="D16" s="145"/>
-      <c r="E16" s="145"/>
+      <c r="D16" s="151"/>
+      <c r="E16" s="151"/>
     </row>
     <row r="17" spans="1:5" ht="45" customHeight="1">
-      <c r="A17" s="145">
+      <c r="A17" s="151">
         <v>8</v>
       </c>
-      <c r="B17" s="145" t="s">
+      <c r="B17" s="151" t="s">
         <v>493</v>
       </c>
       <c r="C17" s="73" t="s">
         <v>494</v>
       </c>
-      <c r="D17" s="145" t="s">
+      <c r="D17" s="151" t="s">
         <v>474</v>
       </c>
-      <c r="E17" s="145" t="s">
+      <c r="E17" s="151" t="s">
         <v>475</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="30">
-      <c r="A18" s="145"/>
-      <c r="B18" s="145"/>
+      <c r="A18" s="151"/>
+      <c r="B18" s="151"/>
       <c r="C18" s="73" t="s">
         <v>495</v>
       </c>
-      <c r="D18" s="145"/>
-      <c r="E18" s="145"/>
+      <c r="D18" s="151"/>
+      <c r="E18" s="151"/>
     </row>
     <row r="19" spans="1:5" ht="30" customHeight="1">
-      <c r="A19" s="145">
+      <c r="A19" s="151">
         <v>9</v>
       </c>
-      <c r="B19" s="145" t="s">
+      <c r="B19" s="151" t="s">
         <v>496</v>
       </c>
       <c r="C19" s="73" t="s">
         <v>497</v>
       </c>
-      <c r="D19" s="145" t="s">
+      <c r="D19" s="151" t="s">
         <v>474</v>
       </c>
-      <c r="E19" s="145" t="s">
+      <c r="E19" s="151" t="s">
         <v>475</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="30">
-      <c r="A20" s="145"/>
-      <c r="B20" s="145"/>
+      <c r="A20" s="151"/>
+      <c r="B20" s="151"/>
       <c r="C20" s="73" t="s">
         <v>498</v>
       </c>
-      <c r="D20" s="145"/>
-      <c r="E20" s="145"/>
+      <c r="D20" s="151"/>
+      <c r="E20" s="151"/>
     </row>
     <row r="21" spans="1:5" ht="30" customHeight="1">
-      <c r="A21" s="145">
+      <c r="A21" s="151">
         <v>10</v>
       </c>
-      <c r="B21" s="145" t="s">
+      <c r="B21" s="151" t="s">
         <v>499</v>
       </c>
       <c r="C21" s="73" t="s">
         <v>500</v>
       </c>
-      <c r="D21" s="145" t="s">
+      <c r="D21" s="151" t="s">
         <v>484</v>
       </c>
-      <c r="E21" s="145" t="s">
+      <c r="E21" s="151" t="s">
         <v>475</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="30">
-      <c r="A22" s="145"/>
-      <c r="B22" s="145"/>
+      <c r="A22" s="151"/>
+      <c r="B22" s="151"/>
       <c r="C22" s="73" t="s">
         <v>501</v>
       </c>
-      <c r="D22" s="145"/>
-      <c r="E22" s="145"/>
+      <c r="D22" s="151"/>
+      <c r="E22" s="151"/>
     </row>
     <row r="23" spans="1:5" ht="30" customHeight="1">
-      <c r="A23" s="145">
+      <c r="A23" s="151">
         <v>11</v>
       </c>
-      <c r="B23" s="145" t="s">
+      <c r="B23" s="151" t="s">
         <v>502</v>
       </c>
       <c r="C23" s="73" t="s">
         <v>503</v>
       </c>
-      <c r="D23" s="145" t="s">
+      <c r="D23" s="151" t="s">
         <v>474</v>
       </c>
-      <c r="E23" s="145" t="s">
+      <c r="E23" s="151" t="s">
         <v>475</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="30">
-      <c r="A24" s="145"/>
-      <c r="B24" s="145"/>
+      <c r="A24" s="151"/>
+      <c r="B24" s="151"/>
       <c r="C24" s="73" t="s">
         <v>504</v>
       </c>
-      <c r="D24" s="145"/>
-      <c r="E24" s="145"/>
+      <c r="D24" s="151"/>
+      <c r="E24" s="151"/>
     </row>
     <row r="25" spans="1:5" ht="30" customHeight="1">
-      <c r="A25" s="145">
+      <c r="A25" s="151">
         <v>12</v>
       </c>
-      <c r="B25" s="145" t="s">
+      <c r="B25" s="151" t="s">
         <v>505</v>
       </c>
       <c r="C25" s="73" t="s">
         <v>506</v>
       </c>
-      <c r="D25" s="145" t="s">
+      <c r="D25" s="151" t="s">
         <v>484</v>
       </c>
-      <c r="E25" s="145" t="s">
+      <c r="E25" s="151" t="s">
         <v>475</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="30">
-      <c r="A26" s="145"/>
-      <c r="B26" s="145"/>
+      <c r="A26" s="151"/>
+      <c r="B26" s="151"/>
       <c r="C26" s="73" t="s">
         <v>507</v>
       </c>
-      <c r="D26" s="145"/>
-      <c r="E26" s="145"/>
+      <c r="D26" s="151"/>
+      <c r="E26" s="151"/>
     </row>
     <row r="27" spans="1:5" ht="45" customHeight="1">
-      <c r="A27" s="145">
+      <c r="A27" s="151">
         <v>13</v>
       </c>
-      <c r="B27" s="145" t="s">
+      <c r="B27" s="151" t="s">
         <v>508</v>
       </c>
       <c r="C27" s="73" t="s">
         <v>509</v>
       </c>
-      <c r="D27" s="145" t="s">
+      <c r="D27" s="151" t="s">
         <v>474</v>
       </c>
-      <c r="E27" s="145" t="s">
+      <c r="E27" s="151" t="s">
         <v>475</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="30">
-      <c r="A28" s="145"/>
-      <c r="B28" s="145"/>
+      <c r="A28" s="151"/>
+      <c r="B28" s="151"/>
       <c r="C28" s="73" t="s">
         <v>510</v>
       </c>
-      <c r="D28" s="145"/>
-      <c r="E28" s="145"/>
+      <c r="D28" s="151"/>
+      <c r="E28" s="151"/>
     </row>
     <row r="29" spans="1:5" ht="45" customHeight="1">
-      <c r="A29" s="145">
+      <c r="A29" s="151">
         <v>14</v>
       </c>
-      <c r="B29" s="145" t="s">
+      <c r="B29" s="151" t="s">
         <v>511</v>
       </c>
       <c r="C29" s="73" t="s">
         <v>512</v>
       </c>
-      <c r="D29" s="145" t="s">
+      <c r="D29" s="151" t="s">
         <v>484</v>
       </c>
-      <c r="E29" s="145" t="s">
+      <c r="E29" s="151" t="s">
         <v>475</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="30">
-      <c r="A30" s="145"/>
-      <c r="B30" s="145"/>
+      <c r="A30" s="151"/>
+      <c r="B30" s="151"/>
       <c r="C30" s="73" t="s">
         <v>513</v>
       </c>
-      <c r="D30" s="145"/>
-      <c r="E30" s="145"/>
+      <c r="D30" s="151"/>
+      <c r="E30" s="151"/>
     </row>
     <row r="31" spans="1:5" ht="45" customHeight="1">
-      <c r="A31" s="145">
+      <c r="A31" s="151">
         <v>15</v>
       </c>
-      <c r="B31" s="145" t="s">
+      <c r="B31" s="151" t="s">
         <v>514</v>
       </c>
       <c r="C31" s="73" t="s">
         <v>515</v>
       </c>
-      <c r="D31" s="145" t="s">
+      <c r="D31" s="151" t="s">
         <v>474</v>
       </c>
-      <c r="E31" s="145" t="s">
+      <c r="E31" s="151" t="s">
         <v>475</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="30">
-      <c r="A32" s="145"/>
-      <c r="B32" s="145"/>
+      <c r="A32" s="151"/>
+      <c r="B32" s="151"/>
       <c r="C32" s="73" t="s">
         <v>516</v>
       </c>
-      <c r="D32" s="145"/>
-      <c r="E32" s="145"/>
+      <c r="D32" s="151"/>
+      <c r="E32" s="151"/>
     </row>
     <row r="33" spans="1:5" ht="45" customHeight="1">
-      <c r="A33" s="145">
+      <c r="A33" s="151">
         <v>16</v>
       </c>
-      <c r="B33" s="145" t="s">
+      <c r="B33" s="151" t="s">
         <v>517</v>
       </c>
       <c r="C33" s="73" t="s">
         <v>518</v>
       </c>
-      <c r="D33" s="145" t="s">
+      <c r="D33" s="151" t="s">
         <v>474</v>
       </c>
-      <c r="E33" s="145" t="s">
+      <c r="E33" s="151" t="s">
         <v>475</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="30">
-      <c r="A34" s="145"/>
-      <c r="B34" s="145"/>
+      <c r="A34" s="151"/>
+      <c r="B34" s="151"/>
       <c r="C34" s="73" t="s">
         <v>519</v>
       </c>
-      <c r="D34" s="145"/>
-      <c r="E34" s="145"/>
+      <c r="D34" s="151"/>
+      <c r="E34" s="151"/>
     </row>
     <row r="35" spans="1:5" ht="30" customHeight="1">
-      <c r="A35" s="145">
+      <c r="A35" s="151">
         <v>17</v>
       </c>
-      <c r="B35" s="145" t="s">
+      <c r="B35" s="151" t="s">
         <v>520</v>
       </c>
       <c r="C35" s="73" t="s">
         <v>521</v>
       </c>
-      <c r="D35" s="145" t="s">
+      <c r="D35" s="151" t="s">
         <v>474</v>
       </c>
-      <c r="E35" s="145" t="s">
+      <c r="E35" s="151" t="s">
         <v>475</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="30">
-      <c r="A36" s="145"/>
-      <c r="B36" s="145"/>
+      <c r="A36" s="151"/>
+      <c r="B36" s="151"/>
       <c r="C36" s="73" t="s">
         <v>522</v>
       </c>
-      <c r="D36" s="145"/>
-      <c r="E36" s="145"/>
+      <c r="D36" s="151"/>
+      <c r="E36" s="151"/>
     </row>
     <row r="37" spans="1:5" ht="30" customHeight="1">
-      <c r="A37" s="145">
+      <c r="A37" s="151">
         <v>18</v>
       </c>
-      <c r="B37" s="145" t="s">
+      <c r="B37" s="151" t="s">
         <v>523</v>
       </c>
       <c r="C37" s="73" t="s">
         <v>524</v>
       </c>
-      <c r="D37" s="145" t="s">
+      <c r="D37" s="151" t="s">
         <v>484</v>
       </c>
-      <c r="E37" s="145" t="s">
+      <c r="E37" s="151" t="s">
         <v>475</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="30">
-      <c r="A38" s="145"/>
-      <c r="B38" s="145"/>
+      <c r="A38" s="151"/>
+      <c r="B38" s="151"/>
       <c r="C38" s="73" t="s">
         <v>525</v>
       </c>
-      <c r="D38" s="145"/>
-      <c r="E38" s="145"/>
+      <c r="D38" s="151"/>
+      <c r="E38" s="151"/>
     </row>
     <row r="39" spans="1:5" ht="45" customHeight="1">
-      <c r="A39" s="145">
+      <c r="A39" s="151">
         <v>19</v>
       </c>
-      <c r="B39" s="145" t="s">
+      <c r="B39" s="151" t="s">
         <v>526</v>
       </c>
       <c r="C39" s="73" t="s">
         <v>527</v>
       </c>
-      <c r="D39" s="145" t="s">
+      <c r="D39" s="151" t="s">
         <v>474</v>
       </c>
-      <c r="E39" s="145" t="s">
+      <c r="E39" s="151" t="s">
         <v>475</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="45">
-      <c r="A40" s="145"/>
-      <c r="B40" s="145"/>
+      <c r="A40" s="151"/>
+      <c r="B40" s="151"/>
       <c r="C40" s="73" t="s">
         <v>528</v>
       </c>
-      <c r="D40" s="145"/>
-      <c r="E40" s="145"/>
+      <c r="D40" s="151"/>
+      <c r="E40" s="151"/>
     </row>
     <row r="41" spans="1:5" ht="45" customHeight="1">
-      <c r="A41" s="145">
+      <c r="A41" s="151">
         <v>20</v>
       </c>
-      <c r="B41" s="145" t="s">
+      <c r="B41" s="151" t="s">
         <v>529</v>
       </c>
       <c r="C41" s="73" t="s">
         <v>530</v>
       </c>
-      <c r="D41" s="145" t="s">
+      <c r="D41" s="151" t="s">
         <v>474</v>
       </c>
-      <c r="E41" s="145" t="s">
+      <c r="E41" s="151" t="s">
         <v>475</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="30">
-      <c r="A42" s="145"/>
-      <c r="B42" s="145"/>
+      <c r="A42" s="151"/>
+      <c r="B42" s="151"/>
       <c r="C42" s="73" t="s">
         <v>531</v>
       </c>
-      <c r="D42" s="145"/>
-      <c r="E42" s="145"/>
+      <c r="D42" s="151"/>
+      <c r="E42" s="151"/>
     </row>
     <row r="43" spans="1:5" ht="45" customHeight="1">
-      <c r="A43" s="145">
+      <c r="A43" s="151">
         <v>21</v>
       </c>
-      <c r="B43" s="145" t="s">
+      <c r="B43" s="151" t="s">
         <v>546</v>
       </c>
       <c r="C43" s="73" t="s">
         <v>547</v>
       </c>
-      <c r="D43" s="145" t="s">
+      <c r="D43" s="151" t="s">
         <v>484</v>
       </c>
-      <c r="E43" s="145" t="s">
+      <c r="E43" s="151" t="s">
         <v>475</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="30" customHeight="1">
-      <c r="A44" s="145"/>
-      <c r="B44" s="145"/>
+      <c r="A44" s="151"/>
+      <c r="B44" s="151"/>
       <c r="C44" s="73" t="s">
         <v>548</v>
       </c>
-      <c r="D44" s="145"/>
-      <c r="E44" s="145"/>
+      <c r="D44" s="151"/>
+      <c r="E44" s="151"/>
     </row>
     <row r="45" spans="1:5" ht="30" customHeight="1">
-      <c r="A45" s="145">
+      <c r="A45" s="151">
         <v>22</v>
       </c>
-      <c r="B45" s="145" t="s">
+      <c r="B45" s="151" t="s">
         <v>549</v>
       </c>
       <c r="C45" s="73" t="s">
         <v>550</v>
       </c>
-      <c r="D45" s="145" t="s">
+      <c r="D45" s="151" t="s">
         <v>484</v>
       </c>
-      <c r="E45" s="145" t="s">
+      <c r="E45" s="151" t="s">
         <v>475</v>
       </c>
     </row>
     <row r="46" spans="1:5" ht="30" customHeight="1">
-      <c r="A46" s="145"/>
-      <c r="B46" s="145"/>
+      <c r="A46" s="151"/>
+      <c r="B46" s="151"/>
       <c r="C46" s="73" t="s">
         <v>551</v>
       </c>
-      <c r="D46" s="145"/>
-      <c r="E46" s="145"/>
+      <c r="D46" s="151"/>
+      <c r="E46" s="151"/>
     </row>
     <row r="47" spans="1:5" ht="45" customHeight="1">
-      <c r="A47" s="145">
+      <c r="A47" s="151">
         <v>23</v>
       </c>
-      <c r="B47" s="145" t="s">
+      <c r="B47" s="151" t="s">
         <v>552</v>
       </c>
       <c r="C47" s="73" t="s">
         <v>553</v>
       </c>
-      <c r="D47" s="145" t="s">
+      <c r="D47" s="151" t="s">
         <v>474</v>
       </c>
-      <c r="E47" s="145" t="s">
+      <c r="E47" s="151" t="s">
         <v>475</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="30" customHeight="1">
-      <c r="A48" s="145"/>
-      <c r="B48" s="145"/>
+      <c r="A48" s="151"/>
+      <c r="B48" s="151"/>
       <c r="C48" s="73" t="s">
         <v>554</v>
       </c>
-      <c r="D48" s="145"/>
-      <c r="E48" s="145"/>
+      <c r="D48" s="151"/>
+      <c r="E48" s="151"/>
     </row>
     <row r="49" spans="1:5" ht="45" customHeight="1">
-      <c r="A49" s="145">
+      <c r="A49" s="151">
         <v>24</v>
       </c>
-      <c r="B49" s="145" t="s">
+      <c r="B49" s="151" t="s">
         <v>555</v>
       </c>
       <c r="C49" s="73" t="s">
         <v>556</v>
       </c>
-      <c r="D49" s="145" t="s">
+      <c r="D49" s="151" t="s">
         <v>474</v>
       </c>
-      <c r="E49" s="145" t="s">
+      <c r="E49" s="151" t="s">
         <v>475</v>
       </c>
     </row>
     <row r="50" spans="1:5" ht="30" customHeight="1">
-      <c r="A50" s="145"/>
-      <c r="B50" s="145"/>
+      <c r="A50" s="151"/>
+      <c r="B50" s="151"/>
       <c r="C50" s="73" t="s">
         <v>557</v>
       </c>
-      <c r="D50" s="145"/>
-      <c r="E50" s="145"/>
+      <c r="D50" s="151"/>
+      <c r="E50" s="151"/>
     </row>
     <row r="51" spans="1:5" ht="45" customHeight="1">
-      <c r="A51" s="145">
+      <c r="A51" s="151">
         <v>25</v>
       </c>
-      <c r="B51" s="145" t="s">
+      <c r="B51" s="151" t="s">
         <v>558</v>
       </c>
       <c r="C51" s="73" t="s">
         <v>559</v>
       </c>
-      <c r="D51" s="145" t="s">
+      <c r="D51" s="151" t="s">
         <v>474</v>
       </c>
-      <c r="E51" s="145" t="s">
+      <c r="E51" s="151" t="s">
         <v>475</v>
       </c>
     </row>
     <row r="52" spans="1:5" ht="30" customHeight="1">
-      <c r="A52" s="145"/>
-      <c r="B52" s="145"/>
+      <c r="A52" s="151"/>
+      <c r="B52" s="151"/>
       <c r="C52" s="73" t="s">
         <v>560</v>
       </c>
-      <c r="D52" s="145"/>
-      <c r="E52" s="145"/>
+      <c r="D52" s="151"/>
+      <c r="E52" s="151"/>
     </row>
     <row r="53" spans="1:5" ht="30" customHeight="1">
-      <c r="A53" s="145">
+      <c r="A53" s="151">
         <v>26</v>
       </c>
-      <c r="B53" s="145" t="s">
+      <c r="B53" s="151" t="s">
         <v>561</v>
       </c>
       <c r="C53" s="73" t="s">
         <v>562</v>
       </c>
-      <c r="D53" s="145" t="s">
+      <c r="D53" s="151" t="s">
         <v>474</v>
       </c>
-      <c r="E53" s="145" t="s">
+      <c r="E53" s="151" t="s">
         <v>475</v>
       </c>
     </row>
     <row r="54" spans="1:5" ht="30" customHeight="1">
-      <c r="A54" s="145"/>
-      <c r="B54" s="145"/>
+      <c r="A54" s="151"/>
+      <c r="B54" s="151"/>
       <c r="C54" s="73" t="s">
         <v>563</v>
       </c>
-      <c r="D54" s="145"/>
-      <c r="E54" s="145"/>
+      <c r="D54" s="151"/>
+      <c r="E54" s="151"/>
     </row>
     <row r="55" spans="1:5" ht="30" customHeight="1">
-      <c r="A55" s="145">
+      <c r="A55" s="151">
         <v>27</v>
       </c>
-      <c r="B55" s="145" t="s">
+      <c r="B55" s="151" t="s">
         <v>564</v>
       </c>
       <c r="C55" s="73" t="s">
         <v>565</v>
       </c>
-      <c r="D55" s="145" t="s">
+      <c r="D55" s="151" t="s">
         <v>484</v>
       </c>
-      <c r="E55" s="145" t="s">
+      <c r="E55" s="151" t="s">
         <v>475</v>
       </c>
     </row>
     <row r="56" spans="1:5" ht="30" customHeight="1">
-      <c r="A56" s="145"/>
-      <c r="B56" s="145"/>
+      <c r="A56" s="151"/>
+      <c r="B56" s="151"/>
       <c r="C56" s="73" t="s">
         <v>566</v>
       </c>
-      <c r="D56" s="145"/>
-      <c r="E56" s="145"/>
+      <c r="D56" s="151"/>
+      <c r="E56" s="151"/>
     </row>
     <row r="57" spans="1:5" ht="45" customHeight="1">
-      <c r="A57" s="145">
+      <c r="A57" s="151">
         <v>28</v>
       </c>
-      <c r="B57" s="145" t="s">
+      <c r="B57" s="151" t="s">
         <v>567</v>
       </c>
       <c r="C57" s="73" t="s">
         <v>568</v>
       </c>
-      <c r="D57" s="145" t="s">
+      <c r="D57" s="151" t="s">
         <v>570</v>
       </c>
-      <c r="E57" s="145" t="s">
+      <c r="E57" s="151" t="s">
         <v>475</v>
       </c>
     </row>
     <row r="58" spans="1:5" ht="30" customHeight="1">
-      <c r="A58" s="145"/>
-      <c r="B58" s="145"/>
+      <c r="A58" s="151"/>
+      <c r="B58" s="151"/>
       <c r="C58" s="73" t="s">
         <v>569</v>
       </c>
-      <c r="D58" s="145"/>
-      <c r="E58" s="145"/>
+      <c r="D58" s="151"/>
+      <c r="E58" s="151"/>
     </row>
     <row r="59" spans="1:5" ht="30" customHeight="1">
-      <c r="A59" s="145">
+      <c r="A59" s="151">
         <v>29</v>
       </c>
-      <c r="B59" s="145" t="s">
+      <c r="B59" s="151" t="s">
         <v>571</v>
       </c>
       <c r="C59" s="73" t="s">
         <v>572</v>
       </c>
-      <c r="D59" s="145" t="s">
+      <c r="D59" s="151" t="s">
         <v>474</v>
       </c>
-      <c r="E59" s="145" t="s">
+      <c r="E59" s="151" t="s">
         <v>475</v>
       </c>
     </row>
     <row r="60" spans="1:5" ht="30" customHeight="1">
-      <c r="A60" s="145"/>
-      <c r="B60" s="145"/>
+      <c r="A60" s="151"/>
+      <c r="B60" s="151"/>
       <c r="C60" s="73" t="s">
         <v>573</v>
       </c>
-      <c r="D60" s="145"/>
-      <c r="E60" s="145"/>
+      <c r="D60" s="151"/>
+      <c r="E60" s="151"/>
     </row>
     <row r="61" spans="1:5" ht="30">
-      <c r="A61" s="145">
+      <c r="A61" s="151">
         <v>30</v>
       </c>
-      <c r="B61" s="145" t="s">
+      <c r="B61" s="151" t="s">
         <v>574</v>
       </c>
       <c r="C61" s="73" t="s">
         <v>575</v>
       </c>
-      <c r="D61" s="145" t="s">
+      <c r="D61" s="151" t="s">
         <v>484</v>
       </c>
-      <c r="E61" s="145" t="s">
+      <c r="E61" s="151" t="s">
         <v>475</v>
       </c>
     </row>
     <row r="62" spans="1:5" ht="60" customHeight="1">
-      <c r="A62" s="145"/>
-      <c r="B62" s="145"/>
+      <c r="A62" s="151"/>
+      <c r="B62" s="151"/>
       <c r="C62" s="73" t="s">
         <v>576</v>
       </c>
-      <c r="D62" s="145"/>
-      <c r="E62" s="145"/>
+      <c r="D62" s="151"/>
+      <c r="E62" s="151"/>
     </row>
     <row r="63" spans="1:5" ht="30">
-      <c r="A63" s="145">
+      <c r="A63" s="151">
         <v>31</v>
       </c>
-      <c r="B63" s="145" t="s">
+      <c r="B63" s="151" t="s">
         <v>577</v>
       </c>
       <c r="C63" s="73" t="s">
         <v>578</v>
       </c>
-      <c r="D63" s="145" t="s">
+      <c r="D63" s="151" t="s">
         <v>484</v>
       </c>
-      <c r="E63" s="145" t="s">
+      <c r="E63" s="151" t="s">
         <v>475</v>
       </c>
     </row>
     <row r="64" spans="1:5" ht="45" customHeight="1">
-      <c r="A64" s="145"/>
-      <c r="B64" s="145"/>
+      <c r="A64" s="151"/>
+      <c r="B64" s="151"/>
       <c r="C64" s="73" t="s">
         <v>579</v>
       </c>
-      <c r="D64" s="145"/>
-      <c r="E64" s="145"/>
+      <c r="D64" s="151"/>
+      <c r="E64" s="151"/>
     </row>
     <row r="65" spans="1:5" ht="45" customHeight="1">
-      <c r="A65" s="145">
+      <c r="A65" s="151">
         <v>32</v>
       </c>
-      <c r="B65" s="145" t="s">
+      <c r="B65" s="151" t="s">
         <v>580</v>
       </c>
       <c r="C65" s="73" t="s">
         <v>581</v>
       </c>
-      <c r="D65" s="145" t="s">
+      <c r="D65" s="151" t="s">
         <v>484</v>
       </c>
-      <c r="E65" s="145" t="s">
+      <c r="E65" s="151" t="s">
         <v>475</v>
       </c>
     </row>
     <row r="66" spans="1:5" ht="30" customHeight="1">
-      <c r="A66" s="145"/>
-      <c r="B66" s="145"/>
+      <c r="A66" s="151"/>
+      <c r="B66" s="151"/>
       <c r="C66" s="73" t="s">
         <v>582</v>
       </c>
-      <c r="D66" s="145"/>
-      <c r="E66" s="145"/>
+      <c r="D66" s="151"/>
+      <c r="E66" s="151"/>
     </row>
     <row r="67" spans="1:5" ht="30" customHeight="1">
-      <c r="A67" s="145">
+      <c r="A67" s="151">
         <v>33</v>
       </c>
-      <c r="B67" s="145" t="s">
+      <c r="B67" s="151" t="s">
         <v>583</v>
       </c>
       <c r="C67" s="73" t="s">
         <v>584</v>
       </c>
-      <c r="D67" s="145" t="s">
+      <c r="D67" s="151" t="s">
         <v>474</v>
       </c>
-      <c r="E67" s="145" t="s">
+      <c r="E67" s="151" t="s">
         <v>475</v>
       </c>
     </row>
     <row r="68" spans="1:5" ht="45" customHeight="1">
-      <c r="A68" s="145"/>
-      <c r="B68" s="145"/>
+      <c r="A68" s="151"/>
+      <c r="B68" s="151"/>
       <c r="C68" s="73" t="s">
         <v>585</v>
       </c>
-      <c r="D68" s="145"/>
-      <c r="E68" s="145"/>
+      <c r="D68" s="151"/>
+      <c r="E68" s="151"/>
     </row>
     <row r="69" spans="1:5" ht="30" customHeight="1">
-      <c r="A69" s="145">
+      <c r="A69" s="151">
         <v>34</v>
       </c>
-      <c r="B69" s="145" t="s">
+      <c r="B69" s="151" t="s">
         <v>586</v>
       </c>
       <c r="C69" s="73" t="s">
         <v>587</v>
       </c>
-      <c r="D69" s="145" t="s">
+      <c r="D69" s="151" t="s">
         <v>474</v>
       </c>
-      <c r="E69" s="145" t="s">
+      <c r="E69" s="151" t="s">
         <v>475</v>
       </c>
     </row>
     <row r="70" spans="1:5" ht="45" customHeight="1">
-      <c r="A70" s="145"/>
-      <c r="B70" s="145"/>
+      <c r="A70" s="151"/>
+      <c r="B70" s="151"/>
       <c r="C70" s="73" t="s">
         <v>588</v>
       </c>
-      <c r="D70" s="145"/>
-      <c r="E70" s="145"/>
+      <c r="D70" s="151"/>
+      <c r="E70" s="151"/>
     </row>
     <row r="71" spans="1:5" ht="30" customHeight="1">
-      <c r="A71" s="145">
+      <c r="A71" s="151">
         <v>35</v>
       </c>
-      <c r="B71" s="145" t="s">
+      <c r="B71" s="151" t="s">
         <v>589</v>
       </c>
       <c r="C71" s="73" t="s">
         <v>590</v>
       </c>
-      <c r="D71" s="145" t="s">
+      <c r="D71" s="151" t="s">
         <v>474</v>
       </c>
-      <c r="E71" s="145" t="s">
+      <c r="E71" s="151" t="s">
         <v>475</v>
       </c>
     </row>
     <row r="72" spans="1:5" ht="30" customHeight="1">
-      <c r="A72" s="145"/>
-      <c r="B72" s="145"/>
+      <c r="A72" s="151"/>
+      <c r="B72" s="151"/>
       <c r="C72" s="73" t="s">
         <v>591</v>
       </c>
-      <c r="D72" s="145"/>
-      <c r="E72" s="145"/>
+      <c r="D72" s="151"/>
+      <c r="E72" s="151"/>
     </row>
     <row r="74" spans="1:5" ht="30" customHeight="1"/>
     <row r="76" spans="1:5" ht="30" customHeight="1"/>
@@ -12471,6 +12485,122 @@
     <row r="108" ht="30" customHeight="1"/>
   </sheetData>
   <mergeCells count="140">
+    <mergeCell ref="A51:A52"/>
+    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="D51:D52"/>
+    <mergeCell ref="E51:E52"/>
+    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="D47:D48"/>
+    <mergeCell ref="E47:E48"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="D49:D50"/>
+    <mergeCell ref="E49:E50"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="D35:D36"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="D43:D44"/>
+    <mergeCell ref="E43:E44"/>
+    <mergeCell ref="A65:A66"/>
+    <mergeCell ref="B65:B66"/>
+    <mergeCell ref="D65:D66"/>
+    <mergeCell ref="E65:E66"/>
+    <mergeCell ref="A57:A58"/>
+    <mergeCell ref="B57:B58"/>
+    <mergeCell ref="D57:D58"/>
+    <mergeCell ref="E57:E58"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="A41:A42"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="D41:D42"/>
+    <mergeCell ref="E41:E42"/>
+    <mergeCell ref="A55:A56"/>
+    <mergeCell ref="B55:B56"/>
+    <mergeCell ref="D55:D56"/>
+    <mergeCell ref="E55:E56"/>
+    <mergeCell ref="A53:A54"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="D53:D54"/>
+    <mergeCell ref="E53:E54"/>
+    <mergeCell ref="D45:D46"/>
+    <mergeCell ref="E45:E46"/>
     <mergeCell ref="A59:A60"/>
     <mergeCell ref="B59:B60"/>
     <mergeCell ref="D59:D60"/>
@@ -12495,122 +12625,6 @@
     <mergeCell ref="E69:E70"/>
     <mergeCell ref="D63:D64"/>
     <mergeCell ref="E63:E64"/>
-    <mergeCell ref="A65:A66"/>
-    <mergeCell ref="B65:B66"/>
-    <mergeCell ref="D65:D66"/>
-    <mergeCell ref="E65:E66"/>
-    <mergeCell ref="A57:A58"/>
-    <mergeCell ref="B57:B58"/>
-    <mergeCell ref="D57:D58"/>
-    <mergeCell ref="E57:E58"/>
-    <mergeCell ref="D39:D40"/>
-    <mergeCell ref="E39:E40"/>
-    <mergeCell ref="A41:A42"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="D41:D42"/>
-    <mergeCell ref="E41:E42"/>
-    <mergeCell ref="A55:A56"/>
-    <mergeCell ref="B55:B56"/>
-    <mergeCell ref="D55:D56"/>
-    <mergeCell ref="E55:E56"/>
-    <mergeCell ref="A53:A54"/>
-    <mergeCell ref="B53:B54"/>
-    <mergeCell ref="D53:D54"/>
-    <mergeCell ref="E53:E54"/>
-    <mergeCell ref="D45:D46"/>
-    <mergeCell ref="E45:E46"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="A45:A46"/>
-    <mergeCell ref="B45:B46"/>
-    <mergeCell ref="D35:D36"/>
-    <mergeCell ref="E35:E36"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="A43:A44"/>
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="D43:D44"/>
-    <mergeCell ref="E43:E44"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="D33:D34"/>
-    <mergeCell ref="E33:E34"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="A51:A52"/>
-    <mergeCell ref="B51:B52"/>
-    <mergeCell ref="D51:D52"/>
-    <mergeCell ref="E51:E52"/>
-    <mergeCell ref="A47:A48"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="D47:D48"/>
-    <mergeCell ref="E47:E48"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="D49:D50"/>
-    <mergeCell ref="E49:E50"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'Tabla de Contenido'!A1" display="Tabla de Contenido" xr:uid="{39E8F964-FA78-451F-AA99-AC92C3995828}"/>
@@ -13397,13 +13411,13 @@
       </c>
     </row>
     <row r="53" spans="1:11" ht="45">
-      <c r="A53" s="146" t="s">
+      <c r="A53" s="159" t="s">
         <v>445</v>
       </c>
-      <c r="B53" s="148" t="s">
+      <c r="B53" s="161" t="s">
         <v>446</v>
       </c>
-      <c r="C53" s="150" t="s">
+      <c r="C53" s="163" t="s">
         <v>447</v>
       </c>
       <c r="D53" s="62">
@@ -13432,9 +13446,9 @@
       </c>
     </row>
     <row r="54" spans="1:11" ht="45">
-      <c r="A54" s="147"/>
-      <c r="B54" s="149"/>
-      <c r="C54" s="151"/>
+      <c r="A54" s="160"/>
+      <c r="B54" s="162"/>
+      <c r="C54" s="164"/>
       <c r="D54" s="64">
         <v>2</v>
       </c>
@@ -13689,6 +13703,17 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="A53:A54"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="C53:C54"/>
+    <mergeCell ref="A50:A52"/>
+    <mergeCell ref="B50:B52"/>
+    <mergeCell ref="C50:C52"/>
+    <mergeCell ref="D50:K50"/>
+    <mergeCell ref="D51:D52"/>
+    <mergeCell ref="E51:E52"/>
+    <mergeCell ref="F51:F52"/>
+    <mergeCell ref="G51:K51"/>
     <mergeCell ref="A3:A5"/>
     <mergeCell ref="B3:B5"/>
     <mergeCell ref="C3:C5"/>
@@ -13697,17 +13722,6 @@
     <mergeCell ref="E4:E5"/>
     <mergeCell ref="F4:F5"/>
     <mergeCell ref="G4:K4"/>
-    <mergeCell ref="D50:K50"/>
-    <mergeCell ref="D51:D52"/>
-    <mergeCell ref="E51:E52"/>
-    <mergeCell ref="F51:F52"/>
-    <mergeCell ref="G51:K51"/>
-    <mergeCell ref="A53:A54"/>
-    <mergeCell ref="B53:B54"/>
-    <mergeCell ref="C53:C54"/>
-    <mergeCell ref="A50:A52"/>
-    <mergeCell ref="B50:B52"/>
-    <mergeCell ref="C50:C52"/>
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
   <hyperlinks>
@@ -14352,112 +14366,112 @@
       <c r="A1" s="99" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="182" t="s">
+      <c r="B1" s="118" t="s">
         <v>942</v>
       </c>
-      <c r="C1" s="182"/>
+      <c r="C1" s="118"/>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="183" t="s">
+      <c r="A2" s="113" t="s">
         <v>862</v>
       </c>
-      <c r="B2" s="184" t="s">
+      <c r="B2" s="119" t="s">
         <v>951</v>
       </c>
-      <c r="C2" s="184"/>
-      <c r="D2" s="184"/>
-      <c r="E2" s="184"/>
-      <c r="F2" s="184"/>
-      <c r="G2" s="184"/>
-      <c r="H2" s="184"/>
-      <c r="I2" s="184"/>
+      <c r="C2" s="119"/>
+      <c r="D2" s="119"/>
+      <c r="E2" s="119"/>
+      <c r="F2" s="119"/>
+      <c r="G2" s="119"/>
+      <c r="H2" s="119"/>
+      <c r="I2" s="119"/>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="183" t="s">
+      <c r="A3" s="113" t="s">
         <v>863</v>
       </c>
-      <c r="B3" s="184"/>
-      <c r="C3" s="184"/>
-      <c r="D3" s="184"/>
-      <c r="E3" s="184"/>
-      <c r="F3" s="184"/>
-      <c r="G3" s="184"/>
-      <c r="H3" s="184"/>
-      <c r="I3" s="184"/>
+      <c r="B3" s="119"/>
+      <c r="C3" s="119"/>
+      <c r="D3" s="119"/>
+      <c r="E3" s="119"/>
+      <c r="F3" s="119"/>
+      <c r="G3" s="119"/>
+      <c r="H3" s="119"/>
+      <c r="I3" s="119"/>
     </row>
     <row r="4" spans="1:9" ht="30">
-      <c r="A4" s="183" t="s">
+      <c r="A4" s="113" t="s">
         <v>864</v>
       </c>
-      <c r="B4" s="184" t="s">
+      <c r="B4" s="119" t="s">
         <v>952</v>
       </c>
-      <c r="C4" s="184"/>
-      <c r="D4" s="184"/>
-      <c r="E4" s="184"/>
-      <c r="F4" s="184"/>
-      <c r="G4" s="184"/>
-      <c r="H4" s="184"/>
-      <c r="I4" s="184"/>
+      <c r="C4" s="119"/>
+      <c r="D4" s="119"/>
+      <c r="E4" s="119"/>
+      <c r="F4" s="119"/>
+      <c r="G4" s="119"/>
+      <c r="H4" s="119"/>
+      <c r="I4" s="119"/>
     </row>
     <row r="5" spans="1:9" ht="30">
-      <c r="A5" s="183" t="s">
+      <c r="A5" s="113" t="s">
         <v>865</v>
       </c>
-      <c r="B5" s="184" t="s">
+      <c r="B5" s="119" t="s">
         <v>953</v>
       </c>
-      <c r="C5" s="184"/>
-      <c r="D5" s="184"/>
-      <c r="E5" s="184"/>
-      <c r="F5" s="184"/>
-      <c r="G5" s="184"/>
-      <c r="H5" s="184"/>
-      <c r="I5" s="184"/>
+      <c r="C5" s="119"/>
+      <c r="D5" s="119"/>
+      <c r="E5" s="119"/>
+      <c r="F5" s="119"/>
+      <c r="G5" s="119"/>
+      <c r="H5" s="119"/>
+      <c r="I5" s="119"/>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="185" t="s">
+      <c r="A6" s="117" t="s">
         <v>944</v>
       </c>
-      <c r="B6" s="185" t="s">
+      <c r="B6" s="117" t="s">
         <v>945</v>
       </c>
-      <c r="C6" s="185" t="s">
+      <c r="C6" s="117" t="s">
         <v>40</v>
       </c>
-      <c r="D6" s="185" t="s">
+      <c r="D6" s="117" t="s">
         <v>946</v>
       </c>
-      <c r="E6" s="185"/>
-      <c r="F6" s="185" t="s">
+      <c r="E6" s="117"/>
+      <c r="F6" s="117" t="s">
         <v>947</v>
       </c>
-      <c r="G6" s="185"/>
-      <c r="H6" s="185" t="s">
+      <c r="G6" s="117"/>
+      <c r="H6" s="117" t="s">
         <v>948</v>
       </c>
-      <c r="I6" s="185" t="s">
+      <c r="I6" s="117" t="s">
         <v>949</v>
       </c>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="185"/>
-      <c r="B7" s="185"/>
-      <c r="C7" s="185"/>
-      <c r="D7" s="186" t="s">
+      <c r="A7" s="117"/>
+      <c r="B7" s="117"/>
+      <c r="C7" s="117"/>
+      <c r="D7" s="114" t="s">
         <v>950</v>
       </c>
-      <c r="E7" s="186" t="s">
+      <c r="E7" s="114" t="s">
         <v>40</v>
       </c>
-      <c r="F7" s="186" t="s">
+      <c r="F7" s="114" t="s">
         <v>950</v>
       </c>
-      <c r="G7" s="183" t="s">
+      <c r="G7" s="113" t="s">
         <v>40</v>
       </c>
-      <c r="H7" s="185"/>
-      <c r="I7" s="185"/>
+      <c r="H7" s="117"/>
+      <c r="I7" s="117"/>
     </row>
     <row r="8" spans="1:9" ht="75">
       <c r="A8" s="85">
@@ -14751,6 +14765,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:G6"/>
     <mergeCell ref="H6:H7"/>
     <mergeCell ref="I6:I7"/>
     <mergeCell ref="B1:C1"/>
@@ -14758,11 +14777,6 @@
     <mergeCell ref="B3:I3"/>
     <mergeCell ref="B4:I4"/>
     <mergeCell ref="B5:I5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F6:G6"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'Tabla de Contenido'!A1" display="Tabla de Contenido" xr:uid="{5CDBEF4A-A5B6-4A59-8E5E-F6AC866A8050}"/>
@@ -16709,74 +16723,74 @@
       <c r="A2" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="160" t="s">
+      <c r="B2" s="166" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="160"/>
-      <c r="D2" s="160"/>
-      <c r="E2" s="160"/>
-      <c r="F2" s="160"/>
-      <c r="G2" s="160"/>
-      <c r="H2" s="160"/>
-      <c r="I2" s="160"/>
+      <c r="C2" s="166"/>
+      <c r="D2" s="166"/>
+      <c r="E2" s="166"/>
+      <c r="F2" s="166"/>
+      <c r="G2" s="166"/>
+      <c r="H2" s="166"/>
+      <c r="I2" s="166"/>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="161" t="s">
+      <c r="B3" s="167" t="s">
         <v>412</v>
       </c>
-      <c r="C3" s="161"/>
-      <c r="D3" s="161"/>
-      <c r="E3" s="161"/>
-      <c r="F3" s="161"/>
-      <c r="G3" s="161"/>
-      <c r="H3" s="161"/>
-      <c r="I3" s="161"/>
+      <c r="C3" s="167"/>
+      <c r="D3" s="167"/>
+      <c r="E3" s="167"/>
+      <c r="F3" s="167"/>
+      <c r="G3" s="167"/>
+      <c r="H3" s="167"/>
+      <c r="I3" s="167"/>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="B4" s="160" t="s">
+      <c r="B4" s="166" t="s">
         <v>347</v>
       </c>
-      <c r="C4" s="160"/>
-      <c r="D4" s="160"/>
-      <c r="E4" s="160"/>
-      <c r="F4" s="160"/>
-      <c r="G4" s="160"/>
-      <c r="H4" s="160"/>
-      <c r="I4" s="160"/>
+      <c r="C4" s="166"/>
+      <c r="D4" s="166"/>
+      <c r="E4" s="166"/>
+      <c r="F4" s="166"/>
+      <c r="G4" s="166"/>
+      <c r="H4" s="166"/>
+      <c r="I4" s="166"/>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="B5" s="160" t="s">
+      <c r="B5" s="166" t="s">
         <v>348</v>
       </c>
-      <c r="C5" s="160"/>
-      <c r="D5" s="160"/>
-      <c r="E5" s="160"/>
-      <c r="F5" s="160"/>
-      <c r="G5" s="160"/>
-      <c r="H5" s="160"/>
-      <c r="I5" s="160"/>
+      <c r="C5" s="166"/>
+      <c r="D5" s="166"/>
+      <c r="E5" s="166"/>
+      <c r="F5" s="166"/>
+      <c r="G5" s="166"/>
+      <c r="H5" s="166"/>
+      <c r="I5" s="166"/>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="159" t="s">
+      <c r="A6" s="165" t="s">
         <v>192</v>
       </c>
-      <c r="B6" s="159"/>
-      <c r="C6" s="159"/>
-      <c r="D6" s="159"/>
-      <c r="E6" s="159"/>
-      <c r="F6" s="159"/>
-      <c r="G6" s="159"/>
-      <c r="H6" s="159"/>
-      <c r="I6" s="159"/>
+      <c r="B6" s="165"/>
+      <c r="C6" s="165"/>
+      <c r="D6" s="165"/>
+      <c r="E6" s="165"/>
+      <c r="F6" s="165"/>
+      <c r="G6" s="165"/>
+      <c r="H6" s="165"/>
+      <c r="I6" s="165"/>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="12" t="s">
@@ -16910,75 +16924,75 @@
       <c r="A2" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="164" t="s">
+      <c r="B2" s="170" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="165"/>
-      <c r="D2" s="165"/>
-      <c r="E2" s="165"/>
-      <c r="F2" s="165"/>
-      <c r="G2" s="165"/>
-      <c r="H2" s="165"/>
-      <c r="I2" s="166"/>
+      <c r="C2" s="171"/>
+      <c r="D2" s="171"/>
+      <c r="E2" s="171"/>
+      <c r="F2" s="171"/>
+      <c r="G2" s="171"/>
+      <c r="H2" s="171"/>
+      <c r="I2" s="172"/>
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="167" t="s">
+      <c r="B3" s="173" t="s">
         <v>314</v>
       </c>
-      <c r="C3" s="168"/>
-      <c r="D3" s="168"/>
-      <c r="E3" s="168"/>
-      <c r="F3" s="168"/>
-      <c r="G3" s="168"/>
-      <c r="H3" s="168"/>
-      <c r="I3" s="169"/>
+      <c r="C3" s="174"/>
+      <c r="D3" s="174"/>
+      <c r="E3" s="174"/>
+      <c r="F3" s="174"/>
+      <c r="G3" s="174"/>
+      <c r="H3" s="174"/>
+      <c r="I3" s="175"/>
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="B4" s="164" t="s">
+      <c r="B4" s="170" t="s">
         <v>349</v>
       </c>
-      <c r="C4" s="165"/>
-      <c r="D4" s="165"/>
-      <c r="E4" s="165"/>
-      <c r="F4" s="165"/>
-      <c r="G4" s="165"/>
-      <c r="H4" s="165"/>
-      <c r="I4" s="166"/>
+      <c r="C4" s="171"/>
+      <c r="D4" s="171"/>
+      <c r="E4" s="171"/>
+      <c r="F4" s="171"/>
+      <c r="G4" s="171"/>
+      <c r="H4" s="171"/>
+      <c r="I4" s="172"/>
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="B5" s="164" t="s">
+      <c r="B5" s="170" t="s">
         <v>350</v>
       </c>
-      <c r="C5" s="165"/>
-      <c r="D5" s="165"/>
-      <c r="E5" s="165"/>
-      <c r="F5" s="165"/>
-      <c r="G5" s="165"/>
-      <c r="H5" s="165"/>
-      <c r="I5" s="166"/>
+      <c r="C5" s="171"/>
+      <c r="D5" s="171"/>
+      <c r="E5" s="171"/>
+      <c r="F5" s="171"/>
+      <c r="G5" s="171"/>
+      <c r="H5" s="171"/>
+      <c r="I5" s="172"/>
       <c r="Q5" s="32"/>
     </row>
     <row r="6" spans="1:17">
-      <c r="A6" s="162" t="s">
+      <c r="A6" s="168" t="s">
         <v>192</v>
       </c>
-      <c r="B6" s="163"/>
-      <c r="C6" s="163"/>
-      <c r="D6" s="163"/>
-      <c r="E6" s="163"/>
-      <c r="F6" s="163"/>
-      <c r="G6" s="163"/>
-      <c r="H6" s="163"/>
-      <c r="I6" s="163"/>
+      <c r="B6" s="169"/>
+      <c r="C6" s="169"/>
+      <c r="D6" s="169"/>
+      <c r="E6" s="169"/>
+      <c r="F6" s="169"/>
+      <c r="G6" s="169"/>
+      <c r="H6" s="169"/>
+      <c r="I6" s="169"/>
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="33" t="s">
@@ -17143,74 +17157,74 @@
       <c r="A2" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="164" t="s">
+      <c r="B2" s="170" t="s">
         <v>423</v>
       </c>
-      <c r="C2" s="165"/>
-      <c r="D2" s="165"/>
-      <c r="E2" s="165"/>
-      <c r="F2" s="165"/>
-      <c r="G2" s="165"/>
-      <c r="H2" s="165"/>
-      <c r="I2" s="166"/>
+      <c r="C2" s="171"/>
+      <c r="D2" s="171"/>
+      <c r="E2" s="171"/>
+      <c r="F2" s="171"/>
+      <c r="G2" s="171"/>
+      <c r="H2" s="171"/>
+      <c r="I2" s="172"/>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="167" t="s">
+      <c r="B3" s="173" t="s">
         <v>406</v>
       </c>
-      <c r="C3" s="168"/>
-      <c r="D3" s="168"/>
-      <c r="E3" s="168"/>
-      <c r="F3" s="168"/>
-      <c r="G3" s="168"/>
-      <c r="H3" s="168"/>
-      <c r="I3" s="169"/>
+      <c r="C3" s="174"/>
+      <c r="D3" s="174"/>
+      <c r="E3" s="174"/>
+      <c r="F3" s="174"/>
+      <c r="G3" s="174"/>
+      <c r="H3" s="174"/>
+      <c r="I3" s="175"/>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="B4" s="160" t="s">
+      <c r="B4" s="166" t="s">
         <v>343</v>
       </c>
-      <c r="C4" s="160"/>
-      <c r="D4" s="160"/>
-      <c r="E4" s="160"/>
-      <c r="F4" s="160"/>
-      <c r="G4" s="160"/>
-      <c r="H4" s="160"/>
-      <c r="I4" s="160"/>
+      <c r="C4" s="166"/>
+      <c r="D4" s="166"/>
+      <c r="E4" s="166"/>
+      <c r="F4" s="166"/>
+      <c r="G4" s="166"/>
+      <c r="H4" s="166"/>
+      <c r="I4" s="166"/>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="B5" s="160" t="s">
+      <c r="B5" s="166" t="s">
         <v>344</v>
       </c>
-      <c r="C5" s="160"/>
-      <c r="D5" s="160"/>
-      <c r="E5" s="160"/>
-      <c r="F5" s="160"/>
-      <c r="G5" s="160"/>
-      <c r="H5" s="160"/>
-      <c r="I5" s="160"/>
+      <c r="C5" s="166"/>
+      <c r="D5" s="166"/>
+      <c r="E5" s="166"/>
+      <c r="F5" s="166"/>
+      <c r="G5" s="166"/>
+      <c r="H5" s="166"/>
+      <c r="I5" s="166"/>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="159" t="s">
+      <c r="A6" s="165" t="s">
         <v>192</v>
       </c>
-      <c r="B6" s="159"/>
-      <c r="C6" s="159"/>
-      <c r="D6" s="159"/>
-      <c r="E6" s="159"/>
-      <c r="F6" s="159"/>
-      <c r="G6" s="159"/>
-      <c r="H6" s="159"/>
-      <c r="I6" s="159"/>
+      <c r="B6" s="165"/>
+      <c r="C6" s="165"/>
+      <c r="D6" s="165"/>
+      <c r="E6" s="165"/>
+      <c r="F6" s="165"/>
+      <c r="G6" s="165"/>
+      <c r="H6" s="165"/>
+      <c r="I6" s="165"/>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="12" t="s">
@@ -17376,74 +17390,74 @@
       <c r="A2" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="164" t="s">
+      <c r="B2" s="170" t="s">
         <v>423</v>
       </c>
-      <c r="C2" s="165"/>
-      <c r="D2" s="165"/>
-      <c r="E2" s="165"/>
-      <c r="F2" s="165"/>
-      <c r="G2" s="165"/>
-      <c r="H2" s="165"/>
-      <c r="I2" s="166"/>
+      <c r="C2" s="171"/>
+      <c r="D2" s="171"/>
+      <c r="E2" s="171"/>
+      <c r="F2" s="171"/>
+      <c r="G2" s="171"/>
+      <c r="H2" s="171"/>
+      <c r="I2" s="172"/>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="167" t="s">
+      <c r="B3" s="173" t="s">
         <v>407</v>
       </c>
-      <c r="C3" s="168"/>
-      <c r="D3" s="168"/>
-      <c r="E3" s="168"/>
-      <c r="F3" s="168"/>
-      <c r="G3" s="168"/>
-      <c r="H3" s="168"/>
-      <c r="I3" s="169"/>
+      <c r="C3" s="174"/>
+      <c r="D3" s="174"/>
+      <c r="E3" s="174"/>
+      <c r="F3" s="174"/>
+      <c r="G3" s="174"/>
+      <c r="H3" s="174"/>
+      <c r="I3" s="175"/>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="B4" s="160" t="s">
+      <c r="B4" s="166" t="s">
         <v>345</v>
       </c>
-      <c r="C4" s="160"/>
-      <c r="D4" s="160"/>
-      <c r="E4" s="160"/>
-      <c r="F4" s="160"/>
-      <c r="G4" s="160"/>
-      <c r="H4" s="160"/>
-      <c r="I4" s="160"/>
+      <c r="C4" s="166"/>
+      <c r="D4" s="166"/>
+      <c r="E4" s="166"/>
+      <c r="F4" s="166"/>
+      <c r="G4" s="166"/>
+      <c r="H4" s="166"/>
+      <c r="I4" s="166"/>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="B5" s="160" t="s">
+      <c r="B5" s="166" t="s">
         <v>346</v>
       </c>
-      <c r="C5" s="160"/>
-      <c r="D5" s="160"/>
-      <c r="E5" s="160"/>
-      <c r="F5" s="160"/>
-      <c r="G5" s="160"/>
-      <c r="H5" s="160"/>
-      <c r="I5" s="160"/>
+      <c r="C5" s="166"/>
+      <c r="D5" s="166"/>
+      <c r="E5" s="166"/>
+      <c r="F5" s="166"/>
+      <c r="G5" s="166"/>
+      <c r="H5" s="166"/>
+      <c r="I5" s="166"/>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="159" t="s">
+      <c r="A6" s="165" t="s">
         <v>192</v>
       </c>
-      <c r="B6" s="159"/>
-      <c r="C6" s="159"/>
-      <c r="D6" s="159"/>
-      <c r="E6" s="159"/>
-      <c r="F6" s="159"/>
-      <c r="G6" s="159"/>
-      <c r="H6" s="159"/>
-      <c r="I6" s="159"/>
+      <c r="B6" s="165"/>
+      <c r="C6" s="165"/>
+      <c r="D6" s="165"/>
+      <c r="E6" s="165"/>
+      <c r="F6" s="165"/>
+      <c r="G6" s="165"/>
+      <c r="H6" s="165"/>
+      <c r="I6" s="165"/>
     </row>
     <row r="7" spans="1:9" ht="30">
       <c r="A7" s="12" t="s">
@@ -17609,74 +17623,74 @@
       <c r="A2" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="164" t="s">
+      <c r="B2" s="170" t="s">
         <v>60</v>
       </c>
-      <c r="C2" s="165"/>
-      <c r="D2" s="165"/>
-      <c r="E2" s="165"/>
-      <c r="F2" s="165"/>
-      <c r="G2" s="165"/>
-      <c r="H2" s="165"/>
-      <c r="I2" s="166"/>
+      <c r="C2" s="171"/>
+      <c r="D2" s="171"/>
+      <c r="E2" s="171"/>
+      <c r="F2" s="171"/>
+      <c r="G2" s="171"/>
+      <c r="H2" s="171"/>
+      <c r="I2" s="172"/>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="167" t="s">
+      <c r="B3" s="173" t="s">
         <v>259</v>
       </c>
-      <c r="C3" s="168"/>
-      <c r="D3" s="168"/>
-      <c r="E3" s="168"/>
-      <c r="F3" s="168"/>
-      <c r="G3" s="168"/>
-      <c r="H3" s="168"/>
-      <c r="I3" s="169"/>
+      <c r="C3" s="174"/>
+      <c r="D3" s="174"/>
+      <c r="E3" s="174"/>
+      <c r="F3" s="174"/>
+      <c r="G3" s="174"/>
+      <c r="H3" s="174"/>
+      <c r="I3" s="175"/>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="B4" s="160" t="s">
+      <c r="B4" s="166" t="s">
         <v>339</v>
       </c>
-      <c r="C4" s="160"/>
-      <c r="D4" s="160"/>
-      <c r="E4" s="160"/>
-      <c r="F4" s="160"/>
-      <c r="G4" s="160"/>
-      <c r="H4" s="160"/>
-      <c r="I4" s="160"/>
+      <c r="C4" s="166"/>
+      <c r="D4" s="166"/>
+      <c r="E4" s="166"/>
+      <c r="F4" s="166"/>
+      <c r="G4" s="166"/>
+      <c r="H4" s="166"/>
+      <c r="I4" s="166"/>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="B5" s="160" t="s">
+      <c r="B5" s="166" t="s">
         <v>340</v>
       </c>
-      <c r="C5" s="160"/>
-      <c r="D5" s="160"/>
-      <c r="E5" s="160"/>
-      <c r="F5" s="160"/>
-      <c r="G5" s="160"/>
-      <c r="H5" s="160"/>
-      <c r="I5" s="160"/>
+      <c r="C5" s="166"/>
+      <c r="D5" s="166"/>
+      <c r="E5" s="166"/>
+      <c r="F5" s="166"/>
+      <c r="G5" s="166"/>
+      <c r="H5" s="166"/>
+      <c r="I5" s="166"/>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="159" t="s">
+      <c r="A6" s="165" t="s">
         <v>192</v>
       </c>
-      <c r="B6" s="159"/>
-      <c r="C6" s="159"/>
-      <c r="D6" s="159"/>
-      <c r="E6" s="159"/>
-      <c r="F6" s="159"/>
-      <c r="G6" s="159"/>
-      <c r="H6" s="159"/>
-      <c r="I6" s="159"/>
+      <c r="B6" s="165"/>
+      <c r="C6" s="165"/>
+      <c r="D6" s="165"/>
+      <c r="E6" s="165"/>
+      <c r="F6" s="165"/>
+      <c r="G6" s="165"/>
+      <c r="H6" s="165"/>
+      <c r="I6" s="165"/>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="12" t="s">
@@ -17839,74 +17853,74 @@
       <c r="A2" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="164" t="s">
+      <c r="B2" s="170" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="165"/>
-      <c r="D2" s="165"/>
-      <c r="E2" s="165"/>
-      <c r="F2" s="165"/>
-      <c r="G2" s="165"/>
-      <c r="H2" s="165"/>
-      <c r="I2" s="166"/>
+      <c r="C2" s="171"/>
+      <c r="D2" s="171"/>
+      <c r="E2" s="171"/>
+      <c r="F2" s="171"/>
+      <c r="G2" s="171"/>
+      <c r="H2" s="171"/>
+      <c r="I2" s="172"/>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="167" t="s">
+      <c r="B3" s="173" t="s">
         <v>260</v>
       </c>
-      <c r="C3" s="168"/>
-      <c r="D3" s="168"/>
-      <c r="E3" s="168"/>
-      <c r="F3" s="168"/>
-      <c r="G3" s="168"/>
-      <c r="H3" s="168"/>
-      <c r="I3" s="169"/>
+      <c r="C3" s="174"/>
+      <c r="D3" s="174"/>
+      <c r="E3" s="174"/>
+      <c r="F3" s="174"/>
+      <c r="G3" s="174"/>
+      <c r="H3" s="174"/>
+      <c r="I3" s="175"/>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="B4" s="160" t="s">
+      <c r="B4" s="166" t="s">
         <v>341</v>
       </c>
-      <c r="C4" s="160"/>
-      <c r="D4" s="160"/>
-      <c r="E4" s="160"/>
-      <c r="F4" s="160"/>
-      <c r="G4" s="160"/>
-      <c r="H4" s="160"/>
-      <c r="I4" s="160"/>
+      <c r="C4" s="166"/>
+      <c r="D4" s="166"/>
+      <c r="E4" s="166"/>
+      <c r="F4" s="166"/>
+      <c r="G4" s="166"/>
+      <c r="H4" s="166"/>
+      <c r="I4" s="166"/>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="B5" s="160" t="s">
+      <c r="B5" s="166" t="s">
         <v>342</v>
       </c>
-      <c r="C5" s="160"/>
-      <c r="D5" s="160"/>
-      <c r="E5" s="160"/>
-      <c r="F5" s="160"/>
-      <c r="G5" s="160"/>
-      <c r="H5" s="160"/>
-      <c r="I5" s="160"/>
+      <c r="C5" s="166"/>
+      <c r="D5" s="166"/>
+      <c r="E5" s="166"/>
+      <c r="F5" s="166"/>
+      <c r="G5" s="166"/>
+      <c r="H5" s="166"/>
+      <c r="I5" s="166"/>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="159" t="s">
+      <c r="A6" s="165" t="s">
         <v>192</v>
       </c>
-      <c r="B6" s="159"/>
-      <c r="C6" s="159"/>
-      <c r="D6" s="159"/>
-      <c r="E6" s="159"/>
-      <c r="F6" s="159"/>
-      <c r="G6" s="159"/>
-      <c r="H6" s="159"/>
-      <c r="I6" s="159"/>
+      <c r="B6" s="165"/>
+      <c r="C6" s="165"/>
+      <c r="D6" s="165"/>
+      <c r="E6" s="165"/>
+      <c r="F6" s="165"/>
+      <c r="G6" s="165"/>
+      <c r="H6" s="165"/>
+      <c r="I6" s="165"/>
     </row>
     <row r="7" spans="1:9" ht="30">
       <c r="A7" s="12" t="s">
@@ -18069,74 +18083,74 @@
       <c r="A2" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="170" t="s">
+      <c r="B2" s="176" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="171"/>
-      <c r="D2" s="171"/>
-      <c r="E2" s="171"/>
-      <c r="F2" s="171"/>
-      <c r="G2" s="171"/>
-      <c r="H2" s="171"/>
-      <c r="I2" s="172"/>
+      <c r="C2" s="177"/>
+      <c r="D2" s="177"/>
+      <c r="E2" s="177"/>
+      <c r="F2" s="177"/>
+      <c r="G2" s="177"/>
+      <c r="H2" s="177"/>
+      <c r="I2" s="178"/>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="174" t="s">
+      <c r="B3" s="180" t="s">
         <v>230</v>
       </c>
-      <c r="C3" s="174"/>
-      <c r="D3" s="174"/>
-      <c r="E3" s="174"/>
-      <c r="F3" s="174"/>
-      <c r="G3" s="174"/>
-      <c r="H3" s="174"/>
-      <c r="I3" s="174"/>
+      <c r="C3" s="180"/>
+      <c r="D3" s="180"/>
+      <c r="E3" s="180"/>
+      <c r="F3" s="180"/>
+      <c r="G3" s="180"/>
+      <c r="H3" s="180"/>
+      <c r="I3" s="180"/>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="B4" s="173" t="s">
+      <c r="B4" s="179" t="s">
         <v>335</v>
       </c>
-      <c r="C4" s="173"/>
-      <c r="D4" s="173"/>
-      <c r="E4" s="173"/>
-      <c r="F4" s="173"/>
-      <c r="G4" s="173"/>
-      <c r="H4" s="173"/>
-      <c r="I4" s="173"/>
+      <c r="C4" s="179"/>
+      <c r="D4" s="179"/>
+      <c r="E4" s="179"/>
+      <c r="F4" s="179"/>
+      <c r="G4" s="179"/>
+      <c r="H4" s="179"/>
+      <c r="I4" s="179"/>
     </row>
     <row r="5" spans="1:9" ht="15" customHeight="1">
       <c r="A5" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="B5" s="170" t="s">
+      <c r="B5" s="176" t="s">
         <v>336</v>
       </c>
-      <c r="C5" s="171"/>
-      <c r="D5" s="171"/>
-      <c r="E5" s="171"/>
-      <c r="F5" s="171"/>
-      <c r="G5" s="171"/>
-      <c r="H5" s="171"/>
-      <c r="I5" s="172"/>
+      <c r="C5" s="177"/>
+      <c r="D5" s="177"/>
+      <c r="E5" s="177"/>
+      <c r="F5" s="177"/>
+      <c r="G5" s="177"/>
+      <c r="H5" s="177"/>
+      <c r="I5" s="178"/>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="159" t="s">
+      <c r="A6" s="165" t="s">
         <v>192</v>
       </c>
-      <c r="B6" s="159"/>
-      <c r="C6" s="159"/>
-      <c r="D6" s="159"/>
-      <c r="E6" s="159"/>
-      <c r="F6" s="159"/>
-      <c r="G6" s="159"/>
-      <c r="H6" s="159"/>
-      <c r="I6" s="159"/>
+      <c r="B6" s="165"/>
+      <c r="C6" s="165"/>
+      <c r="D6" s="165"/>
+      <c r="E6" s="165"/>
+      <c r="F6" s="165"/>
+      <c r="G6" s="165"/>
+      <c r="H6" s="165"/>
+      <c r="I6" s="165"/>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="12" t="s">
@@ -18296,68 +18310,68 @@
       <c r="A2" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="170" t="s">
+      <c r="B2" s="176" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="171"/>
-      <c r="D2" s="171"/>
-      <c r="E2" s="171"/>
-      <c r="F2" s="171"/>
-      <c r="G2" s="171"/>
-      <c r="H2" s="171"/>
-      <c r="I2" s="172"/>
+      <c r="C2" s="177"/>
+      <c r="D2" s="177"/>
+      <c r="E2" s="177"/>
+      <c r="F2" s="177"/>
+      <c r="G2" s="177"/>
+      <c r="H2" s="177"/>
+      <c r="I2" s="178"/>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="174"/>
-      <c r="C3" s="174"/>
-      <c r="D3" s="174"/>
-      <c r="E3" s="174"/>
-      <c r="F3" s="174"/>
-      <c r="G3" s="174"/>
-      <c r="H3" s="174"/>
-      <c r="I3" s="174"/>
+      <c r="B3" s="180"/>
+      <c r="C3" s="180"/>
+      <c r="D3" s="180"/>
+      <c r="E3" s="180"/>
+      <c r="F3" s="180"/>
+      <c r="G3" s="180"/>
+      <c r="H3" s="180"/>
+      <c r="I3" s="180"/>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="B4" s="173"/>
-      <c r="C4" s="173"/>
-      <c r="D4" s="173"/>
-      <c r="E4" s="173"/>
-      <c r="F4" s="173"/>
-      <c r="G4" s="173"/>
-      <c r="H4" s="173"/>
-      <c r="I4" s="173"/>
+      <c r="B4" s="179"/>
+      <c r="C4" s="179"/>
+      <c r="D4" s="179"/>
+      <c r="E4" s="179"/>
+      <c r="F4" s="179"/>
+      <c r="G4" s="179"/>
+      <c r="H4" s="179"/>
+      <c r="I4" s="179"/>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="B5" s="170"/>
-      <c r="C5" s="171"/>
-      <c r="D5" s="171"/>
-      <c r="E5" s="171"/>
-      <c r="F5" s="171"/>
-      <c r="G5" s="171"/>
-      <c r="H5" s="171"/>
-      <c r="I5" s="172"/>
+      <c r="B5" s="176"/>
+      <c r="C5" s="177"/>
+      <c r="D5" s="177"/>
+      <c r="E5" s="177"/>
+      <c r="F5" s="177"/>
+      <c r="G5" s="177"/>
+      <c r="H5" s="177"/>
+      <c r="I5" s="178"/>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="159" t="s">
+      <c r="A6" s="165" t="s">
         <v>192</v>
       </c>
-      <c r="B6" s="159"/>
-      <c r="C6" s="159"/>
-      <c r="D6" s="159"/>
-      <c r="E6" s="159"/>
-      <c r="F6" s="159"/>
-      <c r="G6" s="159"/>
-      <c r="H6" s="159"/>
-      <c r="I6" s="159"/>
+      <c r="B6" s="165"/>
+      <c r="C6" s="165"/>
+      <c r="D6" s="165"/>
+      <c r="E6" s="165"/>
+      <c r="F6" s="165"/>
+      <c r="G6" s="165"/>
+      <c r="H6" s="165"/>
+      <c r="I6" s="165"/>
     </row>
     <row r="7" spans="1:9" ht="30">
       <c r="A7" s="12" t="s">
@@ -18478,74 +18492,74 @@
       <c r="A2" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="164" t="s">
+      <c r="B2" s="170" t="s">
         <v>534</v>
       </c>
-      <c r="C2" s="165"/>
-      <c r="D2" s="165"/>
-      <c r="E2" s="165"/>
-      <c r="F2" s="165"/>
-      <c r="G2" s="165"/>
-      <c r="H2" s="165"/>
-      <c r="I2" s="166"/>
+      <c r="C2" s="171"/>
+      <c r="D2" s="171"/>
+      <c r="E2" s="171"/>
+      <c r="F2" s="171"/>
+      <c r="G2" s="171"/>
+      <c r="H2" s="171"/>
+      <c r="I2" s="172"/>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="167" t="s">
+      <c r="B3" s="173" t="s">
         <v>271</v>
       </c>
-      <c r="C3" s="168"/>
-      <c r="D3" s="168"/>
-      <c r="E3" s="168"/>
-      <c r="F3" s="168"/>
-      <c r="G3" s="168"/>
-      <c r="H3" s="168"/>
-      <c r="I3" s="169"/>
+      <c r="C3" s="174"/>
+      <c r="D3" s="174"/>
+      <c r="E3" s="174"/>
+      <c r="F3" s="174"/>
+      <c r="G3" s="174"/>
+      <c r="H3" s="174"/>
+      <c r="I3" s="175"/>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="B4" s="160" t="s">
+      <c r="B4" s="166" t="s">
         <v>337</v>
       </c>
-      <c r="C4" s="160"/>
-      <c r="D4" s="160"/>
-      <c r="E4" s="160"/>
-      <c r="F4" s="160"/>
-      <c r="G4" s="160"/>
-      <c r="H4" s="160"/>
-      <c r="I4" s="160"/>
+      <c r="C4" s="166"/>
+      <c r="D4" s="166"/>
+      <c r="E4" s="166"/>
+      <c r="F4" s="166"/>
+      <c r="G4" s="166"/>
+      <c r="H4" s="166"/>
+      <c r="I4" s="166"/>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="B5" s="160" t="s">
+      <c r="B5" s="166" t="s">
         <v>338</v>
       </c>
-      <c r="C5" s="160"/>
-      <c r="D5" s="160"/>
-      <c r="E5" s="160"/>
-      <c r="F5" s="160"/>
-      <c r="G5" s="160"/>
-      <c r="H5" s="160"/>
-      <c r="I5" s="160"/>
+      <c r="C5" s="166"/>
+      <c r="D5" s="166"/>
+      <c r="E5" s="166"/>
+      <c r="F5" s="166"/>
+      <c r="G5" s="166"/>
+      <c r="H5" s="166"/>
+      <c r="I5" s="166"/>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="159" t="s">
+      <c r="A6" s="165" t="s">
         <v>192</v>
       </c>
-      <c r="B6" s="159"/>
-      <c r="C6" s="159"/>
-      <c r="D6" s="159"/>
-      <c r="E6" s="159"/>
-      <c r="F6" s="159"/>
-      <c r="G6" s="159"/>
-      <c r="H6" s="159"/>
-      <c r="I6" s="159"/>
+      <c r="B6" s="165"/>
+      <c r="C6" s="165"/>
+      <c r="D6" s="165"/>
+      <c r="E6" s="165"/>
+      <c r="F6" s="165"/>
+      <c r="G6" s="165"/>
+      <c r="H6" s="165"/>
+      <c r="I6" s="165"/>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="12" t="s">
@@ -18699,10 +18713,10 @@
       <c r="A1" s="108" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="181" t="s">
+      <c r="B1" s="120" t="s">
         <v>943</v>
       </c>
-      <c r="C1" s="181"/>
+      <c r="C1" s="120"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -18752,74 +18766,74 @@
       <c r="A2" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="175" t="s">
+      <c r="B2" s="181" t="s">
         <v>36</v>
       </c>
-      <c r="C2" s="175"/>
-      <c r="D2" s="175"/>
-      <c r="E2" s="175"/>
-      <c r="F2" s="175"/>
-      <c r="G2" s="175"/>
-      <c r="H2" s="175"/>
-      <c r="I2" s="175"/>
+      <c r="C2" s="181"/>
+      <c r="D2" s="181"/>
+      <c r="E2" s="181"/>
+      <c r="F2" s="181"/>
+      <c r="G2" s="181"/>
+      <c r="H2" s="181"/>
+      <c r="I2" s="181"/>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="B3" s="170" t="s">
+      <c r="B3" s="176" t="s">
         <v>193</v>
       </c>
-      <c r="C3" s="171"/>
-      <c r="D3" s="171"/>
-      <c r="E3" s="171"/>
-      <c r="F3" s="171"/>
-      <c r="G3" s="171"/>
-      <c r="H3" s="171"/>
-      <c r="I3" s="172"/>
+      <c r="C3" s="177"/>
+      <c r="D3" s="177"/>
+      <c r="E3" s="177"/>
+      <c r="F3" s="177"/>
+      <c r="G3" s="177"/>
+      <c r="H3" s="177"/>
+      <c r="I3" s="178"/>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="B4" s="170" t="s">
+      <c r="B4" s="176" t="s">
         <v>194</v>
       </c>
-      <c r="C4" s="171"/>
-      <c r="D4" s="171"/>
-      <c r="E4" s="171"/>
-      <c r="F4" s="171"/>
-      <c r="G4" s="171"/>
-      <c r="H4" s="171"/>
-      <c r="I4" s="172"/>
+      <c r="C4" s="177"/>
+      <c r="D4" s="177"/>
+      <c r="E4" s="177"/>
+      <c r="F4" s="177"/>
+      <c r="G4" s="177"/>
+      <c r="H4" s="177"/>
+      <c r="I4" s="178"/>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="22" t="s">
         <v>195</v>
       </c>
-      <c r="B5" s="173" t="s">
+      <c r="B5" s="179" t="s">
         <v>196</v>
       </c>
-      <c r="C5" s="173"/>
-      <c r="D5" s="173"/>
-      <c r="E5" s="173"/>
-      <c r="F5" s="173"/>
-      <c r="G5" s="173"/>
-      <c r="H5" s="173"/>
-      <c r="I5" s="173"/>
+      <c r="C5" s="179"/>
+      <c r="D5" s="179"/>
+      <c r="E5" s="179"/>
+      <c r="F5" s="179"/>
+      <c r="G5" s="179"/>
+      <c r="H5" s="179"/>
+      <c r="I5" s="179"/>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="159" t="s">
+      <c r="A6" s="165" t="s">
         <v>192</v>
       </c>
-      <c r="B6" s="159"/>
-      <c r="C6" s="159"/>
-      <c r="D6" s="159"/>
-      <c r="E6" s="159"/>
-      <c r="F6" s="159"/>
-      <c r="G6" s="159"/>
-      <c r="H6" s="159"/>
-      <c r="I6" s="159"/>
+      <c r="B6" s="165"/>
+      <c r="C6" s="165"/>
+      <c r="D6" s="165"/>
+      <c r="E6" s="165"/>
+      <c r="F6" s="165"/>
+      <c r="G6" s="165"/>
+      <c r="H6" s="165"/>
+      <c r="I6" s="165"/>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="12" t="s">
@@ -19040,74 +19054,74 @@
       <c r="A2" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="B2" s="176" t="s">
+      <c r="B2" s="182" t="s">
         <v>36</v>
       </c>
-      <c r="C2" s="176"/>
-      <c r="D2" s="176"/>
-      <c r="E2" s="176"/>
-      <c r="F2" s="176"/>
-      <c r="G2" s="176"/>
-      <c r="H2" s="176"/>
-      <c r="I2" s="176"/>
+      <c r="C2" s="182"/>
+      <c r="D2" s="182"/>
+      <c r="E2" s="182"/>
+      <c r="F2" s="182"/>
+      <c r="G2" s="182"/>
+      <c r="H2" s="182"/>
+      <c r="I2" s="182"/>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="B3" s="164" t="s">
+      <c r="B3" s="170" t="s">
         <v>374</v>
       </c>
-      <c r="C3" s="177"/>
-      <c r="D3" s="177"/>
-      <c r="E3" s="177"/>
-      <c r="F3" s="177"/>
-      <c r="G3" s="177"/>
-      <c r="H3" s="177"/>
-      <c r="I3" s="178"/>
+      <c r="C3" s="183"/>
+      <c r="D3" s="183"/>
+      <c r="E3" s="183"/>
+      <c r="F3" s="183"/>
+      <c r="G3" s="183"/>
+      <c r="H3" s="183"/>
+      <c r="I3" s="184"/>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="B4" s="179" t="s">
+      <c r="B4" s="185" t="s">
         <v>197</v>
       </c>
-      <c r="C4" s="177"/>
-      <c r="D4" s="177"/>
-      <c r="E4" s="177"/>
-      <c r="F4" s="177"/>
-      <c r="G4" s="177"/>
-      <c r="H4" s="177"/>
-      <c r="I4" s="178"/>
+      <c r="C4" s="183"/>
+      <c r="D4" s="183"/>
+      <c r="E4" s="183"/>
+      <c r="F4" s="183"/>
+      <c r="G4" s="183"/>
+      <c r="H4" s="183"/>
+      <c r="I4" s="184"/>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="B5" s="160" t="s">
+      <c r="B5" s="166" t="s">
         <v>373</v>
       </c>
-      <c r="C5" s="180"/>
-      <c r="D5" s="180"/>
-      <c r="E5" s="180"/>
-      <c r="F5" s="180"/>
-      <c r="G5" s="180"/>
-      <c r="H5" s="180"/>
-      <c r="I5" s="180"/>
+      <c r="C5" s="186"/>
+      <c r="D5" s="186"/>
+      <c r="E5" s="186"/>
+      <c r="F5" s="186"/>
+      <c r="G5" s="186"/>
+      <c r="H5" s="186"/>
+      <c r="I5" s="186"/>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="159" t="s">
+      <c r="A6" s="165" t="s">
         <v>192</v>
       </c>
-      <c r="B6" s="159"/>
-      <c r="C6" s="159"/>
-      <c r="D6" s="159"/>
-      <c r="E6" s="159"/>
-      <c r="F6" s="159"/>
-      <c r="G6" s="159"/>
-      <c r="H6" s="159"/>
-      <c r="I6" s="159"/>
+      <c r="B6" s="165"/>
+      <c r="C6" s="165"/>
+      <c r="D6" s="165"/>
+      <c r="E6" s="165"/>
+      <c r="F6" s="165"/>
+      <c r="G6" s="165"/>
+      <c r="H6" s="165"/>
+      <c r="I6" s="165"/>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="12" t="s">
@@ -20092,58 +20106,58 @@
       <c r="A1" s="99" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="115" t="s">
+      <c r="B1" s="124" t="s">
         <v>941</v>
       </c>
-      <c r="C1" s="115"/>
+      <c r="C1" s="124"/>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="95" t="s">
         <v>862</v>
       </c>
-      <c r="B2" s="119" t="s">
+      <c r="B2" s="125" t="s">
         <v>884</v>
       </c>
-      <c r="C2" s="120"/>
-      <c r="D2" s="120"/>
-      <c r="E2" s="120"/>
-      <c r="F2" s="121"/>
+      <c r="C2" s="126"/>
+      <c r="D2" s="126"/>
+      <c r="E2" s="126"/>
+      <c r="F2" s="127"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="95" t="s">
         <v>863</v>
       </c>
-      <c r="B3" s="119" t="s">
+      <c r="B3" s="125" t="s">
         <v>873</v>
       </c>
-      <c r="C3" s="120"/>
-      <c r="D3" s="120"/>
-      <c r="E3" s="120"/>
-      <c r="F3" s="121"/>
+      <c r="C3" s="126"/>
+      <c r="D3" s="126"/>
+      <c r="E3" s="126"/>
+      <c r="F3" s="127"/>
     </row>
     <row r="4" spans="1:6" ht="32.25" customHeight="1">
       <c r="A4" s="95" t="s">
         <v>864</v>
       </c>
-      <c r="B4" s="119" t="s">
+      <c r="B4" s="125" t="s">
         <v>939</v>
       </c>
-      <c r="C4" s="120"/>
-      <c r="D4" s="120"/>
-      <c r="E4" s="120"/>
-      <c r="F4" s="121"/>
+      <c r="C4" s="126"/>
+      <c r="D4" s="126"/>
+      <c r="E4" s="126"/>
+      <c r="F4" s="127"/>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="95" t="s">
         <v>865</v>
       </c>
-      <c r="B5" s="119" t="s">
+      <c r="B5" s="125" t="s">
         <v>940</v>
       </c>
-      <c r="C5" s="120"/>
-      <c r="D5" s="120"/>
-      <c r="E5" s="120"/>
-      <c r="F5" s="121"/>
+      <c r="C5" s="126"/>
+      <c r="D5" s="126"/>
+      <c r="E5" s="126"/>
+      <c r="F5" s="127"/>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="95" t="s">
@@ -20178,7 +20192,7 @@
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="116" t="str">
+      <c r="A8" s="121" t="str">
         <f>$B$7</f>
         <v xml:space="preserve">emna-extraclase </v>
       </c>
@@ -20193,12 +20207,12 @@
         <v>emna-extraclase /emnaMensajesMS</v>
       </c>
       <c r="E8" s="96"/>
-      <c r="F8" s="116" t="s">
+      <c r="F8" s="121" t="s">
         <v>920</v>
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="118"/>
+      <c r="A9" s="123"/>
       <c r="B9" s="96"/>
       <c r="C9" s="96"/>
       <c r="D9" s="96" t="str">
@@ -20206,10 +20220,10 @@
         <v>emna-extraclase /emnaUsuariosMS</v>
       </c>
       <c r="E9" s="96"/>
-      <c r="F9" s="118"/>
+      <c r="F9" s="123"/>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="117"/>
+      <c r="A10" s="122"/>
       <c r="B10" s="96"/>
       <c r="C10" s="96"/>
       <c r="D10" s="96" t="str">
@@ -20217,7 +20231,7 @@
         <v>emna-extraclase /emnaSeguridadMS</v>
       </c>
       <c r="E10" s="96"/>
-      <c r="F10" s="117"/>
+      <c r="F10" s="122"/>
     </row>
     <row r="11" spans="1:6" ht="30">
       <c r="A11" s="94" t="str">
@@ -20280,7 +20294,7 @@
       </c>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="116" t="str">
+      <c r="A14" s="121" t="str">
         <f t="shared" si="0"/>
         <v>emna-extraclase /emnaMensajesMS</v>
       </c>
@@ -20299,12 +20313,12 @@
         <f>C13</f>
         <v xml:space="preserve">emna-extraclase /emnaMensajesMS/urls </v>
       </c>
-      <c r="F14" s="116" t="s">
+      <c r="F14" s="121" t="s">
         <v>924</v>
       </c>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="117"/>
+      <c r="A15" s="122"/>
       <c r="B15" s="96"/>
       <c r="C15" s="96"/>
       <c r="D15" s="96" t="str">
@@ -20312,7 +20326,7 @@
         <v xml:space="preserve">emna-extraclase /emnaMensajesMS/models </v>
       </c>
       <c r="E15" s="96"/>
-      <c r="F15" s="117"/>
+      <c r="F15" s="122"/>
     </row>
     <row r="16" spans="1:6" ht="30">
       <c r="A16" s="77" t="str">
@@ -20339,7 +20353,7 @@
       </c>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="116" t="str">
+      <c r="A17" s="121" t="str">
         <f t="shared" si="0"/>
         <v>emna-extraclase /emnaMensajesMS</v>
       </c>
@@ -20355,12 +20369,12 @@
         <f>C14</f>
         <v xml:space="preserve">emna-extraclase /emnaMensajesMS/views </v>
       </c>
-      <c r="F17" s="116" t="s">
+      <c r="F17" s="121" t="s">
         <v>926</v>
       </c>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="117"/>
+      <c r="A18" s="122"/>
       <c r="B18" s="96"/>
       <c r="C18" s="96"/>
       <c r="D18" s="96"/>
@@ -20368,7 +20382,7 @@
         <f>C16</f>
         <v xml:space="preserve">emna-extraclase /emnaMensajesMS/serializers </v>
       </c>
-      <c r="F18" s="117"/>
+      <c r="F18" s="122"/>
     </row>
     <row r="19" spans="1:6" ht="30">
       <c r="A19" s="94" t="str">
@@ -20431,7 +20445,7 @@
       </c>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="116" t="str">
+      <c r="A22" s="121" t="str">
         <f>$A$19&amp;"/"&amp;$B$19</f>
         <v>emna-extraclase /emnaUsuariosMS</v>
       </c>
@@ -20450,12 +20464,12 @@
         <f>C21</f>
         <v xml:space="preserve">emna-extraclase /emnaUsuariosMS/urls </v>
       </c>
-      <c r="F22" s="116" t="s">
+      <c r="F22" s="121" t="s">
         <v>930</v>
       </c>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="117"/>
+      <c r="A23" s="122"/>
       <c r="B23" s="96"/>
       <c r="C23" s="96"/>
       <c r="D23" s="96" t="str">
@@ -20463,7 +20477,7 @@
         <v xml:space="preserve">emna-extraclase /emnaUsuariosMS/models </v>
       </c>
       <c r="E23" s="96"/>
-      <c r="F23" s="117"/>
+      <c r="F23" s="122"/>
     </row>
     <row r="24" spans="1:6" ht="30">
       <c r="A24" s="77" t="str">
@@ -20490,7 +20504,7 @@
       </c>
     </row>
     <row r="25" spans="1:6">
-      <c r="A25" s="116" t="str">
+      <c r="A25" s="121" t="str">
         <f>$A$19&amp;"/"&amp;$B$19</f>
         <v>emna-extraclase /emnaUsuariosMS</v>
       </c>
@@ -20506,12 +20520,12 @@
         <f>C22</f>
         <v xml:space="preserve">emna-extraclase /emnaUsuariosMS/views </v>
       </c>
-      <c r="F25" s="116" t="s">
+      <c r="F25" s="121" t="s">
         <v>932</v>
       </c>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" s="117"/>
+      <c r="A26" s="122"/>
       <c r="B26" s="96"/>
       <c r="C26" s="96"/>
       <c r="D26" s="96"/>
@@ -20519,7 +20533,7 @@
         <f>C24</f>
         <v xml:space="preserve">emna-extraclase /emnaUsuariosMS/serializers </v>
       </c>
-      <c r="F26" s="117"/>
+      <c r="F26" s="122"/>
     </row>
     <row r="27" spans="1:6" ht="30">
       <c r="A27" s="94" t="str">
@@ -20582,7 +20596,7 @@
       </c>
     </row>
     <row r="30" spans="1:6">
-      <c r="A30" s="116" t="str">
+      <c r="A30" s="121" t="str">
         <f t="shared" si="1"/>
         <v>emna-extraclase /emnaSeguridadMS</v>
       </c>
@@ -20601,12 +20615,12 @@
         <f>C29</f>
         <v xml:space="preserve">emna-extraclase /emnaSeguridadMS/urls </v>
       </c>
-      <c r="F30" s="116" t="s">
+      <c r="F30" s="121" t="s">
         <v>936</v>
       </c>
     </row>
     <row r="31" spans="1:6">
-      <c r="A31" s="117"/>
+      <c r="A31" s="122"/>
       <c r="B31" s="96"/>
       <c r="C31" s="96"/>
       <c r="D31" s="96" t="str">
@@ -20614,7 +20628,7 @@
         <v xml:space="preserve">emna-extraclase /emnaSeguridadMS/models </v>
       </c>
       <c r="E31" s="96"/>
-      <c r="F31" s="117"/>
+      <c r="F31" s="122"/>
     </row>
     <row r="32" spans="1:6" ht="30">
       <c r="A32" s="77" t="str">
@@ -20641,7 +20655,7 @@
       </c>
     </row>
     <row r="33" spans="1:6">
-      <c r="A33" s="116" t="str">
+      <c r="A33" s="121" t="str">
         <f t="shared" si="1"/>
         <v>emna-extraclase /emnaSeguridadMS</v>
       </c>
@@ -20657,12 +20671,12 @@
         <f>C30</f>
         <v xml:space="preserve">emna-extraclase /emnaSeguridadMS/views </v>
       </c>
-      <c r="F33" s="116" t="s">
+      <c r="F33" s="121" t="s">
         <v>938</v>
       </c>
     </row>
     <row r="34" spans="1:6">
-      <c r="A34" s="117"/>
+      <c r="A34" s="122"/>
       <c r="B34" s="77"/>
       <c r="C34" s="77"/>
       <c r="D34" s="77"/>
@@ -20670,7 +20684,7 @@
         <f>C32</f>
         <v xml:space="preserve">emna-extraclase /emnaSeguridadMS/serializers </v>
       </c>
-      <c r="F34" s="117"/>
+      <c r="F34" s="122"/>
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="94" t="str">
@@ -20692,13 +20706,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="A8:A10"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="A25:A26"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="F25:F26"/>
     <mergeCell ref="F30:F31"/>
@@ -20711,6 +20718,13 @@
     <mergeCell ref="B3:F3"/>
     <mergeCell ref="B4:F4"/>
     <mergeCell ref="B5:F5"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="A25:A26"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'Tabla de Contenido'!A1" display="Tabla de Contenido" xr:uid="{94EFA083-0C5B-412C-8DD7-22C9E2BEB40A}"/>
